--- a/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261268.103770646</v>
+        <v>2261289.818649674</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10982331.25479208</v>
+        <v>10982331.25479209</v>
       </c>
     </row>
     <row r="9">
@@ -1612,16 +1612,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>20.60776234416312</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1630,7 +1630,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="J14" t="n">
-        <v>1.958590140067713</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1660,16 +1660,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="C16" t="n">
         <v>25.62029119463083</v>
@@ -1773,10 +1773,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="E16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>10.28755987289279</v>
       </c>
     </row>
     <row r="17">
@@ -1903,16 +1903,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>93.85073468133773</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="W17" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="X17" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="Y17" t="n">
-        <v>106.5516969588303</v>
+        <v>93.85073468133766</v>
       </c>
     </row>
     <row r="18">
@@ -1925,16 +1925,16 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>70.52289886632298</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="D18" t="n">
-        <v>95.61149909599845</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>105.8115139867606</v>
+        <v>105.8115139867607</v>
       </c>
       <c r="F18" t="n">
-        <v>93.23564592474358</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1943,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>37.56306638277481</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.32426768400283</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>57.02785127063237</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="H19" t="n">
-        <v>106.5516969588303</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>93.85073468133766</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="T19" t="n">
-        <v>93.85073468133773</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2067,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>106.5516969588303</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>122.8582111754871</v>
+        <v>108.2135124033689</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>108.2135124033691</v>
+        <v>122.858211175487</v>
       </c>
       <c r="V20" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2162,25 +2162,25 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>110.1137312184474</v>
       </c>
       <c r="D21" t="n">
-        <v>84.8502977947704</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>95.05031268553259</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.47444462351552</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>6.95238442945886</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>49.64067646662814</v>
       </c>
       <c r="I21" t="n">
-        <v>26.80186508154672</v>
+        <v>26.80186508154676</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.56306638277481</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>122.858211175487</v>
       </c>
       <c r="U21" t="n">
-        <v>64.753014568978</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.2372124120689</v>
+        <v>117.237212412069</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>83.07009881998276</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2262,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>30.76441234680441</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>113.834511166787</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>122.858211175487</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>122.858211175487</v>
       </c>
       <c r="U22" t="n">
-        <v>122.8582111754871</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2307,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>122.8582111754871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2396,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>48.96798354427041</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2408,7 +2408,7 @@
         <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>143.4039542980102</v>
@@ -2465,7 +2465,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>80.736895380446</v>
       </c>
     </row>
     <row r="25">
@@ -2478,10 +2478,10 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>66.05384207584321</v>
@@ -2529,22 +2529,22 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>68.46358385784116</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>79.76172868729002</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="26">
@@ -2572,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,16 +2602,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>52.99502884595981</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>238.3556256187198</v>
@@ -2620,7 +2620,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>142.1631992427591</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>40.72811382049951</v>
       </c>
       <c r="C27" t="n">
         <v>83.31186613690066</v>
@@ -2642,13 +2642,13 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
         <v>22.83881138508139</v>
@@ -2681,25 +2681,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>135.5743575262256</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>116.2860629258893</v>
@@ -2718,25 +2718,25 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>55.06245920271297</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2766,16 +2766,16 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>114.4984941374946</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2797,7 +2797,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
@@ -2806,7 +2806,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2854,7 +2854,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>77.13655079845226</v>
+        <v>0.9303682223669985</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>89.00231334302779</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>55.06245920271297</v>
       </c>
       <c r="V31" t="n">
-        <v>70.25352839334526</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3076,16 +3076,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T32" t="n">
         <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
-        <v>89.34737023195379</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>171.7881398875041</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
-        <v>49.35856017507943</v>
+        <v>29.02997726494032</v>
       </c>
       <c r="D33" t="n">
         <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>151.5371490082765</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y33" t="n">
         <v>105.5248616246612</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>59.30778304277005</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>26.94026594017025</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,16 +3237,16 @@
         <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T34" t="n">
         <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3255,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>97.49054808606662</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>60.4724850897346</v>
+        <v>38.02800101713306</v>
       </c>
       <c r="S35" t="n">
         <v>119.6234367348303</v>
@@ -3328,7 +3328,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,10 +3344,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C36" t="n">
-        <v>83.31186613690066</v>
+        <v>3.390256874325191</v>
       </c>
       <c r="D36" t="n">
         <v>58.04843271322368</v>
@@ -3359,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>22.83881138508139</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>82.28653825242274</v>
@@ -3401,16 +3401,16 @@
         <v>110.7680958434065</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V36" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W36" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>29.12960719497072</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y36" t="n">
         <v>116.2860629258893</v>
@@ -3429,7 +3429,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.77964253239543</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>73.83501028778696</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>162.7410104724129</v>
@@ -3511,7 +3511,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="E38" t="n">
-        <v>189.7190331592112</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>0.9681480212431017</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>188.7508851379682</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3568,7 +3568,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,7 +3581,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.938415879999</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>110.1137312184474</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>95.05031268553259</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3599,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>49.64067646662814</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.80186508154676</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>137.5699609249533</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>163.3466143111065</v>
       </c>
       <c r="V39" t="n">
-        <v>56.95017267470345</v>
+        <v>153.8099957320798</v>
       </c>
       <c r="W39" t="n">
         <v>189.1002153910513</v>
       </c>
       <c r="X39" t="n">
-        <v>143.1782174336091</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>143.087928007436</v>
       </c>
     </row>
     <row r="40">
@@ -3663,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>104.6520533287595</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>86.020705248344</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>105.3962115885904</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.76441234680441</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3705,25 +3705,25 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.56727548182602</v>
+        <v>0</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>126.3874879355059</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>71.85127269284216</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>189.5428755539597</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>134.4625919188288</v>
+        <v>118.4346509621044</v>
       </c>
       <c r="C41" t="n">
-        <v>118.4346509621043</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="D41" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="E41" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113.9291150945438</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>120.1044304329922</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.79256429609156</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3872,22 +3872,22 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>81.64208666601284</v>
       </c>
       <c r="V42" t="n">
-        <v>18.86369735339721</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="Y42" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
     </row>
     <row r="43">
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.2279116266137</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>21.88374466450659</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>14.64906437229116</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,13 +3960,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="X43" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="Y43" t="n">
-        <v>134.4625919188288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>118.156077702172</v>
+        <v>104.0718732400731</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>104.0718732400731</v>
+        <v>118.156077702172</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4058,73 +4058,73 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
+        <v>0</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>59.63137568117295</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>44.44049755890016</v>
+      </c>
+      <c r="W45" t="n">
         <v>118.156077702172</v>
       </c>
-      <c r="D45" t="n">
-        <v>94.8409970093152</v>
-      </c>
-      <c r="E45" t="n">
-        <v>105.0410119000774</v>
-      </c>
-      <c r="F45" t="n">
-        <v>92.46514383806033</v>
-      </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>0</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
-        <v>0</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>118.156077702172</v>
       </c>
       <c r="Y45" t="n">
-        <v>48.03687589696428</v>
+        <v>118.156077702172</v>
       </c>
     </row>
     <row r="46">
@@ -4179,7 +4179,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>33.55797469637087</v>
       </c>
       <c r="R46" t="n">
         <v>118.156077702172</v>
@@ -4191,7 +4191,7 @@
         <v>118.156077702172</v>
       </c>
       <c r="U46" t="n">
-        <v>63.56860702226187</v>
+        <v>30.01063232589092</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5254,46 +5254,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C14" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D14" t="n">
-        <v>76.6020827637447</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E14" t="n">
-        <v>55.78616120398398</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="F14" t="n">
-        <v>55.78616120398398</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="G14" t="n">
-        <v>29.90707918920536</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H14" t="n">
-        <v>29.90707918920536</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="I14" t="n">
-        <v>4.027997174426742</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J14" t="n">
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
+        <v>2.049623295570466</v>
+      </c>
+      <c r="L14" t="n">
         <v>26.38889993046976</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
+        <v>26.38889993046976</v>
+      </c>
+      <c r="N14" t="n">
         <v>51.75298821315428</v>
       </c>
-      <c r="M14" t="n">
-        <v>51.75298821315428</v>
-      </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>77.1170764958388</v>
-      </c>
-      <c r="O14" t="n">
-        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5308,22 +5308,22 @@
         <v>102.4811647785233</v>
       </c>
       <c r="T14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W14" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X14" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y14" t="n">
-        <v>102.4811647785233</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="15">
@@ -5366,16 +5366,16 @@
         <v>27.41371157825499</v>
       </c>
       <c r="M15" t="n">
-        <v>52.77779986093951</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="O15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="P15" t="n">
-        <v>78.14188814362403</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>102.4811647785233</v>
+        <v>66.21060814466108</v>
       </c>
       <c r="C16" t="n">
-        <v>76.6020827637447</v>
+        <v>40.33152612988246</v>
       </c>
       <c r="D16" t="n">
-        <v>50.72300074896609</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="E16" t="n">
-        <v>24.84391873418747</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="F16" t="n">
-        <v>2.049623295570466</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="G16" t="n">
-        <v>2.049623295570466</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="H16" t="n">
-        <v>2.049623295570466</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="I16" t="n">
-        <v>2.049623295570466</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="J16" t="n">
-        <v>2.049623295570466</v>
+        <v>14.45244411510385</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5481,7 +5481,7 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.4811647785233</v>
+        <v>92.0896901594397</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="C17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="D17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="E17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="F17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="G17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="H17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="I17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="J17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="K17" t="n">
         <v>111.5391416676288</v>
       </c>
       <c r="L17" t="n">
-        <v>215.2344278568372</v>
+        <v>217.0253216568707</v>
       </c>
       <c r="M17" t="n">
-        <v>215.2344278568372</v>
+        <v>217.0253216568707</v>
       </c>
       <c r="N17" t="n">
-        <v>320.7206078460791</v>
+        <v>320.7206078460789</v>
       </c>
       <c r="O17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="P17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="Q17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="R17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="S17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="T17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="U17" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="V17" t="n">
-        <v>331.40806593498</v>
+        <v>318.5788111092297</v>
       </c>
       <c r="W17" t="n">
-        <v>223.7800892088888</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="X17" t="n">
-        <v>116.1521124827976</v>
+        <v>103.3228576570475</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>377.3943962353183</v>
+        <v>260.9749209368738</v>
       </c>
       <c r="C18" t="n">
-        <v>306.159144855194</v>
+        <v>153.3469442107827</v>
       </c>
       <c r="D18" t="n">
-        <v>209.5818730410542</v>
+        <v>153.3469442107827</v>
       </c>
       <c r="E18" t="n">
-        <v>102.7015558827101</v>
+        <v>46.46662705243855</v>
       </c>
       <c r="F18" t="n">
-        <v>8.524135756706423</v>
+        <v>46.46662705243855</v>
       </c>
       <c r="G18" t="n">
-        <v>8.524135756706423</v>
+        <v>46.46662705243855</v>
       </c>
       <c r="H18" t="n">
-        <v>8.524135756706423</v>
+        <v>46.46662705243855</v>
       </c>
       <c r="I18" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="J18" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="K18" t="n">
-        <v>40.3536893542659</v>
+        <v>40.3536893542658</v>
       </c>
       <c r="L18" t="n">
-        <v>145.8398693435079</v>
+        <v>145.8398693435077</v>
       </c>
       <c r="M18" t="n">
-        <v>251.3260493327498</v>
+        <v>145.8398693435077</v>
       </c>
       <c r="N18" t="n">
-        <v>251.3260493327498</v>
+        <v>251.3260493327496</v>
       </c>
       <c r="O18" t="n">
-        <v>251.3260493327498</v>
+        <v>251.3260493327496</v>
       </c>
       <c r="P18" t="n">
-        <v>356.8122293219918</v>
+        <v>356.8122293219915</v>
       </c>
       <c r="Q18" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="R18" t="n">
-        <v>377.3943962353183</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="S18" t="n">
-        <v>377.3943962353183</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="T18" t="n">
-        <v>377.3943962353183</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="U18" t="n">
-        <v>377.3943962353183</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="V18" t="n">
-        <v>377.3943962353183</v>
+        <v>318.5788111092297</v>
       </c>
       <c r="W18" t="n">
-        <v>377.3943962353183</v>
+        <v>260.9749209368738</v>
       </c>
       <c r="X18" t="n">
-        <v>377.3943962353183</v>
+        <v>260.9749209368738</v>
       </c>
       <c r="Y18" t="n">
-        <v>377.3943962353183</v>
+        <v>260.9749209368738</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="C19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="D19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="E19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="F19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="G19" t="n">
-        <v>116.1521124827976</v>
+        <v>103.3228576570475</v>
       </c>
       <c r="H19" t="n">
-        <v>8.524135756706423</v>
+        <v>103.3228576570475</v>
       </c>
       <c r="I19" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="J19" t="n">
-        <v>8.524135756706423</v>
+        <v>8.524135756706416</v>
       </c>
       <c r="K19" t="n">
-        <v>37.79256965303631</v>
+        <v>37.79256965303625</v>
       </c>
       <c r="L19" t="n">
-        <v>116.4219254647032</v>
+        <v>116.4219254647031</v>
       </c>
       <c r="M19" t="n">
-        <v>206.9251944608793</v>
+        <v>206.9251944608791</v>
       </c>
       <c r="N19" t="n">
-        <v>301.9312759202695</v>
+        <v>301.9312759202693</v>
       </c>
       <c r="O19" t="n">
-        <v>377.5857833591227</v>
+        <v>377.5857833591224</v>
       </c>
       <c r="P19" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="Q19" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="R19" t="n">
-        <v>426.2067878353211</v>
+        <v>426.2067878353208</v>
       </c>
       <c r="S19" t="n">
-        <v>426.2067878353211</v>
+        <v>318.5788111092297</v>
       </c>
       <c r="T19" t="n">
-        <v>331.40806593498</v>
+        <v>318.5788111092297</v>
       </c>
       <c r="U19" t="n">
-        <v>223.7800892088888</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="V19" t="n">
-        <v>223.7800892088888</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="W19" t="n">
-        <v>223.7800892088888</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="X19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
       <c r="Y19" t="n">
-        <v>116.1521124827976</v>
+        <v>210.9508343831386</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="C20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="D20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="E20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="F20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="G20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="H20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="I20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="J20" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="K20" t="n">
-        <v>36.88390221870073</v>
+        <v>36.88390221870067</v>
       </c>
       <c r="L20" t="n">
-        <v>158.513531282433</v>
+        <v>158.5135312824328</v>
       </c>
       <c r="M20" t="n">
-        <v>280.1431603461652</v>
+        <v>280.143160346165</v>
       </c>
       <c r="N20" t="n">
-        <v>401.7727894098974</v>
+        <v>401.7727894098972</v>
       </c>
       <c r="O20" t="n">
-        <v>401.7727894098974</v>
+        <v>401.7727894098972</v>
       </c>
       <c r="P20" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="Q20" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="R20" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="S20" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="T20" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="U20" t="n">
-        <v>382.1262665167271</v>
+        <v>367.3336414943855</v>
       </c>
       <c r="V20" t="n">
-        <v>258.0270633091644</v>
+        <v>243.2344382868228</v>
       </c>
       <c r="W20" t="n">
-        <v>258.0270633091644</v>
+        <v>243.2344382868228</v>
       </c>
       <c r="X20" t="n">
-        <v>133.9278601016017</v>
+        <v>119.1352350792601</v>
       </c>
       <c r="Y20" t="n">
-        <v>133.9278601016017</v>
+        <v>119.1352350792601</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>301.9265560711756</v>
+        <v>205.2919469910907</v>
       </c>
       <c r="C21" t="n">
-        <v>301.9265560711756</v>
+        <v>94.0659558613458</v>
       </c>
       <c r="D21" t="n">
-        <v>216.2191845613065</v>
+        <v>94.0659558613458</v>
       </c>
       <c r="E21" t="n">
-        <v>120.2087677072332</v>
+        <v>94.0659558613458</v>
       </c>
       <c r="F21" t="n">
-        <v>36.9012478855003</v>
+        <v>94.0659558613458</v>
       </c>
       <c r="G21" t="n">
-        <v>36.9012478855003</v>
+        <v>87.04334532653887</v>
       </c>
       <c r="H21" t="n">
-        <v>36.9012478855003</v>
+        <v>36.90124788550034</v>
       </c>
       <c r="I21" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="J21" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="K21" t="n">
-        <v>131.4582859577712</v>
+        <v>131.4582859577711</v>
       </c>
       <c r="L21" t="n">
-        <v>131.4582859577712</v>
+        <v>131.4582859577711</v>
       </c>
       <c r="M21" t="n">
-        <v>178.7790280611546</v>
+        <v>131.4582859577711</v>
       </c>
       <c r="N21" t="n">
-        <v>300.4086571248869</v>
+        <v>253.0879150215033</v>
       </c>
       <c r="O21" t="n">
-        <v>422.0382861886191</v>
+        <v>374.7175440852355</v>
       </c>
       <c r="P21" t="n">
-        <v>422.0382861886191</v>
+        <v>422.0382861886189</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="R21" t="n">
-        <v>491.4328447019484</v>
+        <v>453.4903534062161</v>
       </c>
       <c r="S21" t="n">
-        <v>491.4328447019484</v>
+        <v>453.4903534062161</v>
       </c>
       <c r="T21" t="n">
-        <v>491.4328447019484</v>
+        <v>329.3911501986533</v>
       </c>
       <c r="U21" t="n">
-        <v>426.0257592787383</v>
+        <v>329.3911501986533</v>
       </c>
       <c r="V21" t="n">
-        <v>426.0257592787383</v>
+        <v>329.3911501986533</v>
       </c>
       <c r="W21" t="n">
-        <v>301.9265560711756</v>
+        <v>205.2919469910907</v>
       </c>
       <c r="X21" t="n">
-        <v>301.9265560711756</v>
+        <v>205.2919469910907</v>
       </c>
       <c r="Y21" t="n">
-        <v>301.9265560711756</v>
+        <v>205.2919469910907</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>124.8130116079654</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="C22" t="n">
-        <v>124.8130116079654</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="D22" t="n">
-        <v>124.8130116079654</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="E22" t="n">
-        <v>124.8130116079654</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="F22" t="n">
-        <v>124.8130116079654</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="G22" t="n">
-        <v>40.90382088071009</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="H22" t="n">
-        <v>40.90382088071009</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="I22" t="n">
-        <v>40.90382088071009</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="J22" t="n">
-        <v>9.828656894038968</v>
+        <v>9.828656894038964</v>
       </c>
       <c r="K22" t="n">
-        <v>49.75068007858471</v>
+        <v>49.75068007858465</v>
       </c>
       <c r="L22" t="n">
         <v>139.0336251784673</v>
@@ -5922,40 +5922,40 @@
         <v>240.1904834628592</v>
       </c>
       <c r="N22" t="n">
-        <v>345.8501542104652</v>
+        <v>345.8501542104651</v>
       </c>
       <c r="O22" t="n">
-        <v>432.1582509375341</v>
+        <v>432.158250937534</v>
       </c>
       <c r="P22" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="Q22" t="n">
-        <v>491.4328447019484</v>
+        <v>491.4328447019482</v>
       </c>
       <c r="R22" t="n">
-        <v>491.4328447019484</v>
+        <v>376.4484899880219</v>
       </c>
       <c r="S22" t="n">
-        <v>491.4328447019484</v>
+        <v>252.3492867804592</v>
       </c>
       <c r="T22" t="n">
-        <v>491.4328447019484</v>
+        <v>128.2500835728965</v>
       </c>
       <c r="U22" t="n">
-        <v>367.3336414943857</v>
+        <v>128.2500835728965</v>
       </c>
       <c r="V22" t="n">
-        <v>367.3336414943857</v>
+        <v>128.2500835728965</v>
       </c>
       <c r="W22" t="n">
-        <v>367.3336414943857</v>
+        <v>128.2500835728965</v>
       </c>
       <c r="X22" t="n">
-        <v>367.3336414943857</v>
+        <v>128.2500835728965</v>
       </c>
       <c r="Y22" t="n">
-        <v>243.234438286823</v>
+        <v>128.2500835728965</v>
       </c>
     </row>
     <row r="23">
@@ -5989,7 +5989,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K23" t="n">
         <v>122.2961490211351</v>
@@ -6044,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>144.4538978030962</v>
+        <v>172.3723691111082</v>
       </c>
       <c r="C24" t="n">
-        <v>144.4538978030962</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="D24" t="n">
-        <v>144.4538978030962</v>
+        <v>88.21896897282471</v>
       </c>
       <c r="E24" t="n">
-        <v>75.51607194048424</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6074,19 +6074,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L24" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6101,19 +6101,19 @@
         <v>758.1825743014874</v>
       </c>
       <c r="U24" t="n">
-        <v>620.25858518072</v>
+        <v>758.1825743014874</v>
       </c>
       <c r="V24" t="n">
-        <v>475.4061060918208</v>
+        <v>613.3300952125883</v>
       </c>
       <c r="W24" t="n">
-        <v>311.4683785064627</v>
+        <v>449.3923676272301</v>
       </c>
       <c r="X24" t="n">
-        <v>193.9165074437734</v>
+        <v>331.8404965645408</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.9165074437734</v>
+        <v>250.2880769883327</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>238.20495116989</v>
+        <v>145.8192059815668</v>
       </c>
       <c r="C25" t="n">
-        <v>159.5683973848266</v>
+        <v>145.8192059815668</v>
       </c>
       <c r="D25" t="n">
-        <v>159.5683973848266</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="E25" t="n">
-        <v>159.5683973848266</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="F25" t="n">
-        <v>159.5683973848266</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="G25" t="n">
-        <v>159.5683973848266</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H25" t="n">
         <v>86.00219571207455</v>
@@ -6177,22 +6177,22 @@
         <v>574.5060486347639</v>
       </c>
       <c r="T25" t="n">
-        <v>574.5060486347639</v>
+        <v>505.3509134248234</v>
       </c>
       <c r="U25" t="n">
-        <v>574.5060486347639</v>
+        <v>505.3509134248234</v>
       </c>
       <c r="V25" t="n">
-        <v>410.1211895717205</v>
+        <v>505.3509134248234</v>
       </c>
       <c r="W25" t="n">
-        <v>329.5537868572862</v>
+        <v>505.3509134248234</v>
       </c>
       <c r="X25" t="n">
-        <v>329.5537868572862</v>
+        <v>367.6609916696495</v>
       </c>
       <c r="Y25" t="n">
-        <v>329.5537868572862</v>
+        <v>237.168041668963</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T26" t="n">
-        <v>910.526823343</v>
+        <v>647.092369109342</v>
       </c>
       <c r="U26" t="n">
-        <v>746.94195459914</v>
+        <v>647.092369109342</v>
       </c>
       <c r="V26" t="n">
-        <v>506.1786963984129</v>
+        <v>406.3291109086149</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>162.8803342645148</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>241.3737590467527</v>
+        <v>358.7427811839057</v>
       </c>
       <c r="C27" t="n">
-        <v>157.2203589084692</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="D27" t="n">
-        <v>98.58557839006141</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E27" t="n">
-        <v>98.58557839006141</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F27" t="n">
-        <v>42.35064955978989</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G27" t="n">
         <v>42.35064955978989</v>
@@ -6308,16 +6308,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N27" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O27" t="n">
         <v>894.6625969973069</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>758.1825743014874</v>
+        <v>826.1331663898688</v>
       </c>
       <c r="V27" t="n">
-        <v>613.3300952125883</v>
+        <v>681.2806873009697</v>
       </c>
       <c r="W27" t="n">
-        <v>476.3862997315524</v>
+        <v>517.3429597156115</v>
       </c>
       <c r="X27" t="n">
-        <v>358.834428668863</v>
+        <v>517.3429597156115</v>
       </c>
       <c r="Y27" t="n">
-        <v>241.3737590467527</v>
+        <v>399.8822900935011</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>158.4863821746985</v>
+        <v>298.577844834336</v>
       </c>
       <c r="C28" t="n">
-        <v>158.4863821746985</v>
+        <v>298.577844834336</v>
       </c>
       <c r="D28" t="n">
-        <v>98.66937190520635</v>
+        <v>298.577844834336</v>
       </c>
       <c r="E28" t="n">
-        <v>98.66937190520635</v>
+        <v>298.577844834336</v>
       </c>
       <c r="F28" t="n">
-        <v>98.66937190520635</v>
+        <v>242.95919917503</v>
       </c>
       <c r="G28" t="n">
-        <v>19.28114311021272</v>
+        <v>163.5709703800364</v>
       </c>
       <c r="H28" t="n">
-        <v>19.28114311021272</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I28" t="n">
-        <v>19.28114311021272</v>
+        <v>23.28371610542252</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>438.5262858210698</v>
       </c>
       <c r="T28" t="n">
-        <v>438.5262858210698</v>
+        <v>298.577844834336</v>
       </c>
       <c r="U28" t="n">
-        <v>438.5262858210698</v>
+        <v>298.577844834336</v>
       </c>
       <c r="V28" t="n">
-        <v>274.1414267580264</v>
+        <v>298.577844834336</v>
       </c>
       <c r="W28" t="n">
-        <v>158.4863821746985</v>
+        <v>298.577844834336</v>
       </c>
       <c r="X28" t="n">
-        <v>158.4863821746985</v>
+        <v>298.577844834336</v>
       </c>
       <c r="Y28" t="n">
-        <v>158.4863821746985</v>
+        <v>298.577844834336</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D29" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E29" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6463,7 +6463,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6502,13 +6502,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>210.500520041445</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="C30" t="n">
-        <v>126.3471199031615</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="D30" t="n">
-        <v>67.7123393847537</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="E30" t="n">
-        <v>67.7123393847537</v>
+        <v>75.51607194048424</v>
       </c>
       <c r="F30" t="n">
-        <v>67.7123393847537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6575,19 +6575,19 @@
         <v>758.1825743014874</v>
       </c>
       <c r="U30" t="n">
-        <v>668.2812476923684</v>
+        <v>620.25858518072</v>
       </c>
       <c r="V30" t="n">
-        <v>523.4287686034692</v>
+        <v>475.4061060918208</v>
       </c>
       <c r="W30" t="n">
-        <v>523.4287686034692</v>
+        <v>311.4683785064627</v>
       </c>
       <c r="X30" t="n">
-        <v>405.8768975407799</v>
+        <v>193.9165074437734</v>
       </c>
       <c r="Y30" t="n">
-        <v>288.4162279186694</v>
+        <v>76.45583782166302</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>393.6138470873678</v>
+        <v>242.95919917503</v>
       </c>
       <c r="C31" t="n">
-        <v>393.6138470873678</v>
+        <v>242.95919917503</v>
       </c>
       <c r="D31" t="n">
-        <v>393.6138470873678</v>
+        <v>242.95919917503</v>
       </c>
       <c r="E31" t="n">
-        <v>393.6138470873678</v>
+        <v>242.95919917503</v>
       </c>
       <c r="F31" t="n">
-        <v>393.6138470873678</v>
+        <v>242.95919917503</v>
       </c>
       <c r="G31" t="n">
-        <v>393.6138470873678</v>
+        <v>163.5709703800364</v>
       </c>
       <c r="H31" t="n">
-        <v>320.0476454146158</v>
+        <v>90.00476870728434</v>
       </c>
       <c r="I31" t="n">
-        <v>320.0476454146158</v>
+        <v>23.28371610542252</v>
       </c>
       <c r="J31" t="n">
-        <v>320.0476454146158</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>386.5035150298927</v>
+        <v>85.73701272548962</v>
       </c>
       <c r="L31" t="n">
-        <v>502.3203065605066</v>
+        <v>201.5538042561035</v>
       </c>
       <c r="M31" t="n">
-        <v>630.0110112756297</v>
+        <v>329.2445089712266</v>
       </c>
       <c r="N31" t="n">
-        <v>762.204528453967</v>
+        <v>461.4380261495638</v>
       </c>
       <c r="O31" t="n">
-        <v>875.0464716117672</v>
+        <v>574.279969307364</v>
       </c>
       <c r="P31" t="n">
-        <v>960.8549118069127</v>
+        <v>660.0884095025095</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>438.5262858210698</v>
       </c>
       <c r="T31" t="n">
-        <v>824.1087145239024</v>
+        <v>298.577844834336</v>
       </c>
       <c r="U31" t="n">
-        <v>824.1087145239024</v>
+        <v>242.95919917503</v>
       </c>
       <c r="V31" t="n">
-        <v>753.1455545306244</v>
+        <v>242.95919917503</v>
       </c>
       <c r="W31" t="n">
-        <v>753.1455545306244</v>
+        <v>242.95919917503</v>
       </c>
       <c r="X31" t="n">
-        <v>615.4556327754506</v>
+        <v>242.95919917503</v>
       </c>
       <c r="Y31" t="n">
-        <v>484.9626827747639</v>
+        <v>242.95919917503</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="S32" t="n">
-        <v>964.0571555106362</v>
+        <v>803.8818835691122</v>
       </c>
       <c r="T32" t="n">
-        <v>839.8773419636784</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="U32" t="n">
-        <v>749.627473042513</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="V32" t="n">
-        <v>749.627473042513</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="W32" t="n">
-        <v>506.1786963984129</v>
+        <v>436.2532933780544</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>270.0970110142475</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="C33" t="n">
-        <v>220.2398795242683</v>
+        <v>67.04602332434972</v>
       </c>
       <c r="D33" t="n">
-        <v>172.4749993101313</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>114.4070737517901</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>69.04204522578932</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,16 +6782,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O33" t="n">
         <v>964.0571555106362</v>
@@ -6821,10 +6821,10 @@
         <v>376.6877803320872</v>
       </c>
       <c r="X33" t="n">
-        <v>376.6877803320872</v>
+        <v>270.0058095736687</v>
       </c>
       <c r="Y33" t="n">
-        <v>270.0970110142475</v>
+        <v>163.415040255829</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>403.446966722661</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="C34" t="n">
-        <v>403.446966722661</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="D34" t="n">
-        <v>354.4998567574396</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="E34" t="n">
-        <v>354.4998567574396</v>
+        <v>177.7081628079727</v>
       </c>
       <c r="F34" t="n">
-        <v>354.4998567574396</v>
+        <v>177.7081628079727</v>
       </c>
       <c r="G34" t="n">
-        <v>294.593005199086</v>
+        <v>109.1898343172498</v>
       </c>
       <c r="H34" t="n">
-        <v>294.593005199086</v>
+        <v>46.49353294876853</v>
       </c>
       <c r="I34" t="n">
-        <v>238.741852901495</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>245.4725203971056</v>
+        <v>26.01181060582338</v>
       </c>
       <c r="K34" t="n">
-        <v>322.5819793005983</v>
+        <v>103.1212695093161</v>
       </c>
       <c r="L34" t="n">
-        <v>449.0523601194279</v>
+        <v>229.5916503281457</v>
       </c>
       <c r="M34" t="n">
-        <v>587.3966541227668</v>
+        <v>367.9359443314846</v>
       </c>
       <c r="N34" t="n">
-        <v>730.2437605893198</v>
+        <v>510.7830507980376</v>
       </c>
       <c r="O34" t="n">
-        <v>853.7392930353358</v>
+        <v>634.2785832440536</v>
       </c>
       <c r="P34" t="n">
-        <v>950.201322518697</v>
+        <v>730.7406127274148</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="R34" t="n">
-        <v>886.1424512434379</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="S34" t="n">
-        <v>886.1424512434379</v>
+        <v>541.5718789427324</v>
       </c>
       <c r="T34" t="n">
-        <v>757.0639105609749</v>
+        <v>412.4933382602694</v>
       </c>
       <c r="U34" t="n">
-        <v>757.0639105609749</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="V34" t="n">
-        <v>603.5489518022023</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="W34" t="n">
-        <v>603.5489518022023</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="X34" t="n">
-        <v>603.5489518022023</v>
+        <v>224.4517269432515</v>
       </c>
       <c r="Y34" t="n">
-        <v>483.9259021057865</v>
+        <v>224.4517269432515</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>240.0587237213819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
-        <v>240.0587237213819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>240.0587237213819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
-        <v>240.0587237213819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F35" t="n">
-        <v>240.0587237213819</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5834226243449</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>902.973837238177</v>
+        <v>925.6450332711079</v>
       </c>
       <c r="S35" t="n">
-        <v>782.1420829605706</v>
+        <v>804.8132789935015</v>
       </c>
       <c r="T35" t="n">
-        <v>647.092369109342</v>
+        <v>669.7635651422729</v>
       </c>
       <c r="U35" t="n">
-        <v>483.507500365482</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V35" t="n">
-        <v>483.507500365482</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W35" t="n">
-        <v>483.507500365482</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X35" t="n">
-        <v>483.507500365482</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y35" t="n">
-        <v>483.507500365482</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>302.5078523536341</v>
+        <v>173.3477578340674</v>
       </c>
       <c r="C36" t="n">
-        <v>218.3544522153506</v>
+        <v>169.9232559408096</v>
       </c>
       <c r="D36" t="n">
-        <v>159.7196716969428</v>
+        <v>111.2884754224019</v>
       </c>
       <c r="E36" t="n">
-        <v>90.78184583433085</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="F36" t="n">
-        <v>90.78184583433085</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="G36" t="n">
         <v>42.35064955978989</v>
@@ -7019,49 +7019,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>74.24228005117135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="M36" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T36" t="n">
-        <v>758.1825743014874</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U36" t="n">
-        <v>758.1825743014874</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V36" t="n">
-        <v>613.3300952125883</v>
+        <v>486.2760063960916</v>
       </c>
       <c r="W36" t="n">
-        <v>449.3923676272301</v>
+        <v>486.2760063960916</v>
       </c>
       <c r="X36" t="n">
-        <v>419.9685219757445</v>
+        <v>368.7241353334023</v>
       </c>
       <c r="Y36" t="n">
-        <v>302.5078523536341</v>
+        <v>251.2634657112919</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>225.2074347765604</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>225.2074347765604</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>165.3904245070682</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>165.3904245070682</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>165.3904245070682</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
@@ -7119,28 +7119,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R37" t="n">
-        <v>581.6950546886619</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S37" t="n">
-        <v>581.6950546886619</v>
+        <v>588.709834733721</v>
       </c>
       <c r="T37" t="n">
-        <v>581.6950546886619</v>
+        <v>588.709834733721</v>
       </c>
       <c r="U37" t="n">
-        <v>382.7835430673732</v>
+        <v>588.709834733721</v>
       </c>
       <c r="V37" t="n">
-        <v>218.3986840043299</v>
+        <v>424.3249756706775</v>
       </c>
       <c r="W37" t="n">
-        <v>19.28114311021272</v>
+        <v>225.2074347765604</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>225.2074347765604</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>225.2074347765604</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>644.0062961027915</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="C38" t="n">
-        <v>426.43660147347</v>
+        <v>452.3709090732851</v>
       </c>
       <c r="D38" t="n">
-        <v>208.8669068441485</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="E38" t="n">
         <v>17.23151981464226</v>
@@ -7177,7 +7177,7 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>120.2465257255646</v>
+        <v>23.55055379931807</v>
       </c>
       <c r="L38" t="n">
         <v>203.6264053839766</v>
@@ -7198,28 +7198,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>861.5759907321129</v>
+        <v>860.598063437928</v>
       </c>
       <c r="S38" t="n">
-        <v>861.5759907321129</v>
+        <v>860.598063437928</v>
       </c>
       <c r="T38" t="n">
-        <v>861.5759907321129</v>
+        <v>860.598063437928</v>
       </c>
       <c r="U38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="V38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="W38" t="n">
-        <v>861.5759907321129</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="X38" t="n">
-        <v>644.0062961027915</v>
+        <v>669.9406037026066</v>
       </c>
       <c r="Y38" t="n">
-        <v>644.0062961027915</v>
+        <v>669.9406037026066</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>224.4679277984604</v>
+        <v>205.672199376887</v>
       </c>
       <c r="C39" t="n">
-        <v>113.2419366687156</v>
+        <v>94.44620824714217</v>
       </c>
       <c r="D39" t="n">
-        <v>113.2419366687156</v>
+        <v>94.44620824714217</v>
       </c>
       <c r="E39" t="n">
-        <v>17.23151981464226</v>
+        <v>94.44620824714217</v>
       </c>
       <c r="F39" t="n">
-        <v>17.23151981464226</v>
+        <v>94.44620824714217</v>
       </c>
       <c r="G39" t="n">
-        <v>17.23151981464226</v>
+        <v>94.44620824714217</v>
       </c>
       <c r="H39" t="n">
-        <v>17.23151981464226</v>
+        <v>44.30411080610364</v>
       </c>
       <c r="I39" t="n">
         <v>17.23151981464226</v>
@@ -7259,16 +7259,16 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>142.5890798724797</v>
       </c>
       <c r="M39" t="n">
-        <v>569.0691952848756</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N39" t="n">
-        <v>782.3092529910735</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>782.3092529910735</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
         <v>792.1814322187836</v>
@@ -7283,22 +7283,22 @@
         <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>722.6164342422612</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>722.6164342422612</v>
+        <v>696.5794106198841</v>
       </c>
       <c r="V39" t="n">
-        <v>665.0910072981163</v>
+        <v>541.2157785672782</v>
       </c>
       <c r="W39" t="n">
-        <v>474.0806887212969</v>
+        <v>350.2054599904588</v>
       </c>
       <c r="X39" t="n">
-        <v>329.4562266671463</v>
+        <v>350.2054599904588</v>
       </c>
       <c r="Y39" t="n">
-        <v>329.4562266671463</v>
+        <v>205.672199376887</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>347.3662496252466</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="C40" t="n">
-        <v>241.6571048487219</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="D40" t="n">
-        <v>154.7675035877683</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E40" t="n">
-        <v>154.7675035877683</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F40" t="n">
-        <v>154.7675035877683</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G40" t="n">
-        <v>48.30668380131338</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H40" t="n">
-        <v>48.30668380131338</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I40" t="n">
-        <v>48.30668380131338</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="J40" t="n">
         <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>57.15354299918791</v>
+        <v>57.15354299918788</v>
       </c>
       <c r="L40" t="n">
-        <v>146.4364880990706</v>
+        <v>146.4364880990705</v>
       </c>
       <c r="M40" t="n">
-        <v>247.5933463834624</v>
+        <v>247.5933463834623</v>
       </c>
       <c r="N40" t="n">
-        <v>353.2530171310684</v>
+        <v>353.2530171310683</v>
       </c>
       <c r="O40" t="n">
-        <v>439.5611138581373</v>
+        <v>439.5611138581372</v>
       </c>
       <c r="P40" t="n">
-        <v>498.8357076225516</v>
+        <v>498.8357076225514</v>
       </c>
       <c r="Q40" t="n">
-        <v>475.0303788530304</v>
+        <v>498.8357076225514</v>
       </c>
       <c r="R40" t="n">
-        <v>475.0303788530304</v>
+        <v>498.8357076225514</v>
       </c>
       <c r="S40" t="n">
-        <v>347.3662496252466</v>
+        <v>498.8357076225514</v>
       </c>
       <c r="T40" t="n">
-        <v>347.3662496252466</v>
+        <v>498.8357076225514</v>
       </c>
       <c r="U40" t="n">
-        <v>347.3662496252466</v>
+        <v>426.2586644984684</v>
       </c>
       <c r="V40" t="n">
-        <v>347.3662496252466</v>
+        <v>234.8012144439637</v>
       </c>
       <c r="W40" t="n">
-        <v>347.3662496252466</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="X40" t="n">
-        <v>347.3662496252466</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="Y40" t="n">
-        <v>347.3662496252466</v>
+        <v>17.23151981464226</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>402.0295677573063</v>
+        <v>418.2194071075332</v>
       </c>
       <c r="C41" t="n">
-        <v>282.3986071895241</v>
+        <v>282.3986071895243</v>
       </c>
       <c r="D41" t="n">
-        <v>146.5778072715152</v>
+        <v>146.5778072715153</v>
       </c>
       <c r="E41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="F41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="G41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="H41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="I41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="J41" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="K41" t="n">
-        <v>10.7570073535063</v>
+        <v>113.7720132644287</v>
       </c>
       <c r="L41" t="n">
-        <v>143.8749733531468</v>
+        <v>246.8899792640692</v>
       </c>
       <c r="M41" t="n">
-        <v>276.9929393527873</v>
+        <v>315.072346383624</v>
       </c>
       <c r="N41" t="n">
-        <v>315.0723463836237</v>
+        <v>315.072346383624</v>
       </c>
       <c r="O41" t="n">
-        <v>448.1903123832642</v>
+        <v>448.1903123832645</v>
       </c>
       <c r="P41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="Q41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="R41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="S41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="T41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="U41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="V41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="W41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="X41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="Y41" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>132.0746138514782</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="C42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="D42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="E42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="F42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="G42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="H42" t="n">
-        <v>10.7570073535063</v>
+        <v>47.92121371319476</v>
       </c>
       <c r="I42" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="J42" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="K42" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="L42" t="n">
-        <v>10.7570073535063</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="M42" t="n">
-        <v>69.10191116306441</v>
+        <v>69.10191116306447</v>
       </c>
       <c r="N42" t="n">
-        <v>202.2198771627049</v>
+        <v>202.219877162705</v>
       </c>
       <c r="O42" t="n">
-        <v>335.3378431623454</v>
+        <v>335.3378431623456</v>
       </c>
       <c r="P42" t="n">
-        <v>468.4558091619859</v>
+        <v>468.4558091619862</v>
       </c>
       <c r="Q42" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="R42" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="S42" t="n">
-        <v>537.8503676753152</v>
+        <v>537.8503676753155</v>
       </c>
       <c r="T42" t="n">
-        <v>537.8503676753152</v>
+        <v>402.0295677573065</v>
       </c>
       <c r="U42" t="n">
-        <v>537.8503676753152</v>
+        <v>319.5628135492127</v>
       </c>
       <c r="V42" t="n">
-        <v>518.7961279244089</v>
+        <v>319.5628135492127</v>
       </c>
       <c r="W42" t="n">
-        <v>518.7961279244089</v>
+        <v>319.5628135492127</v>
       </c>
       <c r="X42" t="n">
-        <v>382.9753280064</v>
+        <v>183.7420136312037</v>
       </c>
       <c r="Y42" t="n">
-        <v>247.1545280883911</v>
+        <v>47.92121371319476</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>137.6957257922128</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="C43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="D43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="E43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="F43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="G43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="H43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="I43" t="n">
-        <v>115.5909332018021</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="J43" t="n">
-        <v>115.5909332018021</v>
+        <v>10.75700735350631</v>
       </c>
       <c r="K43" t="n">
-        <v>145.6221641639484</v>
+        <v>40.78823831565256</v>
       </c>
       <c r="L43" t="n">
-        <v>225.0143170414316</v>
+        <v>120.1803911931358</v>
       </c>
       <c r="M43" t="n">
-        <v>316.2803831034241</v>
+        <v>211.4464572551283</v>
       </c>
       <c r="N43" t="n">
-        <v>412.0492616286307</v>
+        <v>307.2153357803348</v>
       </c>
       <c r="O43" t="n">
-        <v>488.4665661333003</v>
+        <v>383.6326402850044</v>
       </c>
       <c r="P43" t="n">
-        <v>537.8503676753152</v>
+        <v>433.0164418270193</v>
       </c>
       <c r="Q43" t="n">
-        <v>537.8503676753152</v>
+        <v>433.0164418270193</v>
       </c>
       <c r="R43" t="n">
-        <v>537.8503676753152</v>
+        <v>433.0164418270193</v>
       </c>
       <c r="S43" t="n">
-        <v>537.8503676753152</v>
+        <v>297.1956419090103</v>
       </c>
       <c r="T43" t="n">
-        <v>537.8503676753152</v>
+        <v>297.1956419090103</v>
       </c>
       <c r="U43" t="n">
-        <v>537.8503676753152</v>
+        <v>297.1956419090103</v>
       </c>
       <c r="V43" t="n">
-        <v>537.8503676753152</v>
+        <v>297.1956419090103</v>
       </c>
       <c r="W43" t="n">
-        <v>537.8503676753152</v>
+        <v>161.3748419910013</v>
       </c>
       <c r="X43" t="n">
-        <v>402.0295677573063</v>
+        <v>25.55404207299233</v>
       </c>
       <c r="Y43" t="n">
-        <v>266.2087678392974</v>
+        <v>25.55404207299233</v>
       </c>
     </row>
     <row r="44">
@@ -7651,19 +7651,19 @@
         <v>9.452486216173764</v>
       </c>
       <c r="K44" t="n">
-        <v>9.452486216173764</v>
+        <v>32.04070474118619</v>
       </c>
       <c r="L44" t="n">
-        <v>126.4270031413241</v>
+        <v>149.0152216663365</v>
       </c>
       <c r="M44" t="n">
-        <v>243.4015200664744</v>
+        <v>265.9897385914869</v>
       </c>
       <c r="N44" t="n">
-        <v>355.6497938835378</v>
+        <v>382.9642555166372</v>
       </c>
       <c r="O44" t="n">
-        <v>472.6243108086882</v>
+        <v>382.9642555166372</v>
       </c>
       <c r="P44" t="n">
         <v>472.6243108086882</v>
@@ -7678,22 +7678,22 @@
         <v>472.6243108086882</v>
       </c>
       <c r="T44" t="n">
-        <v>367.501206525786</v>
+        <v>353.2747373721508</v>
       </c>
       <c r="U44" t="n">
-        <v>367.501206525786</v>
+        <v>353.2747373721508</v>
       </c>
       <c r="V44" t="n">
-        <v>367.501206525786</v>
+        <v>353.2747373721508</v>
       </c>
       <c r="W44" t="n">
-        <v>248.1516330892486</v>
+        <v>233.9251639356133</v>
       </c>
       <c r="X44" t="n">
-        <v>248.1516330892486</v>
+        <v>233.9251639356133</v>
       </c>
       <c r="Y44" t="n">
-        <v>248.1516330892486</v>
+        <v>233.9251639356133</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>424.1022139430677</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="C45" t="n">
-        <v>304.7526405065303</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="D45" t="n">
-        <v>208.9536536284341</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="E45" t="n">
-        <v>102.8516214061337</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="F45" t="n">
-        <v>9.452486216173764</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="G45" t="n">
-        <v>9.452486216173764</v>
+        <v>69.68619902543936</v>
       </c>
       <c r="H45" t="n">
         <v>9.452486216173764</v>
@@ -7730,19 +7730,19 @@
         <v>9.452486216173764</v>
       </c>
       <c r="K45" t="n">
-        <v>9.452486216173764</v>
+        <v>126.4270031413241</v>
       </c>
       <c r="L45" t="n">
-        <v>9.452486216173764</v>
+        <v>243.4015200664744</v>
       </c>
       <c r="M45" t="n">
-        <v>52.30620151990787</v>
+        <v>243.4015200664744</v>
       </c>
       <c r="N45" t="n">
-        <v>169.2807184450582</v>
+        <v>243.4015200664744</v>
       </c>
       <c r="O45" t="n">
-        <v>286.2552353702085</v>
+        <v>360.3760369916247</v>
       </c>
       <c r="P45" t="n">
         <v>403.2297522953589</v>
@@ -7763,16 +7763,16 @@
         <v>472.6243108086882</v>
       </c>
       <c r="V45" t="n">
-        <v>472.6243108086882</v>
+        <v>427.7349193350516</v>
       </c>
       <c r="W45" t="n">
-        <v>472.6243108086882</v>
+        <v>308.3853458985142</v>
       </c>
       <c r="X45" t="n">
-        <v>472.6243108086882</v>
+        <v>189.0357724619768</v>
       </c>
       <c r="Y45" t="n">
-        <v>424.1022139430677</v>
+        <v>69.68619902543936</v>
       </c>
     </row>
     <row r="46">
@@ -7809,34 +7809,34 @@
         <v>9.452486216173764</v>
       </c>
       <c r="K46" t="n">
-        <v>39.48371717832006</v>
+        <v>39.48371717832002</v>
       </c>
       <c r="L46" t="n">
-        <v>118.8758700558034</v>
+        <v>118.8758700558033</v>
       </c>
       <c r="M46" t="n">
-        <v>210.1419361177959</v>
+        <v>210.1419361177958</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9108146430025</v>
+        <v>305.9108146430024</v>
       </c>
       <c r="O46" t="n">
-        <v>382.3281191476721</v>
+        <v>382.3281191476719</v>
       </c>
       <c r="P46" t="n">
-        <v>431.7119206896869</v>
+        <v>431.7119206896868</v>
       </c>
       <c r="Q46" t="n">
-        <v>431.7119206896869</v>
+        <v>397.8149765519385</v>
       </c>
       <c r="R46" t="n">
-        <v>312.3623472531495</v>
+        <v>278.465403115401</v>
       </c>
       <c r="S46" t="n">
-        <v>193.0127738166121</v>
+        <v>159.1158296788636</v>
       </c>
       <c r="T46" t="n">
-        <v>73.66320038007466</v>
+        <v>39.76625624232621</v>
       </c>
       <c r="U46" t="n">
         <v>9.452486216173764</v>
@@ -8929,10 +8929,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>244.6749789590202</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L14" t="n">
-        <v>261.3867061646181</v>
+        <v>260.3515428840269</v>
       </c>
       <c r="M14" t="n">
         <v>230.3462332272727</v>
@@ -8944,7 +8944,7 @@
         <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>256.8532869499004</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9014,19 +9014,19 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>167.7543251166491</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>167.1813723584841</v>
       </c>
       <c r="P15" t="n">
         <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>164.5669020000612</v>
+        <v>165.6020652806523</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>340.50912829242</v>
+        <v>342.3181119288174</v>
       </c>
       <c r="M17" t="n">
         <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>335.9647605554212</v>
+        <v>334.1557769190235</v>
       </c>
       <c r="O17" t="n">
-        <v>336.649908380517</v>
+        <v>336.6499083805169</v>
       </c>
       <c r="P17" t="n">
         <v>231.2329957552695</v>
@@ -9248,13 +9248,13 @@
         <v>169.992503214318</v>
       </c>
       <c r="L18" t="n">
-        <v>245.1060767387045</v>
+        <v>245.1060767387044</v>
       </c>
       <c r="M18" t="n">
-        <v>248.6857308808486</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>237.8934090421635</v>
       </c>
       <c r="O18" t="n">
         <v>142.5962444444444</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>260.6996501498461</v>
+        <v>260.699650149846</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>189.9327633193753</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>254.1999232588204</v>
+        <v>254.1999232588203</v>
       </c>
       <c r="O21" t="n">
         <v>265.4544556199315</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>181.7731368116872</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N24" t="n">
-        <v>222.4246658592332</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>383.1483227996774</v>
@@ -9968,7 +9968,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,7 +10442,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>193.3577389147212</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>356.2611315939937</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10825,10 +10825,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>226.4727136557642</v>
       </c>
       <c r="L38" t="n">
-        <v>319.9885156350499</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
         <v>445.740230910301</v>
@@ -10907,19 +10907,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>357.5280316050465</v>
+        <v>183.0115685892478</v>
       </c>
       <c r="N39" t="n">
         <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>357.9902421274727</v>
       </c>
       <c r="P39" t="n">
-        <v>143.9463056241383</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>370.229006888816</v>
+        <v>370.2290068888161</v>
       </c>
       <c r="M41" t="n">
-        <v>364.8088251461015</v>
+        <v>299.2173111258129</v>
       </c>
       <c r="N41" t="n">
-        <v>267.8771111024863</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>364.5608033405155</v>
+        <v>364.5608033405156</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,10 +11147,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>201.0682801942992</v>
+        <v>201.0682801942993</v>
       </c>
       <c r="N42" t="n">
-        <v>265.8043040021621</v>
+        <v>265.8043040021622</v>
       </c>
       <c r="O42" t="n">
         <v>277.0588363632733</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>242.9062333934779</v>
       </c>
       <c r="L44" t="n">
         <v>353.9224926721593</v>
@@ -11308,13 +11308,13 @@
         <v>348.5023109294448</v>
       </c>
       <c r="N44" t="n">
-        <v>342.7951583613014</v>
+        <v>347.5691412987629</v>
       </c>
       <c r="O44" t="n">
-        <v>348.2542891238588</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>255.997516676531</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>256.7104574820462</v>
       </c>
       <c r="M45" t="n">
-        <v>185.4206150369013</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>249.4977897855053</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>260.7523221466165</v>
       </c>
       <c r="P45" t="n">
-        <v>252.1304851165023</v>
+        <v>177.2609885292132</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23500,16 +23500,16 @@
         <v>355.2821925564627</v>
       </c>
       <c r="D14" t="n">
-        <v>319.0720512115073</v>
+        <v>344.6923424061382</v>
       </c>
       <c r="E14" t="n">
-        <v>351.3319085135539</v>
+        <v>371.939670857717</v>
       </c>
       <c r="F14" t="n">
         <v>396.8853465271666</v>
       </c>
       <c r="G14" t="n">
-        <v>379.6917471059594</v>
+        <v>405.3120383005902</v>
       </c>
       <c r="H14" t="n">
         <v>329.4841029012223</v>
@@ -23518,7 +23518,7 @@
         <v>174.8648991612303</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1.958590140067713</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23548,16 +23548,16 @@
         <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
-        <v>213.1051503495866</v>
+        <v>187.4848591549557</v>
       </c>
       <c r="U14" t="n">
         <v>241.3549536932917</v>
       </c>
       <c r="V14" t="n">
-        <v>317.7615592555901</v>
+        <v>292.1412680609592</v>
       </c>
       <c r="W14" t="n">
-        <v>339.2502695028682</v>
+        <v>316.6839170186374</v>
       </c>
       <c r="X14" t="n">
         <v>359.7404014639242</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>169.8412809673925</v>
+        <v>144.2209897727617</v>
       </c>
       <c r="C16" t="n">
         <v>131.6358306894522</v>
@@ -23661,10 +23661,10 @@
         <v>113.0044826090367</v>
       </c>
       <c r="E16" t="n">
-        <v>110.8229722373935</v>
+        <v>136.4432634320244</v>
       </c>
       <c r="F16" t="n">
-        <v>112.8639963241556</v>
+        <v>135.4303488083864</v>
       </c>
       <c r="G16" t="n">
         <v>158.000280143914</v>
@@ -23679,7 +23679,7 @@
         <v>83.36848090212797</v>
       </c>
       <c r="K16" t="n">
-        <v>12.27879261133805</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>215.7189561744923</v>
       </c>
       <c r="Y16" t="n">
-        <v>208.59395413755</v>
+        <v>198.3063942646572</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>330.0968036036215</v>
       </c>
       <c r="F17" t="n">
-        <v>355.0424792730711</v>
+        <v>355.0424792730712</v>
       </c>
       <c r="G17" t="n">
         <v>363.4691710464948</v>
       </c>
       <c r="H17" t="n">
-        <v>287.6412356471268</v>
+        <v>287.6412356471269</v>
       </c>
       <c r="I17" t="n">
         <v>158.6423231017656</v>
@@ -23779,10 +23779,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.03555147250938</v>
+        <v>98.03555147250941</v>
       </c>
       <c r="S17" t="n">
-        <v>157.186503117605</v>
+        <v>157.1865031176051</v>
       </c>
       <c r="T17" t="n">
         <v>171.2622830954911</v>
@@ -23791,16 +23791,16 @@
         <v>199.5120864391962</v>
       </c>
       <c r="V17" t="n">
-        <v>182.0679573201569</v>
+        <v>169.3669950426645</v>
       </c>
       <c r="W17" t="n">
-        <v>190.8557052899424</v>
+        <v>190.8557052899426</v>
       </c>
       <c r="X17" t="n">
-        <v>211.3458372509984</v>
+        <v>211.3458372509986</v>
       </c>
       <c r="Y17" t="n">
-        <v>227.852675228583</v>
+        <v>240.5536375060757</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.699617181227</v>
+        <v>114.6996171812271</v>
       </c>
       <c r="C18" t="n">
-        <v>50.35203365335246</v>
+        <v>14.32323556084526</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>95.61149909599848</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>93.23564592474361</v>
       </c>
       <c r="G18" t="n">
-        <v>85.50995069457034</v>
+        <v>85.50995069457036</v>
       </c>
       <c r="H18" t="n">
-        <v>60.40187776785616</v>
+        <v>60.4018777678562</v>
       </c>
       <c r="I18" t="n">
-        <v>37.56306638277477</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>48.32426768400287</v>
       </c>
       <c r="S18" t="n">
-        <v>119.8496046351975</v>
+        <v>119.8496046351976</v>
       </c>
       <c r="T18" t="n">
         <v>148.3311622261813</v>
@@ -23870,10 +23870,10 @@
         <v>174.1078156123345</v>
       </c>
       <c r="V18" t="n">
-        <v>180.967020680785</v>
+        <v>74.41532372195479</v>
       </c>
       <c r="W18" t="n">
-        <v>199.8614166922793</v>
+        <v>142.833565421647</v>
       </c>
       <c r="X18" t="n">
         <v>153.9394187348372</v>
@@ -23892,28 +23892,28 @@
         <v>127.998413713297</v>
       </c>
       <c r="C19" t="n">
-        <v>115.4132546299875</v>
+        <v>115.4132546299876</v>
       </c>
       <c r="D19" t="n">
-        <v>96.78190654957206</v>
+        <v>96.78190654957208</v>
       </c>
       <c r="E19" t="n">
-        <v>94.60039617792887</v>
+        <v>94.6003961779289</v>
       </c>
       <c r="F19" t="n">
-        <v>93.58748155429095</v>
+        <v>93.58748155429097</v>
       </c>
       <c r="G19" t="n">
-        <v>116.1574128898185</v>
+        <v>9.605715930988282</v>
       </c>
       <c r="H19" t="n">
-        <v>3.841909079969</v>
+        <v>110.3936060387993</v>
       </c>
       <c r="I19" t="n">
-        <v>103.616908458618</v>
+        <v>9.766173777280358</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52561364803247</v>
+        <v>41.52561364803251</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,19 +23934,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.32847678305408</v>
+        <v>34.32847678305412</v>
       </c>
       <c r="R19" t="n">
         <v>125.4598249085292</v>
       </c>
       <c r="S19" t="n">
-        <v>172.183031568332</v>
+        <v>65.63133460950178</v>
       </c>
       <c r="T19" t="n">
-        <v>82.26128827830347</v>
+        <v>176.1120229596412</v>
       </c>
       <c r="U19" t="n">
-        <v>127.9337659290203</v>
+        <v>127.9337659290204</v>
       </c>
       <c r="V19" t="n">
         <v>200.3040768551877</v>
@@ -23955,7 +23955,7 @@
         <v>234.6894318679507</v>
       </c>
       <c r="X19" t="n">
-        <v>67.32439196156658</v>
+        <v>173.8760889203969</v>
       </c>
       <c r="Y19" t="n">
         <v>166.7510868834545</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>197.2808627181251</v>
+        <v>211.9255614902434</v>
       </c>
       <c r="C20" t="n">
         <v>302.6781240011392</v>
@@ -23977,7 +23977,7 @@
         <v>292.0882738508146</v>
       </c>
       <c r="E20" t="n">
-        <v>319.3356023023934</v>
+        <v>319.3356023023935</v>
       </c>
       <c r="F20" t="n">
         <v>344.2812779718431</v>
@@ -24016,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>87.27435017128133</v>
+        <v>87.27435017128136</v>
       </c>
       <c r="S20" t="n">
         <v>146.425301816377</v>
@@ -24025,19 +24025,19 @@
         <v>160.501081794263</v>
       </c>
       <c r="U20" t="n">
-        <v>80.53737273459909</v>
+        <v>65.89267396248113</v>
       </c>
       <c r="V20" t="n">
-        <v>142.2992795247794</v>
+        <v>142.2992795247795</v>
       </c>
       <c r="W20" t="n">
-        <v>286.6462009475446</v>
+        <v>286.6462009475447</v>
       </c>
       <c r="X20" t="n">
-        <v>184.2781217331136</v>
+        <v>184.2781217331137</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.6431708861852</v>
+        <v>323.6431708861853</v>
       </c>
     </row>
     <row r="21">
@@ -24050,22 +24050,22 @@
         <v>103.938415879999</v>
       </c>
       <c r="C21" t="n">
-        <v>110.1137312184474</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>84.85029779477043</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>95.05031268553262</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>82.47444462351555</v>
       </c>
       <c r="G21" t="n">
-        <v>74.74874939334228</v>
+        <v>67.79636496388345</v>
       </c>
       <c r="H21" t="n">
-        <v>49.6406764666281</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.56306638277477</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>109.0884033339695</v>
       </c>
       <c r="T21" t="n">
-        <v>137.5699609249533</v>
+        <v>14.71174974946624</v>
       </c>
       <c r="U21" t="n">
-        <v>98.59359974212846</v>
+        <v>163.3466143111065</v>
       </c>
       <c r="V21" t="n">
         <v>170.2058193795569</v>
       </c>
       <c r="W21" t="n">
-        <v>66.24200421556415</v>
+        <v>66.24200421556424</v>
       </c>
       <c r="X21" t="n">
         <v>143.1782174336091</v>
@@ -24132,25 +24132,25 @@
         <v>104.6520533287595</v>
       </c>
       <c r="D22" t="n">
-        <v>86.020705248344</v>
+        <v>86.02070524834403</v>
       </c>
       <c r="E22" t="n">
-        <v>83.83919487670082</v>
+        <v>83.83919487670084</v>
       </c>
       <c r="F22" t="n">
-        <v>82.82628025306289</v>
+        <v>82.82628025306292</v>
       </c>
       <c r="G22" t="n">
-        <v>22.32611276860764</v>
+        <v>105.3962115885904</v>
       </c>
       <c r="H22" t="n">
-        <v>99.63240473757122</v>
+        <v>99.63240473757125</v>
       </c>
       <c r="I22" t="n">
-        <v>92.85570715738993</v>
+        <v>92.85570715738996</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>30.76441234680446</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.56727548182602</v>
+        <v>23.56727548182607</v>
       </c>
       <c r="R22" t="n">
-        <v>114.6986236073011</v>
+        <v>0.8641124405141483</v>
       </c>
       <c r="S22" t="n">
-        <v>161.4218302671039</v>
+        <v>38.56361909161689</v>
       </c>
       <c r="T22" t="n">
-        <v>165.3508216584131</v>
+        <v>42.49261048292612</v>
       </c>
       <c r="U22" t="n">
-        <v>100.8660504111354</v>
+        <v>223.7242615866226</v>
       </c>
       <c r="V22" t="n">
-        <v>189.5428755539596</v>
+        <v>189.5428755539597</v>
       </c>
       <c r="W22" t="n">
-        <v>223.9282305667226</v>
+        <v>223.9282305667227</v>
       </c>
       <c r="X22" t="n">
         <v>163.1148876191688</v>
       </c>
       <c r="Y22" t="n">
-        <v>33.13167440673934</v>
+        <v>155.9898855822265</v>
       </c>
     </row>
     <row r="23">
@@ -24284,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>28.16856725418185</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>58.04843271322368</v>
@@ -24296,7 +24296,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
         <v>47.94688431179556</v>
@@ -24341,7 +24341,7 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>35.54916754544328</v>
       </c>
     </row>
     <row r="25">
@@ -24366,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>57.03732979515409</v>
@@ -24381,7 +24381,7 @@
         <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,22 +24417,22 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>70.08537271902527</v>
       </c>
       <c r="U25" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>117.3646367978859</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24460,7 +24460,7 @@
         <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>9.063880386693029</v>
+        <v>250.0781692643521</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24490,16 +24490,16 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>80.70418786675648</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24508,7 +24508,7 @@
         <v>18.83004698833889</v>
       </c>
       <c r="X26" t="n">
-        <v>280.334467827054</v>
+        <v>138.1712685842949</v>
       </c>
       <c r="Y26" t="n">
         <v>296.8413058046385</v>
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>36.40843697795275</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,13 +24530,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>26.72399278327899</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24606,25 +24606,25 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0.9619559688032027</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24654,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>82.62787134768138</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
         <v>136.3130225376221</v>
@@ -24685,7 +24685,7 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>265.2864087692679</v>
+        <v>53.0010231258259</v>
       </c>
       <c r="E29" t="n">
         <v>51.51944834318766</v>
@@ -24694,7 +24694,7 @@
         <v>76.46512401263732</v>
       </c>
       <c r="G29" t="n">
-        <v>113.6207190202779</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24742,7 +24742,7 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
         <v>280.334467827054</v>
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>76.20618257608527</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
         <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24815,13 +24815,13 @@
         <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>47.54243588653193</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
@@ -24852,16 +24852,16 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>141.8599373023629</v>
       </c>
       <c r="V31" t="n">
-        <v>92.48748207906768</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
         <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>41.56171863317837</v>
+        <v>282.5760075108374</v>
       </c>
       <c r="C32" t="n">
         <v>265.1150576183644</v>
@@ -24931,7 +24931,7 @@
         <v>306.7182115890683</v>
       </c>
       <c r="G32" t="n">
-        <v>74.13061448483285</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H32" t="n">
         <v>239.316967963124</v>
@@ -24964,16 +24964,16 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>61.84044852323956</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
         <v>227.5944243174918</v>
@@ -24982,10 +24982,10 @@
         <v>8.068845687110809</v>
       </c>
       <c r="X32" t="n">
-        <v>269.5732665258259</v>
+        <v>97.78512663832174</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.0801045034104</v>
+        <v>45.06581562575138</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>23.19210466059318</v>
+        <v>43.52068757073229</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>105.6151510508343</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C34" t="n">
         <v>67.0889869459847</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>8.525362163045571</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>28.3523748344449</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,16 +25125,16 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
         <v>186.3651641839479</v>
@@ -25143,7 +25143,7 @@
         <v>125.551821236394</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>317.4794128902964</v>
       </c>
       <c r="G35" t="n">
-        <v>228.4155565776534</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H35" t="n">
         <v>250.0781692643521</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>121.0792567189908</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>22.44448407260155</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W35" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X35" t="n">
         <v>280.334467827054</v>
@@ -25232,10 +25232,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.92160926257547</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -25247,7 +25247,7 @@
         <v>55.6725795419688</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25289,16 +25289,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X36" t="n">
-        <v>87.24674515709168</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25317,7 +25317,7 @@
         <v>77.85018824721276</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>57.03732979515409</v>
@@ -25326,13 +25326,13 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>3.962547265257697</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>7.117115993358979</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S37" t="n">
-        <v>134.6199651855572</v>
+        <v>60.78495489777023</v>
       </c>
       <c r="T37" t="n">
         <v>138.5489565768664</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25393,13 +25393,13 @@
         <v>320.1390738936122</v>
       </c>
       <c r="C38" t="n">
-        <v>87.28412631811094</v>
+        <v>87.28412631811099</v>
       </c>
       <c r="D38" t="n">
-        <v>76.69427616778634</v>
+        <v>76.6942761677864</v>
       </c>
       <c r="E38" t="n">
-        <v>129.6165691431822</v>
+        <v>103.9416046193652</v>
       </c>
       <c r="F38" t="n">
         <v>344.2812779718431</v>
@@ -25438,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>87.27435017128133</v>
+        <v>86.30620215003826</v>
       </c>
       <c r="S38" t="n">
         <v>146.425301816377</v>
@@ -25447,19 +25447,19 @@
         <v>160.501081794263</v>
       </c>
       <c r="U38" t="n">
-        <v>188.7508851379681</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>265.1574907002665</v>
+        <v>265.1574907002666</v>
       </c>
       <c r="W38" t="n">
-        <v>286.6462009475446</v>
+        <v>286.6462009475447</v>
       </c>
       <c r="X38" t="n">
-        <v>91.74233522557242</v>
+        <v>307.1363329086007</v>
       </c>
       <c r="Y38" t="n">
-        <v>323.6431708861852</v>
+        <v>323.6431708861853</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>103.938415879999</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>84.8502977947704</v>
+        <v>84.85029779477043</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>95.05031268553262</v>
       </c>
       <c r="F39" t="n">
-        <v>82.47444462351552</v>
+        <v>82.47444462351555</v>
       </c>
       <c r="G39" t="n">
-        <v>74.74874939334228</v>
+        <v>74.74874939334231</v>
       </c>
       <c r="H39" t="n">
-        <v>49.6406764666281</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.80186508154672</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.56306638277477</v>
+        <v>37.56306638277481</v>
       </c>
       <c r="S39" t="n">
         <v>109.0884033339695</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>137.5699609249533</v>
       </c>
       <c r="U39" t="n">
-        <v>163.3466143111065</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>113.2556467048535</v>
+        <v>16.3958236474771</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>143.1782174336091</v>
       </c>
       <c r="Y39" t="n">
-        <v>143.087928007436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.2372124120689</v>
+        <v>117.237212412069</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>104.6520533287595</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>86.02070524834403</v>
       </c>
       <c r="E40" t="n">
-        <v>83.83919487670082</v>
+        <v>83.83919487670084</v>
       </c>
       <c r="F40" t="n">
-        <v>82.82628025306289</v>
+        <v>82.82628025306292</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>105.3962115885904</v>
       </c>
       <c r="H40" t="n">
-        <v>99.63240473757122</v>
+        <v>99.63240473757125</v>
       </c>
       <c r="I40" t="n">
-        <v>92.85570715738993</v>
+        <v>92.85570715738996</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.76441234680446</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>23.56727548182607</v>
       </c>
       <c r="R40" t="n">
-        <v>114.6986236073011</v>
+        <v>114.6986236073012</v>
       </c>
       <c r="S40" t="n">
-        <v>35.034342331598</v>
+        <v>161.4218302671039</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3508216584131</v>
+        <v>165.3508216584132</v>
       </c>
       <c r="U40" t="n">
-        <v>223.7242615866225</v>
+        <v>151.8729888937804</v>
       </c>
       <c r="V40" t="n">
-        <v>189.5428755539596</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>223.9282305667226</v>
+        <v>8.534232883694443</v>
       </c>
       <c r="X40" t="n">
         <v>163.1148876191688</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.9898855822264</v>
+        <v>155.9898855822265</v>
       </c>
     </row>
     <row r="41">
@@ -25627,10 +25627,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>195.6671811893282</v>
+        <v>211.6951221460526</v>
       </c>
       <c r="C41" t="n">
-        <v>194.2341722535796</v>
+        <v>178.2062312968552</v>
       </c>
       <c r="D41" t="n">
         <v>167.6163811465306</v>
@@ -25675,7 +25675,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.26504938582613</v>
+        <v>97.26504938582616</v>
       </c>
       <c r="S41" t="n">
         <v>156.4160010309218</v>
@@ -25684,19 +25684,19 @@
         <v>170.4917810088078</v>
       </c>
       <c r="U41" t="n">
-        <v>198.7415843525129</v>
+        <v>198.741584352513</v>
       </c>
       <c r="V41" t="n">
-        <v>275.1481899148113</v>
+        <v>275.1481899148114</v>
       </c>
       <c r="W41" t="n">
-        <v>296.6369001620894</v>
+        <v>296.6369001620895</v>
       </c>
       <c r="X41" t="n">
         <v>317.1270321231455</v>
       </c>
       <c r="Y41" t="n">
-        <v>333.63387010073</v>
+        <v>333.6338701007301</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>113.9291150945438</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>120.1044304329922</v>
       </c>
       <c r="D42" t="n">
-        <v>94.8409970093152</v>
+        <v>94.84099700931523</v>
       </c>
       <c r="E42" t="n">
         <v>105.0410119000774</v>
       </c>
       <c r="F42" t="n">
-        <v>92.46514383806033</v>
+        <v>92.46514383806036</v>
       </c>
       <c r="G42" t="n">
-        <v>84.73944860788708</v>
+        <v>84.73944860788711</v>
       </c>
       <c r="H42" t="n">
-        <v>59.6313756811729</v>
+        <v>59.63137568117295</v>
       </c>
       <c r="I42" t="n">
-        <v>36.79256429609152</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.55376559731958</v>
+        <v>47.55376559731962</v>
       </c>
       <c r="S42" t="n">
         <v>119.0791025485143</v>
       </c>
       <c r="T42" t="n">
-        <v>147.5606601394981</v>
+        <v>13.09806822066921</v>
       </c>
       <c r="U42" t="n">
-        <v>173.3373135256513</v>
+        <v>91.69522685963845</v>
       </c>
       <c r="V42" t="n">
-        <v>161.3328212407045</v>
+        <v>180.1965185941017</v>
       </c>
       <c r="W42" t="n">
         <v>199.0909146055961</v>
       </c>
       <c r="X42" t="n">
-        <v>18.70632472932513</v>
+        <v>18.70632472932508</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.61603530315202</v>
+        <v>18.61603530315196</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>127.2279116266138</v>
       </c>
       <c r="C43" t="n">
-        <v>92.75900787879769</v>
+        <v>114.6427525433043</v>
       </c>
       <c r="D43" t="n">
-        <v>96.01140446288881</v>
+        <v>96.01140446288883</v>
       </c>
       <c r="E43" t="n">
-        <v>93.82989409124562</v>
+        <v>93.82989409124565</v>
       </c>
       <c r="F43" t="n">
-        <v>92.81697946760769</v>
+        <v>92.81697946760772</v>
       </c>
       <c r="G43" t="n">
         <v>115.3869108031352</v>
       </c>
       <c r="H43" t="n">
-        <v>109.623103952116</v>
+        <v>109.6231039521161</v>
       </c>
       <c r="I43" t="n">
-        <v>102.8464063719347</v>
+        <v>102.8464063719348</v>
       </c>
       <c r="J43" t="n">
-        <v>40.75511156134922</v>
+        <v>26.1060471890581</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.55797469637083</v>
+        <v>33.55797469637087</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6893228218459</v>
+        <v>124.689322821846</v>
       </c>
       <c r="S43" t="n">
-        <v>171.4125294816487</v>
+        <v>36.94993756281985</v>
       </c>
       <c r="T43" t="n">
-        <v>175.3415208729579</v>
+        <v>175.341520872958</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7149608011673</v>
+        <v>233.7149608011674</v>
       </c>
       <c r="V43" t="n">
         <v>199.5335747685045</v>
       </c>
       <c r="W43" t="n">
-        <v>233.9189297812675</v>
+        <v>99.4563378624386</v>
       </c>
       <c r="X43" t="n">
-        <v>38.64299491488481</v>
+        <v>38.64299491488475</v>
       </c>
       <c r="Y43" t="n">
-        <v>31.51799287794245</v>
+        <v>165.9805847967713</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>211.973695405985</v>
+        <v>226.057899868084</v>
       </c>
       <c r="C44" t="n">
         <v>312.668823215684</v>
@@ -25873,10 +25873,10 @@
         <v>302.0789730653594</v>
       </c>
       <c r="E44" t="n">
-        <v>329.3263015169382</v>
+        <v>329.3263015169383</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1158994842158</v>
+        <v>236.1158994842159</v>
       </c>
       <c r="G44" t="n">
         <v>362.6986689598115</v>
@@ -25912,19 +25912,19 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>97.26504938582613</v>
+        <v>97.26504938582616</v>
       </c>
       <c r="S44" t="n">
         <v>156.4160010309218</v>
       </c>
       <c r="T44" t="n">
-        <v>66.41990776873469</v>
+        <v>52.33570330663579</v>
       </c>
       <c r="U44" t="n">
-        <v>198.7415843525129</v>
+        <v>198.741584352513</v>
       </c>
       <c r="V44" t="n">
-        <v>275.1481899148113</v>
+        <v>275.1481899148114</v>
       </c>
       <c r="W44" t="n">
         <v>178.4808224599174</v>
@@ -25933,7 +25933,7 @@
         <v>317.1270321231455</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.63387010073</v>
+        <v>333.6338701007301</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>113.9291150945438</v>
       </c>
       <c r="C45" t="n">
-        <v>1.948352730820147</v>
+        <v>120.1044304329922</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>94.84099700931523</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>105.0410119000774</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>92.46514383806036</v>
       </c>
       <c r="G45" t="n">
-        <v>84.73944860788708</v>
+        <v>84.73944860788711</v>
       </c>
       <c r="H45" t="n">
-        <v>59.6313756811729</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>36.79256429609152</v>
+        <v>36.79256429609156</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.55376559731958</v>
+        <v>47.55376559731962</v>
       </c>
       <c r="S45" t="n">
         <v>119.0791025485143</v>
@@ -26003,16 +26003,16 @@
         <v>173.3373135256513</v>
       </c>
       <c r="V45" t="n">
-        <v>180.1965185941017</v>
+        <v>135.7560210352016</v>
       </c>
       <c r="W45" t="n">
-        <v>199.0909146055961</v>
+        <v>80.93483690342404</v>
       </c>
       <c r="X45" t="n">
-        <v>153.1689166481539</v>
+        <v>35.01283894598191</v>
       </c>
       <c r="Y45" t="n">
-        <v>105.0417513250165</v>
+        <v>34.9225495198088</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>127.2279116266137</v>
+        <v>127.2279116266138</v>
       </c>
       <c r="C46" t="n">
         <v>114.6427525433043</v>
       </c>
       <c r="D46" t="n">
-        <v>96.01140446288881</v>
+        <v>96.01140446288883</v>
       </c>
       <c r="E46" t="n">
-        <v>93.82989409124562</v>
+        <v>93.82989409124565</v>
       </c>
       <c r="F46" t="n">
-        <v>92.81697946760769</v>
+        <v>92.81697946760772</v>
       </c>
       <c r="G46" t="n">
         <v>115.3869108031352</v>
       </c>
       <c r="H46" t="n">
-        <v>109.623103952116</v>
+        <v>109.6231039521161</v>
       </c>
       <c r="I46" t="n">
-        <v>102.8464063719347</v>
+        <v>102.8464063719348</v>
       </c>
       <c r="J46" t="n">
-        <v>40.75511156134922</v>
+        <v>40.75511156134926</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.55797469637083</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>6.533245119673893</v>
+        <v>6.533245119673921</v>
       </c>
       <c r="S46" t="n">
-        <v>53.25645177947666</v>
+        <v>53.25645177947669</v>
       </c>
       <c r="T46" t="n">
-        <v>57.1854431707859</v>
+        <v>57.18544317078593</v>
       </c>
       <c r="U46" t="n">
-        <v>170.1463537789054</v>
+        <v>203.7043284752764</v>
       </c>
       <c r="V46" t="n">
         <v>199.5335747685045</v>
@@ -26091,7 +26091,7 @@
         <v>173.1055868337136</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.9805847967712</v>
+        <v>165.9805847967713</v>
       </c>
     </row>
   </sheetData>
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>417400.5066880678</v>
+        <v>417400.5066880676</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528664.7669150595</v>
+        <v>528664.7669150596</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>548696.3804667904</v>
+        <v>548696.3804667903</v>
       </c>
     </row>
     <row r="13">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396071.6919101252</v>
+        <v>396071.6919101251</v>
       </c>
     </row>
   </sheetData>
@@ -26319,43 +26319,43 @@
         <v>819276.338717038</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="E2" t="n">
         <v>240759.9041363482</v>
       </c>
       <c r="F2" t="n">
-        <v>255276.2791422941</v>
+        <v>255276.2791422942</v>
       </c>
       <c r="G2" t="n">
-        <v>401335.7449993765</v>
+        <v>401335.7449993762</v>
       </c>
       <c r="H2" t="n">
-        <v>436229.6676758163</v>
+        <v>436229.6676758158</v>
       </c>
       <c r="I2" t="n">
         <v>559848.3273116796</v>
       </c>
       <c r="J2" t="n">
-        <v>559848.3273116795</v>
+        <v>559848.3273116798</v>
       </c>
       <c r="K2" t="n">
-        <v>559848.3273116797</v>
+        <v>559848.3273116798</v>
       </c>
       <c r="L2" t="n">
         <v>586557.145380654</v>
       </c>
       <c r="M2" t="n">
-        <v>559848.3273116795</v>
+        <v>559848.3273116793</v>
       </c>
       <c r="N2" t="n">
-        <v>480041.4390697893</v>
+        <v>480041.4390697891</v>
       </c>
       <c r="O2" t="n">
         <v>416495.991665345</v>
       </c>
       <c r="P2" t="n">
-        <v>408775.5485799608</v>
+        <v>408775.5485799606</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832793</v>
+        <v>7340.879554832794</v>
       </c>
       <c r="G3" t="n">
-        <v>55656.37815215701</v>
+        <v>55656.37815215696</v>
       </c>
       <c r="H3" t="n">
-        <v>13008.60533526439</v>
+        <v>13008.60533526441</v>
       </c>
       <c r="I3" t="n">
-        <v>52861.67440387664</v>
+        <v>52861.67440387669</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42083.25484425884</v>
+        <v>42083.25484425881</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416294.1873236889</v>
+        <v>416292.069235527</v>
       </c>
       <c r="C4" t="n">
-        <v>416294.1873236889</v>
+        <v>416292.069235527</v>
       </c>
       <c r="D4" t="n">
-        <v>416294.1873236889</v>
+        <v>416292.069235527</v>
       </c>
       <c r="E4" t="n">
-        <v>86096.05378993701</v>
+        <v>86093.93570177504</v>
       </c>
       <c r="F4" t="n">
-        <v>91036.71038349747</v>
+        <v>91034.44639259619</v>
       </c>
       <c r="G4" t="n">
-        <v>165475.2109299768</v>
+        <v>165472.5536689549</v>
       </c>
       <c r="H4" t="n">
-        <v>183632.5209937872</v>
+        <v>183629.7861353075</v>
       </c>
       <c r="I4" t="n">
-        <v>241350.6709349695</v>
+        <v>241347.3738097103</v>
       </c>
       <c r="J4" t="n">
-        <v>241350.6709349695</v>
+        <v>241347.3738097102</v>
       </c>
       <c r="K4" t="n">
-        <v>241350.6709349695</v>
+        <v>241347.3738097103</v>
       </c>
       <c r="L4" t="n">
-        <v>256620.5291926921</v>
+        <v>256617.2320674328</v>
       </c>
       <c r="M4" t="n">
-        <v>241350.6709349695</v>
+        <v>241347.3738097103</v>
       </c>
       <c r="N4" t="n">
-        <v>198543.8826198496</v>
+        <v>198540.7074133177</v>
       </c>
       <c r="O4" t="n">
-        <v>171084.7395231022</v>
+        <v>171081.9494431062</v>
       </c>
       <c r="P4" t="n">
-        <v>168457.0822726256</v>
+        <v>168454.3697900872</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>2397.621796901122</v>
       </c>
       <c r="G5" t="n">
-        <v>10835.939274549</v>
+        <v>10835.93927454899</v>
       </c>
       <c r="H5" t="n">
-        <v>12732.05877111468</v>
+        <v>12732.05877111467</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26511,7 +26511,7 @@
         <v>12597.69702804229</v>
       </c>
       <c r="P5" t="n">
-        <v>11606.26096366956</v>
+        <v>11606.26096366955</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369354.5513933496</v>
+        <v>369356.6694815115</v>
       </c>
       <c r="C6" t="n">
-        <v>369354.5513933491</v>
+        <v>369356.6694815111</v>
       </c>
       <c r="D6" t="n">
-        <v>369354.5513933496</v>
+        <v>369356.6694815113</v>
       </c>
       <c r="E6" t="n">
-        <v>145831.3828825078</v>
+        <v>145833.5009706698</v>
       </c>
       <c r="F6" t="n">
-        <v>154501.0674070627</v>
+        <v>154503.3313979641</v>
       </c>
       <c r="G6" t="n">
-        <v>169368.2166426936</v>
+        <v>169370.8739037154</v>
       </c>
       <c r="H6" t="n">
-        <v>226856.4825756501</v>
+        <v>226859.2174341292</v>
       </c>
       <c r="I6" t="n">
-        <v>243466.8276818861</v>
+        <v>243470.1248071454</v>
       </c>
       <c r="J6" t="n">
-        <v>288335.9427141268</v>
+        <v>288339.2398393865</v>
       </c>
       <c r="K6" t="n">
-        <v>296328.5020857629</v>
+        <v>296331.7992110223</v>
       </c>
       <c r="L6" t="n">
-        <v>264779.5236205629</v>
+        <v>264782.8207458222</v>
       </c>
       <c r="M6" t="n">
-        <v>296328.5020857627</v>
+        <v>296331.7992110217</v>
       </c>
       <c r="N6" t="n">
-        <v>263139.3218591664</v>
+        <v>263142.4970656982</v>
       </c>
       <c r="O6" t="n">
-        <v>232813.5551142005</v>
+        <v>232816.3451941965</v>
       </c>
       <c r="P6" t="n">
-        <v>228712.2053436657</v>
+        <v>228714.9178262039</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="H2" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26721,13 +26721,13 @@
         <v>89.39663285141508</v>
       </c>
       <c r="N2" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="O2" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="P2" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="H4" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26828,7 +26828,7 @@
         <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="P4" t="n">
         <v>118.156077702172</v>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.8428672540955</v>
+        <v>41.84286725409546</v>
       </c>
       <c r="H2" t="n">
         <v>10.76120130122806</v>
       </c>
       <c r="I2" t="n">
-        <v>26.80186508154672</v>
+        <v>26.80186508154676</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,10 +27026,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>80.93140576419944</v>
+        <v>80.93140576419937</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30651421665675</v>
+        <v>16.30651421665684</v>
       </c>
       <c r="I4" t="n">
         <v>118.156077702172</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.8428672540955</v>
+        <v>41.84286725409546</v>
       </c>
       <c r="M2" t="n">
         <v>10.76120130122806</v>
       </c>
       <c r="N2" t="n">
-        <v>26.80186508154672</v>
+        <v>26.80186508154676</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>80.93140576419944</v>
+        <v>80.93140576419937</v>
       </c>
       <c r="P4" t="n">
-        <v>16.30651421665675</v>
+        <v>16.30651421665684</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="C17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="D17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="E17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="F17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="G17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="H17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="I17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="S17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="T17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="U17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="V17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="W17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="X17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="C18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="D18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="E18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="F18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="G18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="H18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="I18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="S18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="T18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="U18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="V18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="W18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="X18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="Y18" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="C19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="D19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="E19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="F19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="G19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="H19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="I19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="K19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="L19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="M19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="N19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="O19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="P19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="R19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="S19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="T19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="U19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="V19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="W19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="X19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.83356646864031</v>
+        <v>51.83356646864026</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y21" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="K22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="L22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="M22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="N22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="O22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="P22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="R22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="23">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y38" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y39" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="C40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="D40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="E40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="F40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="G40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="H40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="I40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="J40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="K40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="L40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="M40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="N40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="O40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="P40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="R40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="S40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="T40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="U40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="V40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="W40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="X40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.59476776986836</v>
+        <v>62.59476776986832</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y41" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="K43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="L43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="M43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="N43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="O43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="P43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="R43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y44" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="C46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="D46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="E46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="F46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="G46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="H46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="I46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="J46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="K46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="L46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="M46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="N46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="O46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="P46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="R46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="S46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="T46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="U46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="V46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="W46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="X46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.60406855532356</v>
+        <v>52.60406855532351</v>
       </c>
     </row>
   </sheetData>
@@ -35649,10 +35649,10 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>24.58512791403969</v>
-      </c>
-      <c r="L14" t="n">
-        <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35664,7 +35664,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="P15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,16 +35889,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>104.7427133224327</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>106.5516969588303</v>
+        <v>104.7427133224326</v>
       </c>
       <c r="O17" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.15106423995906</v>
+        <v>32.15106423995897</v>
       </c>
       <c r="L18" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="M18" t="n">
-        <v>106.5516969588303</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>106.5516969588303</v>
+        <v>106.5516969588302</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>29.56407464275745</v>
+        <v>29.56407464275741</v>
       </c>
       <c r="L19" t="n">
-        <v>79.42359172895644</v>
+        <v>79.42359172895641</v>
       </c>
       <c r="M19" t="n">
-        <v>91.41744343048089</v>
+        <v>91.41744343048086</v>
       </c>
       <c r="N19" t="n">
-        <v>95.96573884786889</v>
+        <v>95.96573884786886</v>
       </c>
       <c r="O19" t="n">
-        <v>76.41869438267997</v>
+        <v>76.41869438267994</v>
       </c>
       <c r="P19" t="n">
-        <v>49.11212573353379</v>
+        <v>49.11212573353375</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,16 +36123,16 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.32853063097147</v>
+        <v>27.32853063097142</v>
       </c>
       <c r="L20" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="M20" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="N20" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>47.79872939735702</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="O21" t="n">
-        <v>122.8582111754871</v>
+        <v>122.858211175487</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>47.79872939735696</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36281,10 +36281,10 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.32527594398551</v>
+        <v>40.32527594398547</v>
       </c>
       <c r="L22" t="n">
-        <v>90.18479303018449</v>
+        <v>90.18479303018447</v>
       </c>
       <c r="M22" t="n">
         <v>102.1786447317089</v>
@@ -36293,10 +36293,10 @@
         <v>106.7269401490969</v>
       </c>
       <c r="O22" t="n">
-        <v>87.17989568390803</v>
+        <v>87.179895683908</v>
       </c>
       <c r="P22" t="n">
-        <v>59.87332703476185</v>
+        <v>59.87332703476181</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36442,22 +36442,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
+        <v>169.9067907798017</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="N24" t="n">
-        <v>91.0829537758999</v>
-      </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36676,10 +36676,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
         <v>241.0142888776591</v>
@@ -36688,7 +36688,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -37083,7 +37083,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O32" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P32" t="n">
         <v>90.5657124162131</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,7 +37162,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37405,7 +37405,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37545,10 +37545,10 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>104.0555615261842</v>
+        <v>6.382862610783645</v>
       </c>
       <c r="L38" t="n">
-        <v>84.22210066506267</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M38" t="n">
         <v>215.3939976830282</v>
@@ -37627,19 +37627,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>215.3939976830282</v>
+        <v>40.87753466722953</v>
       </c>
       <c r="N39" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="P39" t="n">
-        <v>9.971898209808115</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>70.09551364982758</v>
@@ -37703,10 +37703,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.32527594398551</v>
+        <v>40.32527594398547</v>
       </c>
       <c r="L40" t="n">
-        <v>90.18479303018449</v>
+        <v>90.18479303018447</v>
       </c>
       <c r="M40" t="n">
         <v>102.1786447317089</v>
@@ -37715,10 +37715,10 @@
         <v>106.7269401490969</v>
       </c>
       <c r="O40" t="n">
-        <v>87.17989568390803</v>
+        <v>87.179895683908</v>
       </c>
       <c r="P40" t="n">
-        <v>59.87332703476185</v>
+        <v>59.87332703476181</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="M41" t="n">
-        <v>134.4625919188288</v>
+        <v>68.87107789854015</v>
       </c>
       <c r="N41" t="n">
-        <v>38.46404750589537</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,16 +37867,16 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>58.93424627228092</v>
+        <v>58.93424627228097</v>
       </c>
       <c r="N42" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="O42" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="P42" t="n">
-        <v>134.4625919188288</v>
+        <v>134.4625919188289</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.33457672944071</v>
+        <v>30.33457672944066</v>
       </c>
       <c r="L43" t="n">
-        <v>80.19409381563969</v>
+        <v>80.19409381563966</v>
       </c>
       <c r="M43" t="n">
-        <v>92.18794551716414</v>
+        <v>92.18794551716411</v>
       </c>
       <c r="N43" t="n">
-        <v>96.73624093455214</v>
+        <v>96.73624093455211</v>
       </c>
       <c r="O43" t="n">
-        <v>77.18919646936322</v>
+        <v>77.1891964693632</v>
       </c>
       <c r="P43" t="n">
-        <v>49.88262782021705</v>
+        <v>49.882627820217</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>22.8163823484974</v>
       </c>
       <c r="L44" t="n">
         <v>118.156077702172</v>
@@ -38028,13 +38028,13 @@
         <v>118.156077702172</v>
       </c>
       <c r="N44" t="n">
-        <v>113.3820947647105</v>
+        <v>118.156077702172</v>
       </c>
       <c r="O44" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>118.156077702172</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>118.156077702172</v>
       </c>
       <c r="M45" t="n">
-        <v>43.28658111488294</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>118.156077702172</v>
       </c>
       <c r="P45" t="n">
-        <v>118.156077702172</v>
+        <v>43.28658111488296</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>30.33457672944071</v>
+        <v>30.33457672944066</v>
       </c>
       <c r="L46" t="n">
-        <v>80.19409381563969</v>
+        <v>80.19409381563966</v>
       </c>
       <c r="M46" t="n">
-        <v>92.18794551716414</v>
+        <v>92.18794551716411</v>
       </c>
       <c r="N46" t="n">
-        <v>96.73624093455214</v>
+        <v>96.73624093455211</v>
       </c>
       <c r="O46" t="n">
-        <v>77.18919646936322</v>
+        <v>77.1891964693632</v>
       </c>
       <c r="P46" t="n">
-        <v>49.88262782021705</v>
+        <v>49.882627820217</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2261289.818649674</v>
+        <v>2206600.444796007</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2997551.501605986</v>
+        <v>2997551.501605988</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10982331.25479209</v>
+        <v>10933919.17430201</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5710019.914615951</v>
+        <v>5715834.557556399</v>
       </c>
     </row>
     <row r="11">
@@ -1627,37 +1627,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T14" t="n">
         <v>25.62029119463083</v>
@@ -1666,16 +1666,16 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y14" t="n">
         <v>22.56635248423083</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,52 +1691,52 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="F15" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="H15" t="n">
+      <c r="S15" t="n">
         <v>25.62029119463083</v>
-      </c>
-      <c r="I15" t="n">
-        <v>25.62029119463083</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q15" t="n">
-        <v>0</v>
-      </c>
-      <c r="R15" t="n">
-        <v>0</v>
-      </c>
-      <c r="S15" t="n">
-        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -1764,53 +1764,53 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>12.27879261133805</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
       <c r="R16" t="n">
         <v>0</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>10.28755987289279</v>
+        <v>25.62029119463083</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="V17" t="n">
-        <v>106.5516969588302</v>
+        <v>95.94694477220419</v>
       </c>
       <c r="W17" t="n">
-        <v>106.5516969588302</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>106.5516969588302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>93.85073468133766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>94.04092972605832</v>
       </c>
       <c r="E18" t="n">
-        <v>105.8115139867607</v>
+        <v>104.2409446168205</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>83.9393813246302</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>31.58886978635796</v>
       </c>
       <c r="I18" t="n">
-        <v>37.56306638277481</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>106.5516969588302</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>57.02785127063237</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2016,13 +2016,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>106.5516969588302</v>
+        <v>63.18903735909031</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>93.85073468133766</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>32.75790741311395</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="S19" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>108.2135124033689</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>95.9469447722042</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>122.858211175487</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="V20" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,28 +2159,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="C21" t="n">
-        <v>110.1137312184474</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>104.2409446168205</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>6.95238442945886</v>
+        <v>83.9393813246302</v>
       </c>
       <c r="H21" t="n">
-        <v>49.64067646662814</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.80186508154676</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.56306638277481</v>
+        <v>46.7536983140627</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>78.87610119835361</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>117.237212412069</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2286,25 +2286,25 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>113.834511166787</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>122.858211175487</v>
+        <v>95.9469447722042</v>
       </c>
       <c r="T22" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>151.8129005537074</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2380,10 +2380,10 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>241.0142888776591</v>
@@ -2402,10 +2402,10 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>41.92193351281651</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V24" t="n">
         <v>143.4039542980102</v>
@@ -2465,7 +2465,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>80.736895380446</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="25">
@@ -2478,22 +2478,22 @@
         <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.2529736923529484</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
         <v>66.05384207584321</v>
@@ -2529,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>68.46358385784116</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -2566,10 +2566,10 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X26" t="n">
-        <v>142.1631992427591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="27">
@@ -2633,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>40.72811382049951</v>
+        <v>15.43902045750439</v>
       </c>
       <c r="C27" t="n">
         <v>83.31186613690066</v>
@@ -2642,7 +2642,7 @@
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -2651,7 +2651,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
         <v>116.2860629258893</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>2.430383674121337</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>55.06245920271297</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
@@ -2736,7 +2736,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,70 +2797,70 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>212.285385643442</v>
+        <v>50.33636558702055</v>
       </c>
       <c r="E29" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
+      <c r="R29" t="n">
+        <v>0</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>161.9490200564214</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="G29" t="n">
+      <c r="X29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y29" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
-      </c>
-      <c r="U29" t="n">
-        <v>0</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2870,22 +2870,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9303682223669985</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
         <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2918,16 +2918,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>143.4039542980102</v>
@@ -2936,7 +2936,7 @@
         <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>116.3763523520624</v>
+        <v>40.68858538426569</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -2964,16 +2964,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>55.06245920271297</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>80.7796425323954</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3034,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,13 +3043,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>234.1193836697362</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,13 +3076,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>108.8622354336022</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3091,13 +3091,13 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
+        <v>0</v>
+      </c>
+      <c r="X32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X32" t="n">
-        <v>171.7881398875041</v>
-      </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>29.02997726494032</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D33" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.5770369518763891</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>67.83314520581563</v>
+        <v>19.92915919932738</v>
       </c>
       <c r="H34" t="n">
         <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>26.94026594017025</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>123.8587638843291</v>
@@ -3246,7 +3246,7 @@
         <v>186.1611952038477</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C35" t="n">
-        <v>0</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>38.02800101713306</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>77.13655079845226</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C36" t="n">
-        <v>3.390256874325191</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>27.05391558251511</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H36" t="n">
-        <v>22.83881138508139</v>
+        <v>12.07761008385333</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>82.28653825242274</v>
+        <v>71.52533695119469</v>
       </c>
       <c r="T36" t="n">
-        <v>110.7680958434065</v>
+        <v>100.0068945421785</v>
       </c>
       <c r="U36" t="n">
-        <v>136.5447492295597</v>
+        <v>125.7835479283317</v>
       </c>
       <c r="V36" t="n">
-        <v>143.4039542980102</v>
+        <v>132.6427529967821</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>151.5371490082765</v>
       </c>
       <c r="X36" t="n">
-        <v>116.3763523520624</v>
+        <v>105.6151510508343</v>
       </c>
       <c r="Y36" t="n">
-        <v>116.2860629258893</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="37">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>59.21884016679728</v>
+        <v>48.45763886556922</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G37" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I37" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>73.83501028778696</v>
+        <v>123.8587638843291</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>186.1611952038477</v>
       </c>
       <c r="V37" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>87.5490517108416</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>118.4268191994517</v>
       </c>
     </row>
     <row r="38">
@@ -3502,20 +3502,20 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="C38" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>215.3939976830282</v>
       </c>
-      <c r="E38" t="n">
-        <v>215.3939976830282</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>146.3105524305974</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0.9681480212431017</v>
+        <v>43.40848072861374</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>188.7508851379682</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,10 +3581,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>25.62415258631141</v>
       </c>
       <c r="C39" t="n">
-        <v>110.1137312184474</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>80.90387525357539</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>73.17818002340215</v>
       </c>
       <c r="H39" t="n">
-        <v>49.64067646662814</v>
+        <v>48.07010709668798</v>
       </c>
       <c r="I39" t="n">
-        <v>26.80186508154676</v>
+        <v>25.23129571160659</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.99249701283465</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>107.5178339640293</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>135.9993915550131</v>
       </c>
       <c r="U39" t="n">
-        <v>163.3466143111065</v>
+        <v>161.7760449411663</v>
       </c>
       <c r="V39" t="n">
-        <v>153.8099957320798</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>189.1002153910513</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>141.607648063669</v>
       </c>
       <c r="Y39" t="n">
-        <v>143.087928007436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>115.6666430421288</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>71.85127269284216</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>189.5428755539597</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>0.5440792292568198</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>154.4193162122863</v>
       </c>
     </row>
     <row r="41">
@@ -3739,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>118.4346509621044</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.64396085535179</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>95.694480015886</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>93.27042763937507</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>103.4704425301373</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>90.8945744681202</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>83.16887923794695</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>58.06080631123278</v>
       </c>
       <c r="I42" t="n">
-        <v>36.79256429609156</v>
+        <v>35.2219949261514</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,13 +3869,13 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>48.49941136875724</v>
       </c>
       <c r="T42" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>81.64208666601284</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -3884,10 +3884,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3906,13 +3906,13 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>92.25932472130549</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>57.12696034788895</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>113.8163414331951</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>14.64906437229116</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3942,13 +3942,13 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>31.9874053264307</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>134.4625919188289</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="X43" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104.0718732400731</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,16 +3988,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>116.3384408712378</v>
       </c>
       <c r="W44" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -4061,7 +4061,7 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>93.27042763937507</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>59.63137568117295</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>35.2219949261514</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,16 +4115,16 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>44.44049755890016</v>
+        <v>119.928716842539</v>
       </c>
       <c r="W45" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="X45" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="Y45" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>92.25932472130549</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>40.62741146419985</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>39.18454219140909</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4179,19 +4179,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>33.55797469637087</v>
+        <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>118.156077702172</v>
+        <v>123.1187534519058</v>
       </c>
       <c r="S46" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="T46" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>30.01063232589092</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="C14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I14" t="n">
         <v>2.049623295570466</v>
@@ -5281,19 +5281,19 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K14" t="n">
-        <v>2.049623295570466</v>
+        <v>27.41371157825499</v>
       </c>
       <c r="L14" t="n">
-        <v>26.38889993046976</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>26.38889993046976</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="N14" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="O14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="P14" t="n">
         <v>102.4811647785233</v>
@@ -5302,28 +5302,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R14" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S14" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T14" t="n">
-        <v>76.6020827637447</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="U14" t="n">
-        <v>76.6020827637447</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="V14" t="n">
-        <v>50.72300074896609</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="W14" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="X14" t="n">
-        <v>27.92870531034908</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D15" t="n">
-        <v>102.4811647785233</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="E15" t="n">
-        <v>102.4811647785233</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F15" t="n">
-        <v>79.68686933990632</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G15" t="n">
-        <v>53.80778732512771</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H15" t="n">
-        <v>27.92870531034908</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I15" t="n">
         <v>2.049623295570466</v>
@@ -5360,7 +5360,7 @@
         <v>2.049623295570466</v>
       </c>
       <c r="K15" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
         <v>27.41371157825499</v>
@@ -5369,40 +5369,40 @@
         <v>27.41371157825499</v>
       </c>
       <c r="N15" t="n">
-        <v>27.41371157825499</v>
+        <v>52.77779986093951</v>
       </c>
       <c r="O15" t="n">
-        <v>51.75298821315428</v>
+        <v>77.1170764958388</v>
       </c>
       <c r="P15" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="Q15" t="n">
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y15" t="n">
-        <v>102.4811647785233</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="16">
@@ -5412,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>66.21060814466108</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C16" t="n">
-        <v>40.33152612988246</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="D16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="E16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="F16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="G16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="H16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="I16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="J16" t="n">
-        <v>14.45244411510385</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="K16" t="n">
         <v>2.049623295570466</v>
@@ -5457,31 +5457,31 @@
         <v>102.4811647785233</v>
       </c>
       <c r="Q16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="R16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="S16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U16" t="n">
-        <v>102.4811647785233</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V16" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="W16" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X16" t="n">
-        <v>102.4811647785233</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y16" t="n">
-        <v>92.0896901594397</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="C17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="D17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="E17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="F17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="G17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="H17" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="I17" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="J17" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="K17" t="n">
-        <v>111.5391416676288</v>
+        <v>111.7295331381889</v>
       </c>
       <c r="L17" t="n">
-        <v>217.0253216568707</v>
+        <v>219.5718075756119</v>
       </c>
       <c r="M17" t="n">
-        <v>217.0253216568707</v>
+        <v>238.2240316338515</v>
       </c>
       <c r="N17" t="n">
-        <v>320.7206078460789</v>
+        <v>238.2240316338515</v>
       </c>
       <c r="O17" t="n">
-        <v>426.2067878353208</v>
+        <v>346.0663060712745</v>
       </c>
       <c r="P17" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="Q17" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="R17" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="S17" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="T17" t="n">
-        <v>426.2067878353208</v>
+        <v>325.6944519281423</v>
       </c>
       <c r="U17" t="n">
-        <v>426.2067878353208</v>
+        <v>215.662542492959</v>
       </c>
       <c r="V17" t="n">
-        <v>318.5788111092297</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="W17" t="n">
-        <v>210.9508343831386</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="X17" t="n">
-        <v>103.3228576570475</v>
+        <v>118.7464366624497</v>
       </c>
       <c r="Y17" t="n">
-        <v>8.524135756706416</v>
+        <v>118.7464366624497</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>260.9749209368738</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="C18" t="n">
-        <v>153.3469442107827</v>
+        <v>325.6944519281423</v>
       </c>
       <c r="D18" t="n">
-        <v>153.3469442107827</v>
+        <v>230.7036138210127</v>
       </c>
       <c r="E18" t="n">
-        <v>46.46662705243855</v>
+        <v>125.4097303696788</v>
       </c>
       <c r="F18" t="n">
-        <v>46.46662705243855</v>
+        <v>125.4097303696788</v>
       </c>
       <c r="G18" t="n">
-        <v>46.46662705243855</v>
+        <v>40.62247650641596</v>
       </c>
       <c r="H18" t="n">
-        <v>46.46662705243855</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="I18" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="J18" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="K18" t="n">
-        <v>40.3536893542658</v>
+        <v>42.80497953772708</v>
       </c>
       <c r="L18" t="n">
-        <v>145.8398693435077</v>
+        <v>42.80497953772708</v>
       </c>
       <c r="M18" t="n">
-        <v>145.8398693435077</v>
+        <v>42.80497953772708</v>
       </c>
       <c r="N18" t="n">
-        <v>251.3260493327496</v>
+        <v>150.6472539751501</v>
       </c>
       <c r="O18" t="n">
-        <v>251.3260493327496</v>
+        <v>258.4895284125732</v>
       </c>
       <c r="P18" t="n">
-        <v>356.8122293219915</v>
+        <v>366.3318028499962</v>
       </c>
       <c r="Q18" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="R18" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="S18" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="T18" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="U18" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="V18" t="n">
-        <v>318.5788111092297</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="W18" t="n">
-        <v>260.9749209368738</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="X18" t="n">
-        <v>260.9749209368738</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="Y18" t="n">
-        <v>260.9749209368738</v>
+        <v>435.7263613633255</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="C19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="D19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="E19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="F19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="G19" t="n">
-        <v>103.3228576570475</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="H19" t="n">
-        <v>103.3228576570475</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="I19" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="J19" t="n">
-        <v>8.524135756706416</v>
+        <v>8.71452722726651</v>
       </c>
       <c r="K19" t="n">
-        <v>37.79256965303625</v>
+        <v>39.5378247998371</v>
       </c>
       <c r="L19" t="n">
-        <v>116.4219254647031</v>
+        <v>119.7220442877447</v>
       </c>
       <c r="M19" t="n">
-        <v>206.9251944608791</v>
+        <v>211.7801769601615</v>
       </c>
       <c r="N19" t="n">
-        <v>301.9312759202693</v>
+        <v>308.3411220957925</v>
       </c>
       <c r="O19" t="n">
-        <v>377.5857833591224</v>
+        <v>385.5504932108863</v>
       </c>
       <c r="P19" t="n">
-        <v>426.2067878353208</v>
+        <v>435.7263613633255</v>
       </c>
       <c r="Q19" t="n">
-        <v>426.2067878353208</v>
+        <v>402.6375659965437</v>
       </c>
       <c r="R19" t="n">
-        <v>426.2067878353208</v>
+        <v>292.6056565613605</v>
       </c>
       <c r="S19" t="n">
-        <v>318.5788111092297</v>
+        <v>182.5737471261773</v>
       </c>
       <c r="T19" t="n">
-        <v>318.5788111092297</v>
+        <v>182.5737471261773</v>
       </c>
       <c r="U19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="V19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="W19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="X19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
       <c r="Y19" t="n">
-        <v>210.9508343831386</v>
+        <v>72.5418376909941</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.828656894038964</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="C20" t="n">
-        <v>9.828656894038964</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="D20" t="n">
-        <v>9.828656894038964</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="E20" t="n">
-        <v>9.828656894038964</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="F20" t="n">
-        <v>9.828656894038964</v>
+        <v>105.6306330577758</v>
       </c>
       <c r="G20" t="n">
-        <v>9.828656894038964</v>
+        <v>105.6306330577758</v>
       </c>
       <c r="H20" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="I20" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="J20" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="K20" t="n">
-        <v>36.88390221870067</v>
+        <v>111.7295331381889</v>
       </c>
       <c r="L20" t="n">
-        <v>158.5135312824328</v>
+        <v>130.3817571964285</v>
       </c>
       <c r="M20" t="n">
-        <v>280.143160346165</v>
+        <v>130.3817571964285</v>
       </c>
       <c r="N20" t="n">
-        <v>401.7727894098972</v>
+        <v>238.2240316338515</v>
       </c>
       <c r="O20" t="n">
-        <v>401.7727894098972</v>
+        <v>346.0663060712746</v>
       </c>
       <c r="P20" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="Q20" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="R20" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="S20" t="n">
-        <v>491.4328447019482</v>
+        <v>325.6944519281423</v>
       </c>
       <c r="T20" t="n">
-        <v>491.4328447019482</v>
+        <v>325.6944519281423</v>
       </c>
       <c r="U20" t="n">
-        <v>367.3336414943855</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="V20" t="n">
-        <v>243.2344382868228</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="W20" t="n">
-        <v>243.2344382868228</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="X20" t="n">
-        <v>119.1352350792601</v>
+        <v>215.6625424929591</v>
       </c>
       <c r="Y20" t="n">
-        <v>119.1352350792601</v>
+        <v>215.6625424929591</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>205.2919469910907</v>
+        <v>198.7956645418632</v>
       </c>
       <c r="C21" t="n">
-        <v>94.0659558613458</v>
+        <v>198.7956645418632</v>
       </c>
       <c r="D21" t="n">
-        <v>94.0659558613458</v>
+        <v>198.7956645418632</v>
       </c>
       <c r="E21" t="n">
-        <v>94.0659558613458</v>
+        <v>93.50178109052935</v>
       </c>
       <c r="F21" t="n">
-        <v>94.0659558613458</v>
+        <v>93.50178109052935</v>
       </c>
       <c r="G21" t="n">
-        <v>87.04334532653887</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="H21" t="n">
-        <v>36.90124788550034</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="I21" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="J21" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="K21" t="n">
-        <v>131.4582859577711</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="L21" t="n">
-        <v>131.4582859577711</v>
+        <v>116.5568016646896</v>
       </c>
       <c r="M21" t="n">
-        <v>131.4582859577711</v>
+        <v>224.3990761021126</v>
       </c>
       <c r="N21" t="n">
-        <v>253.0879150215033</v>
+        <v>327.8840869259025</v>
       </c>
       <c r="O21" t="n">
-        <v>374.7175440852355</v>
+        <v>327.8840869259025</v>
       </c>
       <c r="P21" t="n">
-        <v>422.0382861886189</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="Q21" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="R21" t="n">
-        <v>453.4903534062161</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="S21" t="n">
-        <v>453.4903534062161</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="T21" t="n">
-        <v>329.3911501986533</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="U21" t="n">
-        <v>329.3911501986533</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="V21" t="n">
-        <v>329.3911501986533</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="W21" t="n">
-        <v>205.2919469910907</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="X21" t="n">
-        <v>205.2919469910907</v>
+        <v>388.5004034703329</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.2919469910907</v>
+        <v>308.8275739770464</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="C22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="D22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="E22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="F22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="G22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="H22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="I22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="J22" t="n">
-        <v>9.828656894038964</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="K22" t="n">
-        <v>49.75068007858465</v>
+        <v>39.5378247998371</v>
       </c>
       <c r="L22" t="n">
-        <v>139.0336251784673</v>
+        <v>119.7220442877447</v>
       </c>
       <c r="M22" t="n">
-        <v>240.1904834628592</v>
+        <v>211.7801769601616</v>
       </c>
       <c r="N22" t="n">
-        <v>345.8501542104651</v>
+        <v>308.3411220957925</v>
       </c>
       <c r="O22" t="n">
-        <v>432.158250937534</v>
+        <v>385.5504932108864</v>
       </c>
       <c r="P22" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="Q22" t="n">
-        <v>491.4328447019482</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="R22" t="n">
-        <v>376.4484899880219</v>
+        <v>435.7263613633256</v>
       </c>
       <c r="S22" t="n">
-        <v>252.3492867804592</v>
+        <v>338.8102555328163</v>
       </c>
       <c r="T22" t="n">
-        <v>128.2500835728965</v>
+        <v>338.8102555328163</v>
       </c>
       <c r="U22" t="n">
-        <v>128.2500835728965</v>
+        <v>228.778346097633</v>
       </c>
       <c r="V22" t="n">
-        <v>128.2500835728965</v>
+        <v>228.778346097633</v>
       </c>
       <c r="W22" t="n">
-        <v>128.2500835728965</v>
+        <v>118.7464366624498</v>
       </c>
       <c r="X22" t="n">
-        <v>128.2500835728965</v>
+        <v>8.714527227266512</v>
       </c>
       <c r="Y22" t="n">
-        <v>128.2500835728965</v>
+        <v>8.714527227266512</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>416.0762839499768</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>416.0762839499768</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>416.0762839499768</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>416.0762839499768</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6013,28 +6013,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="W23" t="n">
-        <v>720.6083788665362</v>
+        <v>902.973837238177</v>
       </c>
       <c r="X23" t="n">
-        <v>477.1596022224361</v>
+        <v>902.973837238177</v>
       </c>
       <c r="Y23" t="n">
-        <v>233.7108255783361</v>
+        <v>659.5250605940769</v>
       </c>
     </row>
     <row r="24">
@@ -6044,13 +6044,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>172.3723691111082</v>
+        <v>162.069323766904</v>
       </c>
       <c r="C24" t="n">
-        <v>88.21896897282471</v>
+        <v>77.91592362862048</v>
       </c>
       <c r="D24" t="n">
-        <v>88.21896897282471</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
         <v>19.28114311021272</v>
@@ -6077,43 +6077,43 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N24" t="n">
-        <v>781.4136778972854</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>870.0695397998778</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>758.1825743014874</v>
+        <v>921.7117681239529</v>
       </c>
       <c r="U24" t="n">
-        <v>758.1825743014874</v>
+        <v>783.7877790031855</v>
       </c>
       <c r="V24" t="n">
-        <v>613.3300952125883</v>
+        <v>638.9352999142864</v>
       </c>
       <c r="W24" t="n">
-        <v>449.3923676272301</v>
+        <v>474.9975723289282</v>
       </c>
       <c r="X24" t="n">
-        <v>331.8404965645408</v>
+        <v>357.4457012662389</v>
       </c>
       <c r="Y24" t="n">
-        <v>250.2880769883327</v>
+        <v>239.9850316441285</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>145.8192059815668</v>
+        <v>352.6642629466811</v>
       </c>
       <c r="C25" t="n">
-        <v>145.8192059815668</v>
+        <v>274.0277091616177</v>
       </c>
       <c r="D25" t="n">
-        <v>86.00219571207455</v>
+        <v>274.0277091616177</v>
       </c>
       <c r="E25" t="n">
-        <v>86.00219571207455</v>
+        <v>216.4142447220681</v>
       </c>
       <c r="F25" t="n">
-        <v>86.00219571207455</v>
+        <v>159.8239263670013</v>
       </c>
       <c r="G25" t="n">
-        <v>86.00219571207455</v>
+        <v>159.5683973848266</v>
       </c>
       <c r="H25" t="n">
         <v>86.00219571207455</v>
@@ -6177,22 +6177,22 @@
         <v>574.5060486347639</v>
       </c>
       <c r="T25" t="n">
-        <v>505.3509134248234</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="U25" t="n">
-        <v>505.3509134248234</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="V25" t="n">
-        <v>505.3509134248234</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="W25" t="n">
-        <v>505.3509134248234</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="X25" t="n">
-        <v>367.6609916696495</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="Y25" t="n">
-        <v>237.168041668963</v>
+        <v>444.0130986340773</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>902.973837238177</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S26" t="n">
-        <v>782.1420829605706</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>647.092369109342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U26" t="n">
-        <v>647.092369109342</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>406.3291109086149</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W26" t="n">
-        <v>162.8803342645148</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X26" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>358.7427811839057</v>
+        <v>266.7354488717165</v>
       </c>
       <c r="C27" t="n">
-        <v>274.5893810456221</v>
+        <v>182.582048733433</v>
       </c>
       <c r="D27" t="n">
-        <v>215.9546005272144</v>
+        <v>123.9472682150252</v>
       </c>
       <c r="E27" t="n">
-        <v>147.0167746646024</v>
+        <v>123.9472682150252</v>
       </c>
       <c r="F27" t="n">
-        <v>90.78184583433085</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6311,19 +6311,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>894.6625969973069</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6347,10 +6347,10 @@
         <v>517.3429597156115</v>
       </c>
       <c r="X27" t="n">
-        <v>517.3429597156115</v>
+        <v>399.7910886529222</v>
       </c>
       <c r="Y27" t="n">
-        <v>399.8822900935011</v>
+        <v>282.3304190308118</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>298.577844834336</v>
+        <v>434.251895763663</v>
       </c>
       <c r="C28" t="n">
-        <v>298.577844834336</v>
+        <v>355.6153419785996</v>
       </c>
       <c r="D28" t="n">
-        <v>298.577844834336</v>
+        <v>353.1604089744367</v>
       </c>
       <c r="E28" t="n">
-        <v>298.577844834336</v>
+        <v>295.5469445348871</v>
       </c>
       <c r="F28" t="n">
-        <v>242.95919917503</v>
+        <v>238.9566261798202</v>
       </c>
       <c r="G28" t="n">
-        <v>163.5709703800364</v>
+        <v>159.5683973848266</v>
       </c>
       <c r="H28" t="n">
-        <v>90.00476870728434</v>
+        <v>86.00219571207455</v>
       </c>
       <c r="I28" t="n">
-        <v>23.28371610542252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S28" t="n">
-        <v>438.5262858210698</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T28" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U28" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="V28" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="W28" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="X28" t="n">
-        <v>298.577844834336</v>
+        <v>525.6007314510592</v>
       </c>
       <c r="Y28" t="n">
-        <v>298.577844834336</v>
+        <v>525.6007314510592</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>964.0571555106362</v>
+        <v>313.574733478576</v>
       </c>
       <c r="C29" t="n">
-        <v>964.0571555106362</v>
+        <v>313.574733478576</v>
       </c>
       <c r="D29" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F29" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6463,7 +6463,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K29" t="n">
         <v>122.2961490211351</v>
@@ -6496,19 +6496,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>800.4722867667762</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>800.4722867667762</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>557.023510122676</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>557.023510122676</v>
       </c>
       <c r="Y29" t="n">
-        <v>964.0571555106362</v>
+        <v>313.574733478576</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>75.51607194048424</v>
+        <v>335.6732747343285</v>
       </c>
       <c r="C30" t="n">
-        <v>75.51607194048424</v>
+        <v>251.519874596045</v>
       </c>
       <c r="D30" t="n">
-        <v>75.51607194048424</v>
+        <v>192.8850940776372</v>
       </c>
       <c r="E30" t="n">
-        <v>75.51607194048424</v>
+        <v>123.9472682150252</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>67.7123393847537</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6548,46 +6548,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N30" t="n">
-        <v>726.4525409563269</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O30" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T30" t="n">
-        <v>758.1825743014874</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="U30" t="n">
-        <v>620.25858518072</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="V30" t="n">
-        <v>475.4061060918208</v>
+        <v>736.0869610152495</v>
       </c>
       <c r="W30" t="n">
-        <v>311.4683785064627</v>
+        <v>572.1492334298913</v>
       </c>
       <c r="X30" t="n">
-        <v>193.9165074437734</v>
+        <v>531.0496522336633</v>
       </c>
       <c r="Y30" t="n">
-        <v>76.45583782166302</v>
+        <v>413.588982611553</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>163.5709703800364</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>90.00476870728434</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>23.28371610542252</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>574.5060486347639</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="S31" t="n">
-        <v>438.5262858210698</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="T31" t="n">
-        <v>298.577844834336</v>
+        <v>663.2906532062331</v>
       </c>
       <c r="U31" t="n">
-        <v>242.95919917503</v>
+        <v>464.3791415849444</v>
       </c>
       <c r="V31" t="n">
-        <v>242.95919917503</v>
+        <v>299.994282521901</v>
       </c>
       <c r="W31" t="n">
-        <v>242.95919917503</v>
+        <v>100.8767416277838</v>
       </c>
       <c r="X31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>242.95919917503</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>19.28114311021272</v>
+        <v>610.6465248932006</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>610.6465248932006</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>367.1977482491006</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>367.1977482491006</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>367.1977482491006</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>130.7135223200741</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>130.7135223200741</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>913.8437375424478</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>803.8818835691122</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="T32" t="n">
-        <v>679.7020700221544</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="U32" t="n">
-        <v>679.7020700221544</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="V32" t="n">
-        <v>679.7020700221544</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="W32" t="n">
-        <v>436.2532933780544</v>
+        <v>854.0953015373007</v>
       </c>
       <c r="X32" t="n">
-        <v>262.7299197543128</v>
+        <v>610.6465248932006</v>
       </c>
       <c r="Y32" t="n">
-        <v>19.28114311021272</v>
+        <v>610.6465248932006</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>96.36923268287529</v>
+        <v>163.415040255829</v>
       </c>
       <c r="C33" t="n">
-        <v>67.04602332434972</v>
+        <v>90.1315404218163</v>
       </c>
       <c r="D33" t="n">
-        <v>19.28114311021272</v>
+        <v>90.1315404218163</v>
       </c>
       <c r="E33" t="n">
-        <v>19.28114311021272</v>
+        <v>32.06361486347507</v>
       </c>
       <c r="F33" t="n">
-        <v>19.28114311021272</v>
+        <v>32.06361486347507</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="H33" t="n">
         <v>19.28114311021272</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N33" t="n">
-        <v>851.8101010141643</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O33" t="n">
-        <v>964.0571555106362</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="C34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="D34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="E34" t="n">
-        <v>177.7081628079727</v>
+        <v>102.1079083163984</v>
       </c>
       <c r="F34" t="n">
-        <v>177.7081628079727</v>
+        <v>102.1079083163984</v>
       </c>
       <c r="G34" t="n">
-        <v>109.1898343172498</v>
+        <v>81.97744447869398</v>
       </c>
       <c r="H34" t="n">
-        <v>46.49353294876853</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R34" t="n">
-        <v>666.6817414521557</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S34" t="n">
-        <v>541.5718789427324</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="T34" t="n">
-        <v>412.4933382602694</v>
+        <v>490.4080425274677</v>
       </c>
       <c r="U34" t="n">
-        <v>224.4517269432515</v>
+        <v>302.3664312104498</v>
       </c>
       <c r="V34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="W34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="X34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
       <c r="Y34" t="n">
-        <v>224.4517269432515</v>
+        <v>148.8514724516772</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>925.6450332711079</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>804.8132789935015</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>669.7635651422729</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>173.3477578340674</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="C36" t="n">
-        <v>169.9232559408096</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="D36" t="n">
-        <v>111.2884754224019</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="E36" t="n">
-        <v>42.35064955978989</v>
+        <v>96.36923268287529</v>
       </c>
       <c r="F36" t="n">
-        <v>42.35064955978989</v>
+        <v>69.04204522578932</v>
       </c>
       <c r="G36" t="n">
-        <v>42.35064955978989</v>
+        <v>31.48074925551912</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7019,19 +7019,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>234.810827406191</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M36" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>880.9394401041486</v>
+        <v>891.8093404084193</v>
       </c>
       <c r="T36" t="n">
-        <v>769.0524746057582</v>
+        <v>790.7922752142996</v>
       </c>
       <c r="U36" t="n">
-        <v>631.1284854849908</v>
+        <v>663.7381863978029</v>
       </c>
       <c r="V36" t="n">
-        <v>486.2760063960916</v>
+        <v>529.7556076131746</v>
       </c>
       <c r="W36" t="n">
-        <v>486.2760063960916</v>
+        <v>376.6877803320872</v>
       </c>
       <c r="X36" t="n">
-        <v>368.7241353334023</v>
+        <v>270.0058095736687</v>
       </c>
       <c r="Y36" t="n">
-        <v>251.2634657112919</v>
+        <v>163.415040255829</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>225.2074347765604</v>
+        <v>223.3885366299903</v>
       </c>
       <c r="C37" t="n">
-        <v>225.2074347765604</v>
+        <v>223.3885366299903</v>
       </c>
       <c r="D37" t="n">
-        <v>165.3904245070682</v>
+        <v>174.4414266647689</v>
       </c>
       <c r="E37" t="n">
-        <v>165.3904245070682</v>
+        <v>127.6978625294901</v>
       </c>
       <c r="F37" t="n">
-        <v>165.3904245070682</v>
+        <v>81.97744447869398</v>
       </c>
       <c r="G37" t="n">
-        <v>86.00219571207455</v>
+        <v>81.97744447869398</v>
       </c>
       <c r="H37" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>19.28114311021272</v>
+        <v>26.01181060582338</v>
       </c>
       <c r="K37" t="n">
-        <v>85.73701272548962</v>
+        <v>103.1212695093161</v>
       </c>
       <c r="L37" t="n">
-        <v>201.5538042561035</v>
+        <v>229.5916503281457</v>
       </c>
       <c r="M37" t="n">
-        <v>329.2445089712266</v>
+        <v>367.9359443314846</v>
       </c>
       <c r="N37" t="n">
-        <v>461.4380261495638</v>
+        <v>510.7830507980376</v>
       </c>
       <c r="O37" t="n">
-        <v>574.279969307364</v>
+        <v>634.2785832440536</v>
       </c>
       <c r="P37" t="n">
-        <v>660.0884095025095</v>
+        <v>730.7406127274148</v>
       </c>
       <c r="Q37" t="n">
-        <v>663.2906532062331</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="R37" t="n">
-        <v>663.2906532062331</v>
+        <v>744.5964457193541</v>
       </c>
       <c r="S37" t="n">
-        <v>588.709834733721</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="T37" t="n">
-        <v>588.709834733721</v>
+        <v>619.4865832099307</v>
       </c>
       <c r="U37" t="n">
-        <v>588.709834733721</v>
+        <v>431.4449718929128</v>
       </c>
       <c r="V37" t="n">
-        <v>424.3249756706775</v>
+        <v>431.4449718929128</v>
       </c>
       <c r="W37" t="n">
-        <v>225.2074347765604</v>
+        <v>431.4449718929128</v>
       </c>
       <c r="X37" t="n">
-        <v>225.2074347765604</v>
+        <v>343.0115863264061</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.2074347765604</v>
+        <v>223.3885366299903</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>669.9406037026066</v>
+        <v>600.1593458718685</v>
       </c>
       <c r="C38" t="n">
-        <v>452.3709090732851</v>
+        <v>382.589651242547</v>
       </c>
       <c r="D38" t="n">
-        <v>234.8012144439637</v>
+        <v>382.589651242547</v>
       </c>
       <c r="E38" t="n">
-        <v>17.23151981464226</v>
+        <v>382.589651242547</v>
       </c>
       <c r="F38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.0199566132255</v>
       </c>
       <c r="G38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.0199566132255</v>
       </c>
       <c r="H38" t="n">
-        <v>17.23151981464226</v>
+        <v>165.0199566132255</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7177,16 +7177,16 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K38" t="n">
-        <v>23.55055379931807</v>
+        <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>203.6264053839766</v>
+        <v>300.3223773102232</v>
       </c>
       <c r="M38" t="n">
-        <v>416.8664630901746</v>
+        <v>513.5624350164212</v>
       </c>
       <c r="N38" t="n">
-        <v>622.7209852974139</v>
+        <v>719.4169572236606</v>
       </c>
       <c r="O38" t="n">
         <v>771.915935440062</v>
@@ -7198,28 +7198,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>860.598063437928</v>
+        <v>817.72904050119</v>
       </c>
       <c r="S38" t="n">
-        <v>860.598063437928</v>
+        <v>817.72904050119</v>
       </c>
       <c r="T38" t="n">
-        <v>860.598063437928</v>
+        <v>817.72904050119</v>
       </c>
       <c r="U38" t="n">
-        <v>669.9406037026066</v>
+        <v>817.72904050119</v>
       </c>
       <c r="V38" t="n">
-        <v>669.9406037026066</v>
+        <v>817.72904050119</v>
       </c>
       <c r="W38" t="n">
-        <v>669.9406037026066</v>
+        <v>817.72904050119</v>
       </c>
       <c r="X38" t="n">
-        <v>669.9406037026066</v>
+        <v>817.72904050119</v>
       </c>
       <c r="Y38" t="n">
-        <v>669.9406037026066</v>
+        <v>817.72904050119</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>205.672199376887</v>
+        <v>246.9117805068363</v>
       </c>
       <c r="C39" t="n">
-        <v>94.44620824714217</v>
+        <v>246.9117805068363</v>
       </c>
       <c r="D39" t="n">
-        <v>94.44620824714217</v>
+        <v>246.9117805068363</v>
       </c>
       <c r="E39" t="n">
-        <v>94.44620824714217</v>
+        <v>246.9117805068363</v>
       </c>
       <c r="F39" t="n">
-        <v>94.44620824714217</v>
+        <v>165.1906943921137</v>
       </c>
       <c r="G39" t="n">
-        <v>94.44620824714217</v>
+        <v>91.27334083312164</v>
       </c>
       <c r="H39" t="n">
-        <v>44.30411080610364</v>
+        <v>42.71767709909336</v>
       </c>
       <c r="I39" t="n">
         <v>17.23151981464226</v>
@@ -7259,46 +7259,46 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>142.5890798724797</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0578391930369</v>
+        <v>355.8291375786776</v>
       </c>
       <c r="N39" t="n">
-        <v>396.2978968992348</v>
+        <v>465.6924554125641</v>
       </c>
       <c r="O39" t="n">
-        <v>609.5379546054328</v>
+        <v>678.932513118762</v>
       </c>
       <c r="P39" t="n">
-        <v>792.1814322187836</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>861.5759907321129</v>
+        <v>825.219933143391</v>
       </c>
       <c r="S39" t="n">
-        <v>861.5759907321129</v>
+        <v>716.6160604524523</v>
       </c>
       <c r="T39" t="n">
-        <v>861.5759907321129</v>
+        <v>579.2429376696108</v>
       </c>
       <c r="U39" t="n">
-        <v>696.5794106198841</v>
+        <v>415.8327912643923</v>
       </c>
       <c r="V39" t="n">
-        <v>541.2157785672782</v>
+        <v>415.8327912643923</v>
       </c>
       <c r="W39" t="n">
-        <v>350.2054599904588</v>
+        <v>415.8327912643923</v>
       </c>
       <c r="X39" t="n">
-        <v>350.2054599904588</v>
+        <v>272.7947629172519</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.672199376887</v>
+        <v>272.7947629172519</v>
       </c>
     </row>
     <row r="40">
@@ -7335,49 +7335,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>57.15354299918788</v>
+        <v>58.70840667542863</v>
       </c>
       <c r="L40" t="n">
-        <v>146.4364880990705</v>
+        <v>149.546215451552</v>
       </c>
       <c r="M40" t="n">
-        <v>247.5933463834623</v>
+        <v>252.2579374121846</v>
       </c>
       <c r="N40" t="n">
-        <v>353.2530171310683</v>
+        <v>359.4724718360313</v>
       </c>
       <c r="O40" t="n">
-        <v>439.5611138581372</v>
+        <v>447.335432239341</v>
       </c>
       <c r="P40" t="n">
-        <v>498.8357076225514</v>
+        <v>508.164889679996</v>
       </c>
       <c r="Q40" t="n">
-        <v>498.8357076225514</v>
+        <v>508.164889679996</v>
       </c>
       <c r="R40" t="n">
-        <v>498.8357076225514</v>
+        <v>508.164889679996</v>
       </c>
       <c r="S40" t="n">
-        <v>498.8357076225514</v>
+        <v>508.164889679996</v>
       </c>
       <c r="T40" t="n">
-        <v>498.8357076225514</v>
+        <v>508.164889679996</v>
       </c>
       <c r="U40" t="n">
-        <v>426.2586644984684</v>
+        <v>508.164889679996</v>
       </c>
       <c r="V40" t="n">
-        <v>234.8012144439637</v>
+        <v>508.164889679996</v>
       </c>
       <c r="W40" t="n">
-        <v>17.23151981464226</v>
+        <v>290.5951950506745</v>
       </c>
       <c r="X40" t="n">
-        <v>17.23151981464226</v>
+        <v>290.0456200716272</v>
       </c>
       <c r="Y40" t="n">
-        <v>17.23151981464226</v>
+        <v>134.0665127864895</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>418.2194071075332</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="C41" t="n">
-        <v>282.3986071895243</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="D41" t="n">
-        <v>146.5778072715153</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="E41" t="n">
-        <v>10.75700735350631</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="F41" t="n">
-        <v>10.75700735350631</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="G41" t="n">
-        <v>10.75700735350631</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="H41" t="n">
-        <v>10.75700735350631</v>
+        <v>31.41910159542277</v>
       </c>
       <c r="I41" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="J41" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K41" t="n">
-        <v>113.7720132644287</v>
+        <v>113.5816217938686</v>
       </c>
       <c r="L41" t="n">
-        <v>246.8899792640692</v>
+        <v>244.343493345328</v>
       </c>
       <c r="M41" t="n">
-        <v>315.072346383624</v>
+        <v>375.1053648967874</v>
       </c>
       <c r="N41" t="n">
-        <v>315.072346383624</v>
+        <v>438.6707388552599</v>
       </c>
       <c r="O41" t="n">
-        <v>448.1903123832645</v>
+        <v>438.6707388552599</v>
       </c>
       <c r="P41" t="n">
-        <v>537.8503676753155</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="Q41" t="n">
-        <v>537.8503676753155</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="R41" t="n">
-        <v>537.8503676753155</v>
+        <v>431.6697032221734</v>
       </c>
       <c r="S41" t="n">
-        <v>537.8503676753155</v>
+        <v>431.6697032221734</v>
       </c>
       <c r="T41" t="n">
-        <v>537.8503676753155</v>
+        <v>431.6697032221734</v>
       </c>
       <c r="U41" t="n">
-        <v>537.8503676753155</v>
+        <v>298.2528360132566</v>
       </c>
       <c r="V41" t="n">
-        <v>537.8503676753155</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="W41" t="n">
-        <v>537.8503676753155</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="X41" t="n">
-        <v>537.8503676753155</v>
+        <v>164.8359688043397</v>
       </c>
       <c r="Y41" t="n">
-        <v>537.8503676753155</v>
+        <v>164.8359688043397</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>47.92121371319476</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="C42" t="n">
-        <v>47.92121371319476</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="D42" t="n">
-        <v>47.92121371319476</v>
+        <v>385.1289365633388</v>
       </c>
       <c r="E42" t="n">
-        <v>47.92121371319476</v>
+        <v>280.6133380480486</v>
       </c>
       <c r="F42" t="n">
-        <v>47.92121371319476</v>
+        <v>188.8006365650989</v>
       </c>
       <c r="G42" t="n">
-        <v>47.92121371319476</v>
+        <v>104.7916676378797</v>
       </c>
       <c r="H42" t="n">
-        <v>47.92121371319476</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="I42" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="J42" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K42" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="L42" t="n">
-        <v>10.75700735350631</v>
+        <v>66.65062097960327</v>
       </c>
       <c r="M42" t="n">
-        <v>69.10191116306447</v>
+        <v>197.4124925310627</v>
       </c>
       <c r="N42" t="n">
-        <v>202.219877162705</v>
+        <v>328.1743640825221</v>
       </c>
       <c r="O42" t="n">
-        <v>335.3378431623456</v>
+        <v>458.9362356339815</v>
       </c>
       <c r="P42" t="n">
-        <v>468.4558091619862</v>
+        <v>458.9362356339815</v>
       </c>
       <c r="Q42" t="n">
-        <v>537.8503676753155</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="R42" t="n">
-        <v>537.8503676753155</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="S42" t="n">
-        <v>537.8503676753155</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="T42" t="n">
-        <v>402.0295677573065</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="U42" t="n">
-        <v>319.5628135492127</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="V42" t="n">
-        <v>319.5628135492127</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="W42" t="n">
-        <v>319.5628135492127</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="X42" t="n">
-        <v>183.7420136312037</v>
+        <v>479.3414897344247</v>
       </c>
       <c r="Y42" t="n">
-        <v>47.92121371319476</v>
+        <v>479.3414897344247</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>25.55404207299233</v>
+        <v>276.4278547742488</v>
       </c>
       <c r="C43" t="n">
-        <v>25.55404207299233</v>
+        <v>276.4278547742488</v>
       </c>
       <c r="D43" t="n">
-        <v>25.55404207299233</v>
+        <v>276.4278547742488</v>
       </c>
       <c r="E43" t="n">
-        <v>25.55404207299233</v>
+        <v>183.236617682021</v>
       </c>
       <c r="F43" t="n">
-        <v>25.55404207299233</v>
+        <v>125.532617330618</v>
       </c>
       <c r="G43" t="n">
-        <v>25.55404207299233</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="H43" t="n">
-        <v>25.55404207299233</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="I43" t="n">
-        <v>25.55404207299233</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="J43" t="n">
-        <v>10.75700735350631</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K43" t="n">
-        <v>40.78823831565256</v>
+        <v>42.15271052133323</v>
       </c>
       <c r="L43" t="n">
-        <v>120.1803911931358</v>
+        <v>123.0997270750573</v>
       </c>
       <c r="M43" t="n">
-        <v>211.4464572551283</v>
+        <v>215.9206568132905</v>
       </c>
       <c r="N43" t="n">
-        <v>307.2153357803348</v>
+        <v>313.2443990147378</v>
       </c>
       <c r="O43" t="n">
-        <v>383.6326402850044</v>
+        <v>391.2165671956482</v>
       </c>
       <c r="P43" t="n">
-        <v>433.0164418270193</v>
+        <v>442.1552324139038</v>
       </c>
       <c r="Q43" t="n">
-        <v>433.0164418270193</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="R43" t="n">
-        <v>433.0164418270193</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="S43" t="n">
-        <v>297.1956419090103</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="T43" t="n">
-        <v>297.1956419090103</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="U43" t="n">
-        <v>297.1956419090103</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="V43" t="n">
-        <v>297.1956419090103</v>
+        <v>409.8447219831657</v>
       </c>
       <c r="W43" t="n">
-        <v>161.3748419910013</v>
+        <v>276.4278547742488</v>
       </c>
       <c r="X43" t="n">
-        <v>25.55404207299233</v>
+        <v>276.4278547742488</v>
       </c>
       <c r="Y43" t="n">
-        <v>25.55404207299233</v>
+        <v>276.4278547742488</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>128.8020596527112</v>
+        <v>410.8172175096969</v>
       </c>
       <c r="C44" t="n">
-        <v>128.8020596527112</v>
+        <v>277.40035030078</v>
       </c>
       <c r="D44" t="n">
-        <v>128.8020596527112</v>
+        <v>277.40035030078</v>
       </c>
       <c r="E44" t="n">
-        <v>128.8020596527112</v>
+        <v>277.40035030078</v>
       </c>
       <c r="F44" t="n">
-        <v>9.452486216173764</v>
+        <v>277.40035030078</v>
       </c>
       <c r="G44" t="n">
-        <v>9.452486216173764</v>
+        <v>277.40035030078</v>
       </c>
       <c r="H44" t="n">
-        <v>9.452486216173764</v>
+        <v>143.9834830918631</v>
       </c>
       <c r="I44" t="n">
-        <v>9.452486216173764</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="J44" t="n">
-        <v>9.452486216173764</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K44" t="n">
-        <v>32.04070474118619</v>
+        <v>113.5816217938686</v>
       </c>
       <c r="L44" t="n">
-        <v>149.0152216663365</v>
+        <v>113.5816217938686</v>
       </c>
       <c r="M44" t="n">
-        <v>265.9897385914869</v>
+        <v>244.343493345328</v>
       </c>
       <c r="N44" t="n">
-        <v>382.9642555166372</v>
+        <v>375.1053648967874</v>
       </c>
       <c r="O44" t="n">
-        <v>382.9642555166372</v>
+        <v>505.8672364482468</v>
       </c>
       <c r="P44" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="Q44" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="R44" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="S44" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="T44" t="n">
-        <v>353.2747373721508</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="U44" t="n">
-        <v>353.2747373721508</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="V44" t="n">
-        <v>353.2747373721508</v>
+        <v>410.8172175096969</v>
       </c>
       <c r="W44" t="n">
-        <v>233.9251639356133</v>
+        <v>410.8172175096969</v>
       </c>
       <c r="X44" t="n">
-        <v>233.9251639356133</v>
+        <v>410.8172175096969</v>
       </c>
       <c r="Y44" t="n">
-        <v>233.9251639356133</v>
+        <v>410.8172175096969</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>69.68619902543936</v>
+        <v>140.3569417067103</v>
       </c>
       <c r="C45" t="n">
-        <v>69.68619902543936</v>
+        <v>140.3569417067103</v>
       </c>
       <c r="D45" t="n">
-        <v>69.68619902543936</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="E45" t="n">
-        <v>69.68619902543936</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="F45" t="n">
-        <v>69.68619902543936</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="G45" t="n">
-        <v>69.68619902543936</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="H45" t="n">
-        <v>9.452486216173764</v>
+        <v>46.14438853562439</v>
       </c>
       <c r="I45" t="n">
-        <v>9.452486216173764</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="J45" t="n">
-        <v>9.452486216173764</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K45" t="n">
-        <v>126.4270031413241</v>
+        <v>135.9241759407836</v>
       </c>
       <c r="L45" t="n">
-        <v>243.4015200664744</v>
+        <v>266.686047492243</v>
       </c>
       <c r="M45" t="n">
-        <v>243.4015200664744</v>
+        <v>397.4479190437024</v>
       </c>
       <c r="N45" t="n">
-        <v>243.4015200664744</v>
+        <v>458.9362356339815</v>
       </c>
       <c r="O45" t="n">
-        <v>360.3760369916247</v>
+        <v>458.9362356339815</v>
       </c>
       <c r="P45" t="n">
-        <v>403.2297522953589</v>
+        <v>458.9362356339815</v>
       </c>
       <c r="Q45" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="R45" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="S45" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="T45" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="U45" t="n">
-        <v>472.6243108086882</v>
+        <v>528.3307941473108</v>
       </c>
       <c r="V45" t="n">
-        <v>427.7349193350516</v>
+        <v>407.1906761245441</v>
       </c>
       <c r="W45" t="n">
-        <v>308.3853458985142</v>
+        <v>273.7738089156272</v>
       </c>
       <c r="X45" t="n">
-        <v>189.0357724619768</v>
+        <v>140.3569417067103</v>
       </c>
       <c r="Y45" t="n">
-        <v>69.68619902543936</v>
+        <v>140.3569417067103</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="C46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="D46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="E46" t="n">
-        <v>9.452486216173764</v>
+        <v>91.18475088861182</v>
       </c>
       <c r="F46" t="n">
-        <v>9.452486216173764</v>
+        <v>91.18475088861182</v>
       </c>
       <c r="G46" t="n">
-        <v>9.452486216173764</v>
+        <v>91.18475088861182</v>
       </c>
       <c r="H46" t="n">
-        <v>9.452486216173764</v>
+        <v>50.14696153083419</v>
       </c>
       <c r="I46" t="n">
-        <v>9.452486216173764</v>
+        <v>50.14696153083419</v>
       </c>
       <c r="J46" t="n">
-        <v>9.452486216173764</v>
+        <v>10.56661588294622</v>
       </c>
       <c r="K46" t="n">
-        <v>39.48371717832002</v>
+        <v>42.15271052133323</v>
       </c>
       <c r="L46" t="n">
-        <v>118.8758700558033</v>
+        <v>123.0997270750573</v>
       </c>
       <c r="M46" t="n">
-        <v>210.1419361177958</v>
+        <v>215.9206568132905</v>
       </c>
       <c r="N46" t="n">
-        <v>305.9108146430024</v>
+        <v>313.2443990147378</v>
       </c>
       <c r="O46" t="n">
-        <v>382.3281191476719</v>
+        <v>391.2165671956482</v>
       </c>
       <c r="P46" t="n">
-        <v>431.7119206896868</v>
+        <v>442.1552324139038</v>
       </c>
       <c r="Q46" t="n">
-        <v>397.8149765519385</v>
+        <v>442.1552324139038</v>
       </c>
       <c r="R46" t="n">
-        <v>278.465403115401</v>
+        <v>317.7928551897565</v>
       </c>
       <c r="S46" t="n">
-        <v>159.1158296788636</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="T46" t="n">
-        <v>39.76625624232621</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="U46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="V46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="W46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="X46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
       <c r="Y46" t="n">
-        <v>9.452486216173764</v>
+        <v>184.3759879808396</v>
       </c>
     </row>
   </sheetData>
@@ -8929,22 +8929,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>220.0898510449805</v>
+        <v>245.7101422396114</v>
       </c>
       <c r="L14" t="n">
-        <v>260.3515428840269</v>
+        <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>230.3462332272727</v>
+        <v>254.9313611413124</v>
       </c>
       <c r="N14" t="n">
-        <v>255.0333547912217</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O14" t="n">
         <v>255.7185026163176</v>
       </c>
       <c r="P14" t="n">
-        <v>256.8532869499004</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>163.4617301689898</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>164.174670974505</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
         <v>167.1813723584841</v>
@@ -9026,7 +9026,7 @@
         <v>159.5946986089611</v>
       </c>
       <c r="Q15" t="n">
-        <v>165.6020652806523</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9169,19 +9169,19 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>342.3181119288174</v>
+        <v>344.6980053108186</v>
       </c>
       <c r="M17" t="n">
-        <v>230.3462332272727</v>
+        <v>249.1868635891309</v>
       </c>
       <c r="N17" t="n">
-        <v>334.1557769190235</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O17" t="n">
-        <v>336.6499083805169</v>
+        <v>339.0298017625181</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9245,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>169.992503214318</v>
+        <v>172.2762392879555</v>
       </c>
       <c r="L18" t="n">
-        <v>245.1060767387044</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>237.8934090421635</v>
+        <v>240.2733024241647</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>251.5278347852758</v>
       </c>
       <c r="P18" t="n">
-        <v>240.5261043731605</v>
+        <v>242.9059977551616</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9403,19 +9403,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>247.418381675952</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>358.6246261454743</v>
+        <v>254.6070453318454</v>
       </c>
       <c r="M20" t="n">
-        <v>353.2044444027598</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N20" t="n">
-        <v>352.271274772078</v>
+        <v>338.3446539374223</v>
       </c>
       <c r="O20" t="n">
-        <v>230.0982114216867</v>
+        <v>339.0298017625181</v>
       </c>
       <c r="P20" t="n">
         <v>321.7987081714826</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>260.699650149846</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>247.4859701207056</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>251.0656242628497</v>
       </c>
       <c r="N21" t="n">
-        <v>254.1999232588203</v>
+        <v>235.8720260467574</v>
       </c>
       <c r="O21" t="n">
-        <v>265.4544556199315</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>181.7731368116872</v>
+        <v>242.9059977551616</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,19 +9725,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>303.312501347746</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10196,7 +10196,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>382.6009056104135</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,10 +10430,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
@@ -10442,13 +10442,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>356.2611315939937</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
@@ -10679,10 +10679,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10825,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>226.4727136557642</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10837,7 +10837,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>283.1274823473447</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>353.9483774629024</v>
       </c>
       <c r="M39" t="n">
-        <v>183.0115685892478</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>346.7357097663615</v>
+        <v>242.3147604003904</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>370.2290068888161</v>
+        <v>367.8491135068149</v>
       </c>
       <c r="M41" t="n">
-        <v>299.2173111258129</v>
+        <v>362.4289317641004</v>
       </c>
       <c r="N41" t="n">
-        <v>229.4130635965909</v>
+        <v>293.6205120394924</v>
       </c>
       <c r="O41" t="n">
-        <v>364.5608033405156</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,19 +11144,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>195.2048899785177</v>
       </c>
       <c r="M42" t="n">
-        <v>201.0682801942993</v>
+        <v>274.216732458846</v>
       </c>
       <c r="N42" t="n">
-        <v>265.8043040021622</v>
+        <v>263.424410620161</v>
       </c>
       <c r="O42" t="n">
-        <v>277.0588363632733</v>
+        <v>274.6789429812721</v>
       </c>
       <c r="P42" t="n">
-        <v>268.4369993331591</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>242.9062333934779</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>353.9224926721593</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>348.5023109294448</v>
+        <v>362.4289317641004</v>
       </c>
       <c r="N44" t="n">
-        <v>347.5691412987629</v>
+        <v>361.4957621334186</v>
       </c>
       <c r="O44" t="n">
-        <v>230.0982114216867</v>
+        <v>362.1809099585145</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>253.9234580775564</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>255.997516676531</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>256.7104574820462</v>
+        <v>270.6370783167019</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>274.216732458846</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>193.4511227805849</v>
       </c>
       <c r="O45" t="n">
-        <v>260.7523221466165</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>177.2609885292132</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23515,7 +23515,7 @@
         <v>329.4841029012223</v>
       </c>
       <c r="I14" t="n">
-        <v>174.8648991612303</v>
+        <v>200.4851903558611</v>
       </c>
       <c r="J14" t="n">
         <v>1.958590140067713</v>
@@ -23542,10 +23542,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>139.8784187266049</v>
+        <v>114.2581275319741</v>
       </c>
       <c r="S14" t="n">
-        <v>199.0293703717005</v>
+        <v>173.4090791770697</v>
       </c>
       <c r="T14" t="n">
         <v>187.4848591549557</v>
@@ -23554,16 +23554,16 @@
         <v>241.3549536932917</v>
       </c>
       <c r="V14" t="n">
-        <v>292.1412680609592</v>
+        <v>317.7615592555901</v>
       </c>
       <c r="W14" t="n">
-        <v>316.6839170186374</v>
+        <v>339.2502695028682</v>
       </c>
       <c r="X14" t="n">
         <v>359.7404014639242</v>
       </c>
       <c r="Y14" t="n">
-        <v>376.2472394415088</v>
+        <v>353.6808869572779</v>
       </c>
     </row>
     <row r="15">
@@ -23579,22 +23579,22 @@
         <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
-        <v>137.4543663500939</v>
+        <v>111.8340751554631</v>
       </c>
       <c r="E15" t="n">
-        <v>147.6543812408561</v>
+        <v>125.0880287566253</v>
       </c>
       <c r="F15" t="n">
-        <v>112.5121606946082</v>
+        <v>135.0785131788391</v>
       </c>
       <c r="G15" t="n">
-        <v>101.732526754035</v>
+        <v>127.3528179486658</v>
       </c>
       <c r="H15" t="n">
-        <v>76.62445382732082</v>
+        <v>102.2447450219517</v>
       </c>
       <c r="I15" t="n">
-        <v>53.78564244223944</v>
+        <v>79.40593363687027</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>90.16713493809833</v>
+        <v>64.54684374346749</v>
       </c>
       <c r="S15" t="n">
-        <v>161.692471889293</v>
+        <v>136.0721806946622</v>
       </c>
       <c r="T15" t="n">
         <v>190.1740294802768</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>144.2209897727617</v>
+        <v>169.8412809673925</v>
       </c>
       <c r="C16" t="n">
         <v>131.6358306894522</v>
       </c>
       <c r="D16" t="n">
-        <v>113.0044826090367</v>
+        <v>138.6247738036676</v>
       </c>
       <c r="E16" t="n">
         <v>136.4432634320244</v>
@@ -23679,7 +23679,7 @@
         <v>83.36848090212797</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>12.27879261133805</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>76.17134403714958</v>
+        <v>50.55105284251875</v>
       </c>
       <c r="R16" t="n">
         <v>167.3026921626247</v>
@@ -23712,7 +23712,7 @@
         <v>276.3283301419461</v>
       </c>
       <c r="V16" t="n">
-        <v>242.1469441092832</v>
+        <v>219.5805916250524</v>
       </c>
       <c r="W16" t="n">
         <v>276.5322991220462</v>
@@ -23721,7 +23721,7 @@
         <v>215.7189561744923</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.3063942646572</v>
+        <v>182.9736629429192</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>330.9002751948403</v>
+        <v>329.3297058249001</v>
       </c>
       <c r="C17" t="n">
-        <v>313.4393253023673</v>
+        <v>311.8687559324271</v>
       </c>
       <c r="D17" t="n">
-        <v>302.8494751520427</v>
+        <v>301.2789057821025</v>
       </c>
       <c r="E17" t="n">
-        <v>330.0968036036215</v>
+        <v>328.5262342336814</v>
       </c>
       <c r="F17" t="n">
-        <v>355.0424792730712</v>
+        <v>353.471909903131</v>
       </c>
       <c r="G17" t="n">
-        <v>363.4691710464948</v>
+        <v>361.8986016765546</v>
       </c>
       <c r="H17" t="n">
-        <v>287.6412356471269</v>
+        <v>177.1390759363553</v>
       </c>
       <c r="I17" t="n">
-        <v>158.6423231017656</v>
+        <v>157.0717537318255</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>98.03555147250941</v>
+        <v>96.46498210256925</v>
       </c>
       <c r="S17" t="n">
-        <v>157.1865031176051</v>
+        <v>155.6159337476649</v>
       </c>
       <c r="T17" t="n">
-        <v>171.2622830954911</v>
+        <v>60.76012338471955</v>
       </c>
       <c r="U17" t="n">
-        <v>199.5120864391962</v>
+        <v>89.00992672842469</v>
       </c>
       <c r="V17" t="n">
-        <v>169.3669950426645</v>
+        <v>178.4011778593503</v>
       </c>
       <c r="W17" t="n">
-        <v>190.8557052899426</v>
+        <v>295.8368328788326</v>
       </c>
       <c r="X17" t="n">
-        <v>211.3458372509986</v>
+        <v>316.3269648398886</v>
       </c>
       <c r="Y17" t="n">
-        <v>240.5536375060757</v>
+        <v>332.8338028174732</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>114.6996171812271</v>
+        <v>113.1290478112869</v>
       </c>
       <c r="C18" t="n">
-        <v>14.32323556084526</v>
+        <v>10.37277280890393</v>
       </c>
       <c r="D18" t="n">
-        <v>95.61149909599848</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>93.23564592474361</v>
+        <v>91.66507655480345</v>
       </c>
       <c r="G18" t="n">
-        <v>85.50995069457036</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>60.4018777678562</v>
+        <v>27.24243861155807</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>35.99249701283465</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>48.32426768400287</v>
+        <v>46.7536983140627</v>
       </c>
       <c r="S18" t="n">
-        <v>119.8496046351976</v>
+        <v>118.2790352652574</v>
       </c>
       <c r="T18" t="n">
-        <v>148.3311622261813</v>
+        <v>146.7605928562412</v>
       </c>
       <c r="U18" t="n">
-        <v>174.1078156123345</v>
+        <v>172.5372462423944</v>
       </c>
       <c r="V18" t="n">
-        <v>74.41532372195479</v>
+        <v>179.3964513108448</v>
       </c>
       <c r="W18" t="n">
-        <v>142.833565421647</v>
+        <v>198.2908473223392</v>
       </c>
       <c r="X18" t="n">
-        <v>153.9394187348372</v>
+        <v>152.368849364897</v>
       </c>
       <c r="Y18" t="n">
-        <v>153.8491293086641</v>
+        <v>152.2785599387239</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>127.998413713297</v>
+        <v>126.4278443433569</v>
       </c>
       <c r="C19" t="n">
-        <v>115.4132546299876</v>
+        <v>113.8426852600474</v>
       </c>
       <c r="D19" t="n">
-        <v>96.78190654957208</v>
+        <v>95.21133717963193</v>
       </c>
       <c r="E19" t="n">
-        <v>94.6003961779289</v>
+        <v>93.02982680798874</v>
       </c>
       <c r="F19" t="n">
-        <v>93.58748155429097</v>
+        <v>92.01691218435082</v>
       </c>
       <c r="G19" t="n">
-        <v>9.605715930988282</v>
+        <v>51.39780616078802</v>
       </c>
       <c r="H19" t="n">
-        <v>110.3936060387993</v>
+        <v>108.8230366688591</v>
       </c>
       <c r="I19" t="n">
-        <v>9.766173777280358</v>
+        <v>102.0463390886779</v>
       </c>
       <c r="J19" t="n">
-        <v>41.52561364803251</v>
+        <v>39.95504427809234</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>34.32847678305412</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>125.4598249085292</v>
+        <v>14.95766519775768</v>
       </c>
       <c r="S19" t="n">
-        <v>65.63133460950178</v>
+        <v>61.68087185756045</v>
       </c>
       <c r="T19" t="n">
-        <v>176.1120229596412</v>
+        <v>174.5414535897011</v>
       </c>
       <c r="U19" t="n">
-        <v>127.9337659290204</v>
+        <v>123.9833031770791</v>
       </c>
       <c r="V19" t="n">
-        <v>200.3040768551877</v>
+        <v>198.7335074852476</v>
       </c>
       <c r="W19" t="n">
-        <v>234.6894318679507</v>
+        <v>233.1188624980106</v>
       </c>
       <c r="X19" t="n">
-        <v>173.8760889203969</v>
+        <v>172.3055195504567</v>
       </c>
       <c r="Y19" t="n">
-        <v>166.7510868834545</v>
+        <v>165.1805175135144</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>211.9255614902434</v>
+        <v>329.3297058249001</v>
       </c>
       <c r="C20" t="n">
-        <v>302.6781240011392</v>
+        <v>311.8687559324271</v>
       </c>
       <c r="D20" t="n">
-        <v>292.0882738508146</v>
+        <v>301.2789057821025</v>
       </c>
       <c r="E20" t="n">
-        <v>319.3356023023935</v>
+        <v>328.5262342336814</v>
       </c>
       <c r="F20" t="n">
-        <v>344.2812779718431</v>
+        <v>244.5403195622996</v>
       </c>
       <c r="G20" t="n">
-        <v>352.7079697452667</v>
+        <v>361.8986016765546</v>
       </c>
       <c r="H20" t="n">
-        <v>276.8800343458988</v>
+        <v>190.1237215049825</v>
       </c>
       <c r="I20" t="n">
-        <v>147.8811218005376</v>
+        <v>157.0717537318255</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>87.27435017128136</v>
+        <v>96.46498210256925</v>
       </c>
       <c r="S20" t="n">
-        <v>146.425301816377</v>
+        <v>46.68434340683352</v>
       </c>
       <c r="T20" t="n">
-        <v>160.501081794263</v>
+        <v>169.6917137255509</v>
       </c>
       <c r="U20" t="n">
-        <v>65.89267396248113</v>
+        <v>89.00992672842467</v>
       </c>
       <c r="V20" t="n">
-        <v>142.2992795247795</v>
+        <v>274.3481226315545</v>
       </c>
       <c r="W20" t="n">
-        <v>286.6462009475447</v>
+        <v>295.8368328788326</v>
       </c>
       <c r="X20" t="n">
-        <v>184.2781217331137</v>
+        <v>316.3269648398886</v>
       </c>
       <c r="Y20" t="n">
-        <v>323.6431708861853</v>
+        <v>332.8338028174732</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>103.938415879999</v>
+        <v>4.197457470455518</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>119.3043631497353</v>
       </c>
       <c r="D21" t="n">
-        <v>84.85029779477043</v>
+        <v>94.04092972605832</v>
       </c>
       <c r="E21" t="n">
-        <v>95.05031268553262</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.47444462351555</v>
+        <v>91.66507655480345</v>
       </c>
       <c r="G21" t="n">
-        <v>67.79636496388345</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>58.83130839791603</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>35.99249701283465</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24098,25 +24098,25 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>109.0884033339695</v>
+        <v>118.2790352652574</v>
       </c>
       <c r="T21" t="n">
-        <v>14.71174974946624</v>
+        <v>146.7605928562412</v>
       </c>
       <c r="U21" t="n">
-        <v>163.3466143111065</v>
+        <v>172.5372462423944</v>
       </c>
       <c r="V21" t="n">
-        <v>170.2058193795569</v>
+        <v>179.3964513108448</v>
       </c>
       <c r="W21" t="n">
-        <v>66.24200421556424</v>
+        <v>198.2908473223392</v>
       </c>
       <c r="X21" t="n">
-        <v>143.1782174336091</v>
+        <v>152.368849364897</v>
       </c>
       <c r="Y21" t="n">
-        <v>143.087928007436</v>
+        <v>73.40245874037032</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>126.4278443433569</v>
       </c>
       <c r="C22" t="n">
-        <v>104.6520533287595</v>
+        <v>113.8426852600474</v>
       </c>
       <c r="D22" t="n">
-        <v>86.02070524834403</v>
+        <v>95.21133717963193</v>
       </c>
       <c r="E22" t="n">
-        <v>83.83919487670084</v>
+        <v>93.02982680798874</v>
       </c>
       <c r="F22" t="n">
-        <v>82.82628025306292</v>
+        <v>92.01691218435082</v>
       </c>
       <c r="G22" t="n">
-        <v>105.3962115885904</v>
+        <v>114.5868435198783</v>
       </c>
       <c r="H22" t="n">
-        <v>99.63240473757125</v>
+        <v>108.8230366688591</v>
       </c>
       <c r="I22" t="n">
-        <v>92.85570715738996</v>
+        <v>102.0463390886779</v>
       </c>
       <c r="J22" t="n">
-        <v>30.76441234680446</v>
+        <v>39.95504427809234</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.56727548182607</v>
+        <v>32.75790741311395</v>
       </c>
       <c r="R22" t="n">
-        <v>0.8641124405141483</v>
+        <v>123.8892555385891</v>
       </c>
       <c r="S22" t="n">
-        <v>38.56361909161689</v>
+        <v>74.66551742618762</v>
       </c>
       <c r="T22" t="n">
-        <v>42.49261048292612</v>
+        <v>174.5414535897011</v>
       </c>
       <c r="U22" t="n">
-        <v>223.7242615866226</v>
+        <v>123.9833031770791</v>
       </c>
       <c r="V22" t="n">
-        <v>189.5428755539597</v>
+        <v>198.7335074852476</v>
       </c>
       <c r="W22" t="n">
-        <v>223.9282305667227</v>
+        <v>124.1872721571792</v>
       </c>
       <c r="X22" t="n">
-        <v>163.1148876191688</v>
+        <v>63.37392920962533</v>
       </c>
       <c r="Y22" t="n">
-        <v>155.9898855822265</v>
+        <v>165.1805175135144</v>
       </c>
     </row>
     <row r="23">
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.0518231686234</v>
+        <v>52.32291993440646</v>
       </c>
       <c r="C23" t="n">
         <v>275.8762589195925</v>
@@ -24217,10 +24217,10 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
-        <v>317.4794128902964</v>
+        <v>165.666512336589</v>
       </c>
       <c r="G23" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H23" t="n">
         <v>250.0781692643521</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>119.6234367348303</v>
@@ -24268,10 +24268,10 @@
         <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X23" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y23" t="n">
         <v>55.82701692697947</v>
@@ -24290,10 +24290,10 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
         <v>55.6725795419688</v>
@@ -24332,16 +24332,16 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>68.84616233059002</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>35.54916754544328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24366,22 +24366,22 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>78.34137281469073</v>
       </c>
       <c r="H25" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24417,7 +24417,7 @@
         <v>134.6199651855572</v>
       </c>
       <c r="T25" t="n">
-        <v>70.08537271902527</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
         <v>196.9223965050758</v>
@@ -24429,7 +24429,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24454,10 +24454,10 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>105.1940272468543</v>
       </c>
       <c r="G26" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W26" t="n">
         <v>18.83004698833889</v>
       </c>
       <c r="X26" t="n">
-        <v>138.1712685842949</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>296.8413058046385</v>
+        <v>55.82701692697947</v>
       </c>
     </row>
     <row r="27">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>36.40843697795275</v>
+        <v>61.69753034094788</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24530,7 +24530,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24587,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.85018824721276</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>56.78845649267594</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9619559688032027</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24624,7 +24624,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
@@ -24666,7 +24666,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24685,16 +24685,16 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>53.0010231258259</v>
+        <v>214.9500431822473</v>
       </c>
       <c r="E29" t="n">
         <v>51.51944834318766</v>
       </c>
       <c r="F29" t="n">
-        <v>76.46512401263732</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H29" t="n">
         <v>250.0781692643521</v>
@@ -24736,19 +24736,19 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>259.8443358659979</v>
+        <v>18.83004698833889</v>
       </c>
       <c r="X29" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>296.8413058046385</v>
+        <v>55.82701692697947</v>
       </c>
     </row>
     <row r="30">
@@ -24758,22 +24758,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>76.20618257608527</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>22.83881138508139</v>
@@ -24806,16 +24806,16 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24824,7 +24824,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>75.6877669677967</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24852,16 +24852,16 @@
         <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>141.8599373023629</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>136.3130225376221</v>
+        <v>55.53338000522669</v>
       </c>
       <c r="Y31" t="n">
         <v>129.1880205006797</v>
@@ -24922,7 +24922,7 @@
         <v>265.1150576183644</v>
       </c>
       <c r="D32" t="n">
-        <v>254.5252074680398</v>
+        <v>13.51091859038075</v>
       </c>
       <c r="E32" t="n">
         <v>281.7725359196186</v>
@@ -24931,13 +24931,13 @@
         <v>306.7182115890683</v>
       </c>
       <c r="G32" t="n">
-        <v>315.1449033624919</v>
+        <v>81.02551969275569</v>
       </c>
       <c r="H32" t="n">
         <v>239.316967963124</v>
       </c>
       <c r="I32" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,13 +24964,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
         <v>151.1878187551933</v>
@@ -24979,13 +24979,13 @@
         <v>227.5944243174918</v>
       </c>
       <c r="W32" t="n">
-        <v>8.068845687110809</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X32" t="n">
-        <v>97.78512663832174</v>
+        <v>28.55897764816683</v>
       </c>
       <c r="Y32" t="n">
-        <v>45.06581562575138</v>
+        <v>286.0801045034104</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
-        <v>43.52068757073229</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
-        <v>37.1856830105675</v>
+        <v>36.60864605869111</v>
       </c>
       <c r="H33" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>47.90398600648825</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>28.3523748344449</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>186.3651641839479</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>52.32291993440646</v>
+        <v>70.29062186739532</v>
       </c>
       <c r="C35" t="n">
-        <v>275.8762589195925</v>
+        <v>265.1150576183644</v>
       </c>
       <c r="D35" t="n">
-        <v>265.2864087692679</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E35" t="n">
-        <v>292.5337372208467</v>
+        <v>281.7725359196186</v>
       </c>
       <c r="F35" t="n">
-        <v>317.4794128902964</v>
+        <v>65.70392271140923</v>
       </c>
       <c r="G35" t="n">
-        <v>325.90610466372</v>
+        <v>74.13061448483285</v>
       </c>
       <c r="H35" t="n">
-        <v>250.0781692643521</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I35" t="n">
-        <v>121.0792567189908</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>22.44448407260155</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>108.8622354336022</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>151.1878187551933</v>
       </c>
       <c r="V35" t="n">
-        <v>238.3556256187198</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W35" t="n">
-        <v>18.83004698833889</v>
+        <v>249.0831345647699</v>
       </c>
       <c r="X35" t="n">
-        <v>280.334467827054</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y35" t="n">
-        <v>296.8413058046385</v>
+        <v>45.06581562575138</v>
       </c>
     </row>
     <row r="36">
@@ -25235,19 +25235,19 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>79.92160926257547</v>
+        <v>72.55066483567261</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>57.48724630275781</v>
       </c>
       <c r="F36" t="n">
-        <v>55.6725795419688</v>
+        <v>17.85746265822564</v>
       </c>
       <c r="G36" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -25280,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25311,31 +25311,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>90.43534733052222</v>
+        <v>79.67414602929416</v>
       </c>
       <c r="C37" t="n">
-        <v>77.85018824721276</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H37" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J37" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>87.89675852575441</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S37" t="n">
-        <v>60.78495489777023</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>138.5489565768664</v>
+        <v>127.7877552756384</v>
       </c>
       <c r="U37" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>186.3651641839479</v>
       </c>
       <c r="X37" t="n">
-        <v>136.3130225376221</v>
+        <v>38.00276952555242</v>
       </c>
       <c r="Y37" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>320.1390738936122</v>
+        <v>103.1745068406439</v>
       </c>
       <c r="C38" t="n">
-        <v>87.28412631811099</v>
+        <v>85.7135569481708</v>
       </c>
       <c r="D38" t="n">
-        <v>76.6942761677864</v>
+        <v>290.5177044808745</v>
       </c>
       <c r="E38" t="n">
-        <v>103.9416046193652</v>
+        <v>317.7650329324533</v>
       </c>
       <c r="F38" t="n">
-        <v>344.2812779718431</v>
+        <v>127.3167109188747</v>
       </c>
       <c r="G38" t="n">
-        <v>352.7079697452667</v>
+        <v>351.1374003753266</v>
       </c>
       <c r="H38" t="n">
-        <v>276.8800343458988</v>
+        <v>275.3094649759587</v>
       </c>
       <c r="I38" t="n">
-        <v>147.8811218005376</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>86.30620215003826</v>
+        <v>42.29530007272746</v>
       </c>
       <c r="S38" t="n">
-        <v>146.425301816377</v>
+        <v>144.8547324464369</v>
       </c>
       <c r="T38" t="n">
-        <v>160.501081794263</v>
+        <v>158.9305124243229</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>187.180315768028</v>
       </c>
       <c r="V38" t="n">
-        <v>265.1574907002666</v>
+        <v>263.5869213303264</v>
       </c>
       <c r="W38" t="n">
-        <v>286.6462009475447</v>
+        <v>285.0756315776046</v>
       </c>
       <c r="X38" t="n">
-        <v>307.1363329086007</v>
+        <v>305.5657635386606</v>
       </c>
       <c r="Y38" t="n">
-        <v>323.6431708861853</v>
+        <v>322.0726015162451</v>
       </c>
     </row>
     <row r="39">
@@ -25469,22 +25469,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>103.938415879999</v>
+        <v>76.74369392374744</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>108.5431618485073</v>
       </c>
       <c r="D39" t="n">
-        <v>84.85029779477043</v>
+        <v>83.27972842483027</v>
       </c>
       <c r="E39" t="n">
-        <v>95.05031268553262</v>
+        <v>93.47974331559246</v>
       </c>
       <c r="F39" t="n">
-        <v>82.47444462351555</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>74.74874939334231</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.56306638277481</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>109.0884033339695</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>137.5699609249533</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>16.3958236474771</v>
+        <v>168.6352500096168</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>187.5296460211111</v>
       </c>
       <c r="X39" t="n">
-        <v>143.1782174336091</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>141.5173586374959</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>117.237212412069</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>104.6520533287595</v>
+        <v>103.0814839588193</v>
       </c>
       <c r="D40" t="n">
-        <v>86.02070524834403</v>
+        <v>84.45013587840387</v>
       </c>
       <c r="E40" t="n">
-        <v>83.83919487670084</v>
+        <v>82.26862550676069</v>
       </c>
       <c r="F40" t="n">
-        <v>82.82628025306292</v>
+        <v>81.25571088312276</v>
       </c>
       <c r="G40" t="n">
-        <v>105.3962115885904</v>
+        <v>103.8256422186503</v>
       </c>
       <c r="H40" t="n">
-        <v>99.63240473757125</v>
+        <v>98.06183536763109</v>
       </c>
       <c r="I40" t="n">
-        <v>92.85570715738996</v>
+        <v>91.2851377874498</v>
       </c>
       <c r="J40" t="n">
-        <v>30.76441234680446</v>
+        <v>29.19384297686429</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>23.56727548182607</v>
+        <v>21.9967061118859</v>
       </c>
       <c r="R40" t="n">
-        <v>114.6986236073012</v>
+        <v>113.128054237361</v>
       </c>
       <c r="S40" t="n">
-        <v>161.4218302671039</v>
+        <v>159.8512608971638</v>
       </c>
       <c r="T40" t="n">
-        <v>165.3508216584132</v>
+        <v>163.780252288473</v>
       </c>
       <c r="U40" t="n">
-        <v>151.8729888937804</v>
+        <v>222.1536922166824</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>187.9723061840195</v>
       </c>
       <c r="W40" t="n">
-        <v>8.534232883694443</v>
+        <v>6.963663513754284</v>
       </c>
       <c r="X40" t="n">
-        <v>163.1148876191688</v>
+        <v>161.0002390199718</v>
       </c>
       <c r="Y40" t="n">
-        <v>155.9898855822265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>211.6951221460526</v>
+        <v>328.5592037382169</v>
       </c>
       <c r="C41" t="n">
-        <v>178.2062312968552</v>
+        <v>311.0982538457439</v>
       </c>
       <c r="D41" t="n">
-        <v>167.6163811465306</v>
+        <v>300.5084036954192</v>
       </c>
       <c r="E41" t="n">
-        <v>194.8637095981094</v>
+        <v>327.7557321469981</v>
       </c>
       <c r="F41" t="n">
-        <v>354.2719771863879</v>
+        <v>352.7014078164477</v>
       </c>
       <c r="G41" t="n">
-        <v>362.6986689598115</v>
+        <v>361.1280995898713</v>
       </c>
       <c r="H41" t="n">
-        <v>286.8707335604436</v>
+        <v>153.2174656536757</v>
       </c>
       <c r="I41" t="n">
-        <v>157.8718210150824</v>
+        <v>135.6572907897904</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>97.26504938582616</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>156.4160010309218</v>
+        <v>154.8454316609817</v>
       </c>
       <c r="T41" t="n">
-        <v>170.4917810088078</v>
+        <v>168.9212116388677</v>
       </c>
       <c r="U41" t="n">
-        <v>198.741584352513</v>
+        <v>65.08831644574511</v>
       </c>
       <c r="V41" t="n">
-        <v>275.1481899148114</v>
+        <v>141.4949220080435</v>
       </c>
       <c r="W41" t="n">
-        <v>296.6369001620895</v>
+        <v>295.0663307921493</v>
       </c>
       <c r="X41" t="n">
-        <v>317.1270321231455</v>
+        <v>315.5564627532053</v>
       </c>
       <c r="Y41" t="n">
-        <v>333.6338701007301</v>
+        <v>332.0633007307899</v>
       </c>
     </row>
     <row r="42">
@@ -25706,25 +25706,25 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>113.9291150945438</v>
+        <v>112.3585457246037</v>
       </c>
       <c r="C42" t="n">
-        <v>120.1044304329922</v>
+        <v>118.5338610630521</v>
       </c>
       <c r="D42" t="n">
-        <v>94.84099700931523</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>105.0410119000774</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>92.46514383806036</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>84.73944860788711</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>59.63137568117295</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>47.55376559731962</v>
+        <v>45.98319622737945</v>
       </c>
       <c r="S42" t="n">
-        <v>119.0791025485143</v>
+        <v>69.0091218098169</v>
       </c>
       <c r="T42" t="n">
-        <v>13.09806822066921</v>
+        <v>145.9900907695579</v>
       </c>
       <c r="U42" t="n">
-        <v>91.69522685963845</v>
+        <v>171.7667441557111</v>
       </c>
       <c r="V42" t="n">
-        <v>180.1965185941017</v>
+        <v>178.6259492241616</v>
       </c>
       <c r="W42" t="n">
-        <v>199.0909146055961</v>
+        <v>197.5203452356559</v>
       </c>
       <c r="X42" t="n">
-        <v>18.70632472932508</v>
+        <v>151.5983472782138</v>
       </c>
       <c r="Y42" t="n">
-        <v>18.61603530315196</v>
+        <v>151.5080578520407</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>127.2279116266138</v>
+        <v>125.6573422566736</v>
       </c>
       <c r="C43" t="n">
-        <v>114.6427525433043</v>
+        <v>113.0721831733642</v>
       </c>
       <c r="D43" t="n">
-        <v>96.01140446288883</v>
+        <v>94.44083509294867</v>
       </c>
       <c r="E43" t="n">
-        <v>93.82989409124565</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.81697946760772</v>
+        <v>34.11944974977862</v>
       </c>
       <c r="G43" t="n">
-        <v>115.3869108031352</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>109.6231039521161</v>
+        <v>108.0525345821759</v>
       </c>
       <c r="I43" t="n">
-        <v>102.8464063719348</v>
+        <v>101.2758370019946</v>
       </c>
       <c r="J43" t="n">
-        <v>26.1060471890581</v>
+        <v>39.18454219140909</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>33.55797469637087</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>124.689322821846</v>
+        <v>123.1187534519058</v>
       </c>
       <c r="S43" t="n">
-        <v>36.94993756281985</v>
+        <v>169.8419601117086</v>
       </c>
       <c r="T43" t="n">
-        <v>175.341520872958</v>
+        <v>173.7709515030178</v>
       </c>
       <c r="U43" t="n">
-        <v>233.7149608011674</v>
+        <v>232.1443914312272</v>
       </c>
       <c r="V43" t="n">
-        <v>199.5335747685045</v>
+        <v>197.9630053985643</v>
       </c>
       <c r="W43" t="n">
-        <v>99.4563378624386</v>
+        <v>100.2656618744996</v>
       </c>
       <c r="X43" t="n">
-        <v>38.64299491488475</v>
+        <v>171.5350174637735</v>
       </c>
       <c r="Y43" t="n">
-        <v>165.9805847967713</v>
+        <v>164.4100154268311</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>226.057899868084</v>
+        <v>328.5592037382169</v>
       </c>
       <c r="C44" t="n">
-        <v>312.668823215684</v>
+        <v>179.0155553089162</v>
       </c>
       <c r="D44" t="n">
-        <v>302.0789730653594</v>
+        <v>300.5084036954192</v>
       </c>
       <c r="E44" t="n">
-        <v>329.3263015169383</v>
+        <v>327.7557321469981</v>
       </c>
       <c r="F44" t="n">
-        <v>236.1158994842159</v>
+        <v>352.7014078164477</v>
       </c>
       <c r="G44" t="n">
-        <v>362.6986689598115</v>
+        <v>361.1280995898713</v>
       </c>
       <c r="H44" t="n">
-        <v>286.8707335604436</v>
+        <v>153.2174656536757</v>
       </c>
       <c r="I44" t="n">
-        <v>157.8718210150824</v>
+        <v>24.21855310831452</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>97.26504938582616</v>
+        <v>95.694480015886</v>
       </c>
       <c r="S44" t="n">
-        <v>156.4160010309218</v>
+        <v>154.8454316609817</v>
       </c>
       <c r="T44" t="n">
-        <v>52.33570330663579</v>
+        <v>168.9212116388677</v>
       </c>
       <c r="U44" t="n">
-        <v>198.741584352513</v>
+        <v>197.1710149825728</v>
       </c>
       <c r="V44" t="n">
-        <v>275.1481899148114</v>
+        <v>157.2391796736335</v>
       </c>
       <c r="W44" t="n">
-        <v>178.4808224599174</v>
+        <v>295.0663307921493</v>
       </c>
       <c r="X44" t="n">
-        <v>317.1270321231455</v>
+        <v>315.5564627532053</v>
       </c>
       <c r="Y44" t="n">
-        <v>333.6338701007301</v>
+        <v>332.0633007307899</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>113.9291150945438</v>
+        <v>112.3585457246037</v>
       </c>
       <c r="C45" t="n">
-        <v>120.1044304329922</v>
+        <v>118.5338610630521</v>
       </c>
       <c r="D45" t="n">
-        <v>94.84099700931523</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>105.0410119000774</v>
+        <v>103.4704425301373</v>
       </c>
       <c r="F45" t="n">
-        <v>92.46514383806036</v>
+        <v>90.8945744681202</v>
       </c>
       <c r="G45" t="n">
-        <v>84.73944860788711</v>
+        <v>83.16887923794695</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>58.06080631123278</v>
       </c>
       <c r="I45" t="n">
-        <v>36.79256429609156</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>47.55376559731962</v>
+        <v>45.98319622737945</v>
       </c>
       <c r="S45" t="n">
-        <v>119.0791025485143</v>
+        <v>117.5085331785741</v>
       </c>
       <c r="T45" t="n">
-        <v>147.5606601394981</v>
+        <v>145.9900907695579</v>
       </c>
       <c r="U45" t="n">
-        <v>173.3373135256513</v>
+        <v>171.7667441557111</v>
       </c>
       <c r="V45" t="n">
-        <v>135.7560210352016</v>
+        <v>58.69723238162254</v>
       </c>
       <c r="W45" t="n">
-        <v>80.93483690342404</v>
+        <v>65.43764669882822</v>
       </c>
       <c r="X45" t="n">
-        <v>35.01283894598191</v>
+        <v>19.51564874138609</v>
       </c>
       <c r="Y45" t="n">
-        <v>34.9225495198088</v>
+        <v>151.5080578520407</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>127.2279116266138</v>
+        <v>125.6573422566736</v>
       </c>
       <c r="C46" t="n">
-        <v>114.6427525433043</v>
+        <v>113.0721831733642</v>
       </c>
       <c r="D46" t="n">
-        <v>96.01140446288883</v>
+        <v>94.44083509294867</v>
       </c>
       <c r="E46" t="n">
-        <v>93.82989409124565</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>92.81697946760772</v>
+        <v>91.24641009766756</v>
       </c>
       <c r="G46" t="n">
-        <v>115.3869108031352</v>
+        <v>113.8163414331951</v>
       </c>
       <c r="H46" t="n">
-        <v>109.6231039521161</v>
+        <v>67.42512311797606</v>
       </c>
       <c r="I46" t="n">
-        <v>102.8464063719348</v>
+        <v>101.2758370019946</v>
       </c>
       <c r="J46" t="n">
-        <v>40.75511156134926</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>31.9874053264307</v>
       </c>
       <c r="R46" t="n">
-        <v>6.533245119673921</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>53.25645177947669</v>
+        <v>37.75926157488087</v>
       </c>
       <c r="T46" t="n">
-        <v>57.18544317078593</v>
+        <v>173.7709515030178</v>
       </c>
       <c r="U46" t="n">
-        <v>203.7043284752764</v>
+        <v>232.1443914312272</v>
       </c>
       <c r="V46" t="n">
-        <v>199.5335747685045</v>
+        <v>197.9630053985643</v>
       </c>
       <c r="W46" t="n">
-        <v>233.9189297812675</v>
+        <v>232.3483604113273</v>
       </c>
       <c r="X46" t="n">
-        <v>173.1055868337136</v>
+        <v>171.5350174637735</v>
       </c>
       <c r="Y46" t="n">
-        <v>165.9805847967713</v>
+        <v>164.4100154268311</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>388669.9748911755</v>
+        <v>392863.1213586744</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>417400.5066880676</v>
+        <v>392863.1213586745</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>528664.7669150596</v>
+        <v>528664.7669150595</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>528664.7669150595</v>
+        <v>548696.3804667903</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>464787.2667742484</v>
+        <v>467761.6908319651</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>404422.1140137254</v>
+        <v>406177.8156616596</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>396071.6919101251</v>
+        <v>406177.8156616596</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170385</v>
+        <v>819276.3387170383</v>
       </c>
       <c r="C2" t="n">
-        <v>819276.338717038</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="D2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170384</v>
       </c>
       <c r="E2" t="n">
         <v>240759.9041363482</v>
@@ -26328,34 +26328,34 @@
         <v>255276.2791422942</v>
       </c>
       <c r="G2" t="n">
-        <v>401335.7449993762</v>
+        <v>406428.4223518961</v>
       </c>
       <c r="H2" t="n">
-        <v>436229.6676758158</v>
+        <v>406428.4223518961</v>
       </c>
       <c r="I2" t="n">
-        <v>559848.3273116796</v>
+        <v>559848.3273116798</v>
       </c>
       <c r="J2" t="n">
-        <v>559848.3273116798</v>
+        <v>559848.32731168</v>
       </c>
       <c r="K2" t="n">
-        <v>559848.3273116798</v>
+        <v>559848.3273116795</v>
       </c>
       <c r="L2" t="n">
-        <v>586557.145380654</v>
+        <v>586557.1453806541</v>
       </c>
       <c r="M2" t="n">
-        <v>559848.3273116793</v>
+        <v>586557.1453806541</v>
       </c>
       <c r="N2" t="n">
-        <v>480041.4390697891</v>
+        <v>484007.3378134111</v>
       </c>
       <c r="O2" t="n">
-        <v>416495.991665345</v>
+        <v>419335.111800069</v>
       </c>
       <c r="P2" t="n">
-        <v>408775.5485799606</v>
+        <v>419335.111800069</v>
       </c>
     </row>
     <row r="3">
@@ -26377,16 +26377,16 @@
         <v>7992.559371635843</v>
       </c>
       <c r="F3" t="n">
-        <v>7340.879554832794</v>
+        <v>7340.879554832793</v>
       </c>
       <c r="G3" t="n">
-        <v>55656.37815215696</v>
+        <v>57565.12672571487</v>
       </c>
       <c r="H3" t="n">
-        <v>13008.60533526441</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>52861.67440387669</v>
+        <v>63917.56088787946</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>42083.25484425881</v>
+        <v>43339.71034021094</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>416292.069235527</v>
+        <v>416292.0692355271</v>
       </c>
       <c r="C4" t="n">
-        <v>416292.069235527</v>
+        <v>416292.0692355271</v>
       </c>
       <c r="D4" t="n">
-        <v>416292.069235527</v>
+        <v>416292.0692355271</v>
       </c>
       <c r="E4" t="n">
         <v>86093.93570177504</v>
       </c>
       <c r="F4" t="n">
-        <v>91034.44639259619</v>
+        <v>91034.4463925962</v>
       </c>
       <c r="G4" t="n">
-        <v>165472.5536689549</v>
+        <v>168122.554570925</v>
       </c>
       <c r="H4" t="n">
-        <v>183629.7861353075</v>
+        <v>168122.554570925</v>
       </c>
       <c r="I4" t="n">
         <v>241347.3738097103</v>
       </c>
       <c r="J4" t="n">
-        <v>241347.3738097102</v>
+        <v>241347.3738097103</v>
       </c>
       <c r="K4" t="n">
         <v>241347.3738097103</v>
@@ -26450,16 +26450,16 @@
         <v>256617.2320674328</v>
       </c>
       <c r="M4" t="n">
-        <v>241347.3738097103</v>
+        <v>256617.2320674328</v>
       </c>
       <c r="N4" t="n">
-        <v>198540.7074133177</v>
+        <v>200807.2198919611</v>
       </c>
       <c r="O4" t="n">
-        <v>171081.9494431062</v>
+        <v>172964.9734984228</v>
       </c>
       <c r="P4" t="n">
-        <v>168454.3697900872</v>
+        <v>172964.9734984229</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>2397.621796901122</v>
       </c>
       <c r="G5" t="n">
-        <v>10835.93927454899</v>
+        <v>11112.67298853617</v>
       </c>
       <c r="H5" t="n">
-        <v>12732.05877111467</v>
+        <v>11112.67298853617</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26502,16 +26502,16 @@
         <v>23073.83772314023</v>
       </c>
       <c r="M5" t="n">
-        <v>22169.15429094728</v>
+        <v>23073.83772314023</v>
       </c>
       <c r="N5" t="n">
-        <v>18358.23459077318</v>
+        <v>18490.27078713468</v>
       </c>
       <c r="O5" t="n">
-        <v>12597.69702804229</v>
+        <v>12585.03570677812</v>
       </c>
       <c r="P5" t="n">
-        <v>11606.26096366955</v>
+        <v>12585.03570677812</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369356.6694815115</v>
+        <v>369312.5337028301</v>
       </c>
       <c r="C6" t="n">
-        <v>369356.6694815111</v>
+        <v>369312.5337028302</v>
       </c>
       <c r="D6" t="n">
-        <v>369356.6694815113</v>
+        <v>369312.5337028302</v>
       </c>
       <c r="E6" t="n">
-        <v>145833.5009706698</v>
+        <v>131326.4543274714</v>
       </c>
       <c r="F6" t="n">
-        <v>154503.3313979641</v>
+        <v>140359.1941299143</v>
       </c>
       <c r="G6" t="n">
-        <v>169370.8739037154</v>
+        <v>159262.7343789104</v>
       </c>
       <c r="H6" t="n">
-        <v>226859.2174341292</v>
+        <v>216827.8611046253</v>
       </c>
       <c r="I6" t="n">
-        <v>243470.1248071454</v>
+        <v>225884.4022593277</v>
       </c>
       <c r="J6" t="n">
-        <v>288339.2398393865</v>
+        <v>281809.4037755714</v>
       </c>
       <c r="K6" t="n">
-        <v>296331.7992110223</v>
+        <v>289801.9631472068</v>
       </c>
       <c r="L6" t="n">
-        <v>264782.8207458222</v>
+        <v>257664.2496377794</v>
       </c>
       <c r="M6" t="n">
-        <v>296331.7992110217</v>
+        <v>301003.9599779903</v>
       </c>
       <c r="N6" t="n">
-        <v>263142.4970656982</v>
+        <v>256283.9863330436</v>
       </c>
       <c r="O6" t="n">
-        <v>232816.3451941965</v>
+        <v>223742.4361432627</v>
       </c>
       <c r="P6" t="n">
-        <v>228714.9178262039</v>
+        <v>223742.4361432627</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H2" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26718,16 +26718,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="M2" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N2" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="O2" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="P2" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="H4" t="n">
-        <v>122.858211175487</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>134.4625919188289</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="P4" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>41.84286725409546</v>
+        <v>43.41343662403563</v>
       </c>
       <c r="H2" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>26.80186508154676</v>
+        <v>35.99249701283465</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>80.93140576419937</v>
+        <v>83.31129914620054</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30651421665684</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368276</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>41.84286725409546</v>
+        <v>43.41343662403563</v>
       </c>
       <c r="M2" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>26.80186508154676</v>
+        <v>35.99249701283465</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>80.93140576419937</v>
+        <v>83.31129914620054</v>
       </c>
       <c r="P4" t="n">
-        <v>16.30651421665684</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y17" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y18" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="K19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="L19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="M19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="N19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="O19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="P19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Q19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="R19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y19" t="n">
-        <v>51.83356646864026</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y20" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y21" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="C22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="D22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="E22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="F22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="G22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="H22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="I22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="J22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="K22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="L22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="M22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="N22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="O22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="P22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Q22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="R22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="S22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="T22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="U22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="V22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="W22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="X22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
       <c r="Y22" t="n">
-        <v>62.59476776986832</v>
+        <v>53.40413583858043</v>
       </c>
     </row>
     <row r="23">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y35" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y36" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="C37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="D37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="E37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="F37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="G37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="H37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="I37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="J37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="K37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="L37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="M37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="N37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="O37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="P37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Q37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="R37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="T37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="U37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="V37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="W37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="X37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="Y37" t="n">
-        <v>89.39663285141508</v>
+        <v>100.1578341526431</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="C38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="D38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="E38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="F38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="G38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="H38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="I38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="S38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="T38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="U38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="V38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="W38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="X38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="Y38" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="C39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="D39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="E39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="F39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="G39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="H39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="I39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="S39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="T39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="U39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="V39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="W39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="X39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="Y39" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="C40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="D40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="E40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="F40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="G40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="H40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="I40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="J40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="K40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="L40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="M40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="N40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="O40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="P40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="Q40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="R40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="S40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="T40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="U40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="V40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="W40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="X40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.59476776986832</v>
+        <v>64.16533713980849</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y41" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y42" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="K43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="L43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="M43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="N43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="O43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="P43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Q43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="R43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y43" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y44" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y45" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="C46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="D46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="E46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="F46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="G46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="H46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="I46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="J46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="K46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="L46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="M46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="N46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="O46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="P46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Q46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="R46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="S46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="T46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="U46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="V46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="W46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="X46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
       <c r="Y46" t="n">
-        <v>52.60406855532351</v>
+        <v>54.17463792526368</v>
       </c>
     </row>
   </sheetData>
@@ -35649,22 +35649,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="L14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="M14" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
       <c r="N14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="P14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35728,16 +35728,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
         <v>24.58512791403969</v>
@@ -35746,7 +35746,7 @@
         <v>25.62029119463083</v>
       </c>
       <c r="Q15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35889,19 +35889,19 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>18.84063036185815</v>
       </c>
       <c r="N17" t="n">
-        <v>104.7427133224326</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>32.15106423995897</v>
+        <v>34.43480031359653</v>
       </c>
       <c r="L18" t="n">
-        <v>106.5516969588302</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="P18" t="n">
-        <v>106.5516969588302</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>29.56407464275741</v>
+        <v>31.13464401269758</v>
       </c>
       <c r="L19" t="n">
-        <v>79.42359172895641</v>
+        <v>80.99416109889657</v>
       </c>
       <c r="M19" t="n">
-        <v>91.41744343048086</v>
+        <v>92.98801280042102</v>
       </c>
       <c r="N19" t="n">
-        <v>95.96573884786886</v>
+        <v>97.53630821780902</v>
       </c>
       <c r="O19" t="n">
-        <v>76.41869438267994</v>
+        <v>77.9892637526201</v>
       </c>
       <c r="P19" t="n">
-        <v>49.11212573353375</v>
+        <v>50.68269510347392</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,19 +36123,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>27.32853063097142</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L20" t="n">
-        <v>122.858211175487</v>
+        <v>18.84063036185816</v>
       </c>
       <c r="M20" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>122.858211175487</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="P20" t="n">
         <v>90.5657124162131</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="N21" t="n">
-        <v>122.858211175487</v>
+        <v>104.5303139634241</v>
       </c>
       <c r="O21" t="n">
-        <v>122.858211175487</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>47.79872939735696</v>
+        <v>108.9315903408314</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>40.32527594398547</v>
+        <v>31.13464401269758</v>
       </c>
       <c r="L22" t="n">
-        <v>90.18479303018447</v>
+        <v>80.99416109889657</v>
       </c>
       <c r="M22" t="n">
-        <v>102.1786447317089</v>
+        <v>92.98801280042102</v>
       </c>
       <c r="N22" t="n">
-        <v>106.7269401490969</v>
+        <v>97.53630821780902</v>
       </c>
       <c r="O22" t="n">
-        <v>87.179895683908</v>
+        <v>77.9892637526201</v>
       </c>
       <c r="P22" t="n">
-        <v>59.87332703476181</v>
+        <v>50.68269510347392</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36445,19 +36445,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36606,7 +36606,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N26" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O26" t="n">
         <v>150.7019698410586</v>
@@ -36679,22 +36679,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,7 +36916,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
@@ -37162,13 +37162,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M35" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N35" t="n">
         <v>207.9338608153932</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>217.7067518141195</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
@@ -37399,10 +37399,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="K37" t="n">
-        <v>67.12714102553223</v>
+        <v>77.88834232676028</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9866581117312</v>
+        <v>127.7478594129593</v>
       </c>
       <c r="M37" t="n">
-        <v>128.9805098132557</v>
+        <v>139.7417111144837</v>
       </c>
       <c r="N37" t="n">
-        <v>133.5288052306437</v>
+        <v>144.2900065318717</v>
       </c>
       <c r="O37" t="n">
-        <v>113.9817607654548</v>
+        <v>124.7429620666828</v>
       </c>
       <c r="P37" t="n">
-        <v>86.67519211630857</v>
+        <v>97.43639341753662</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.234589599720692</v>
+        <v>13.99579090094875</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,7 +37545,7 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>6.382862610783645</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
         <v>181.8947995804632</v>
@@ -37557,7 +37557,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>150.7019698410586</v>
+        <v>53.02927092565796</v>
       </c>
       <c r="P38" t="n">
         <v>90.5657124162131</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>215.3939976830282</v>
       </c>
       <c r="M39" t="n">
-        <v>40.87753466722953</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>215.3939976830282</v>
+        <v>110.973048317057</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>40.32527594398547</v>
+        <v>41.89584531392563</v>
       </c>
       <c r="L40" t="n">
-        <v>90.18479303018447</v>
+        <v>91.75536240012462</v>
       </c>
       <c r="M40" t="n">
-        <v>102.1786447317089</v>
+        <v>103.7492141016491</v>
       </c>
       <c r="N40" t="n">
-        <v>106.7269401490969</v>
+        <v>108.2975095190371</v>
       </c>
       <c r="O40" t="n">
-        <v>87.179895683908</v>
+        <v>88.75046505384816</v>
       </c>
       <c r="P40" t="n">
-        <v>59.87332703476181</v>
+        <v>61.44389640470197</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>134.4625919188289</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="M41" t="n">
-        <v>68.87107789854015</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>64.20744844290145</v>
       </c>
       <c r="O41" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37864,19 +37864,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>56.6505101986435</v>
       </c>
       <c r="M42" t="n">
-        <v>58.93424627228097</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="N42" t="n">
-        <v>134.4625919188289</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="O42" t="n">
-        <v>134.4625919188289</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="P42" t="n">
-        <v>134.4625919188289</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>30.33457672944066</v>
+        <v>31.90514609938083</v>
       </c>
       <c r="L43" t="n">
-        <v>80.19409381563966</v>
+        <v>81.76466318557982</v>
       </c>
       <c r="M43" t="n">
-        <v>92.18794551716411</v>
+        <v>93.75851488710427</v>
       </c>
       <c r="N43" t="n">
-        <v>96.73624093455211</v>
+        <v>98.30681030449227</v>
       </c>
       <c r="O43" t="n">
-        <v>77.1891964693632</v>
+        <v>78.75976583930336</v>
       </c>
       <c r="P43" t="n">
-        <v>49.882627820217</v>
+        <v>51.45319719015717</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>22.8163823484974</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="N44" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>22.69046232228685</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>118.156077702172</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>118.156077702172</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>132.0826985368277</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>62.10941069725163</v>
       </c>
       <c r="O45" t="n">
-        <v>118.156077702172</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>43.28658111488296</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>30.33457672944066</v>
+        <v>31.90514609938083</v>
       </c>
       <c r="L46" t="n">
-        <v>80.19409381563966</v>
+        <v>81.76466318557982</v>
       </c>
       <c r="M46" t="n">
-        <v>92.18794551716411</v>
+        <v>93.75851488710427</v>
       </c>
       <c r="N46" t="n">
-        <v>96.73624093455211</v>
+        <v>98.30681030449227</v>
       </c>
       <c r="O46" t="n">
-        <v>77.1891964693632</v>
+        <v>78.75976583930336</v>
       </c>
       <c r="P46" t="n">
-        <v>49.882627820217</v>
+        <v>51.45319719015717</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
+++ b/Outputs/1. Budget/Output Files/100000/Output_13_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2206600.444796007</v>
+        <v>2255819.829801857</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10933919.17430201</v>
+        <v>10964501.70973235</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5715834.557556399</v>
+        <v>5712161.596128117</v>
       </c>
     </row>
     <row r="11">
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="S14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1691,11 +1691,11 @@
         <v>0</v>
       </c>
       <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="E15" t="n">
-        <v>22.56635248423083</v>
-      </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>25.62029119463083</v>
@@ -1745,10 +1745,10 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1767,16 +1767,16 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
         <v>25.62029119463083</v>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>22.56635248423083</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>22.56635248423083</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1833,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1861,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>94.62261240487962</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>108.9315903408314</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="V17" t="n">
-        <v>95.94694477220419</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1925,25 +1925,25 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>94.04092972605832</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>104.2409446168205</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>92.65732244695089</v>
       </c>
       <c r="G18" t="n">
-        <v>83.9393813246302</v>
+        <v>84.93162721677764</v>
       </c>
       <c r="H18" t="n">
-        <v>31.58886978635796</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>24.4616968066366</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1979,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -1991,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>107.4280340654855</v>
       </c>
     </row>
     <row r="19">
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>94.02207270013618</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>63.18903735909031</v>
+        <v>37.72057937938809</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>103.0385849808253</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>40.94729017023978</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,19 +2046,19 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>32.75790741311395</v>
+        <v>33.75015330526139</v>
       </c>
       <c r="R19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,13 +2092,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>108.9315903408314</v>
+        <v>13.03807711470545</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>95.9469447722042</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>90.65857395874633</v>
       </c>
       <c r="S20" t="n">
-        <v>108.9315903408314</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="U20" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2168,16 +2168,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>104.2409446168205</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>83.9393813246302</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>53.02490025409311</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>46.7536983140627</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -2216,19 +2216,19 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>50.67175081935875</v>
       </c>
       <c r="Y21" t="n">
-        <v>78.87610119835361</v>
+        <v>117.7300761506039</v>
       </c>
     </row>
     <row r="22">
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>108.0362771162245</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,16 +2253,16 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>108.7804353760554</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.23993094485493</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>34.14863613426942</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2283,28 +2283,28 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>26.95149926929103</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>82.73010068456819</v>
       </c>
       <c r="S22" t="n">
-        <v>95.9469447722042</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>111.2547326401147</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>151.8129005537074</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2402,7 +2402,7 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -2447,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>41.92193351281651</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
         <v>136.5447492295597</v>
@@ -2465,7 +2465,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.2860629258893</v>
+        <v>23.20179505610026</v>
       </c>
     </row>
     <row r="25">
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>77.85018824721276</v>
@@ -2484,19 +2484,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2529736923529484</v>
+        <v>77.46647035625041</v>
       </c>
       <c r="H25" t="n">
         <v>72.8305396560245</v>
       </c>
       <c r="I25" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2541,7 +2541,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -2557,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -2566,14 +2566,14 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>15.43902045750439</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
         <v>55.6725795419688</v>
@@ -2651,7 +2651,7 @@
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,19 +2681,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>82.28653825242274</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>143.4039542980102</v>
+        <v>122.9460078632873</v>
       </c>
       <c r="W27" t="n">
         <v>162.2983503095045</v>
@@ -2702,7 +2702,7 @@
         <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
-        <v>116.2860629258893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>2.430383674121337</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
@@ -2733,7 +2733,7 @@
         <v>72.8305396560245</v>
       </c>
       <c r="I28" t="n">
-        <v>66.05384207584321</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>122.629785315361</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2778,7 +2778,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,22 +2797,22 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>50.33636558702055</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0</v>
-      </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>52.99502884595981</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2873,22 +2873,22 @@
         <v>77.13655079845226</v>
       </c>
       <c r="C30" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2924,19 +2924,19 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>4.797424155021133</v>
       </c>
       <c r="W30" t="n">
         <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
-        <v>40.68858538426569</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y30" t="n">
         <v>116.2860629258893</v>
@@ -2961,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>72.8305396560245</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>16.11293812896577</v>
       </c>
       <c r="W31" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>80.7796425323954</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -3034,22 +3034,22 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>186.9053253622065</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>234.1193836697362</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>239.316967963124</v>
       </c>
       <c r="I32" t="n">
-        <v>110.3180554177628</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>49.71128378850655</v>
       </c>
       <c r="S32" t="n">
         <v>108.8622354336022</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>122.9380154114882</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>227.5944243174918</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3110,19 +3110,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>72.55066483567261</v>
+        <v>49.26827074890636</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>47.28723141199562</v>
       </c>
       <c r="E33" t="n">
         <v>57.48724630275781</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>44.91137824074075</v>
       </c>
       <c r="G33" t="n">
-        <v>0.5770369518763891</v>
+        <v>37.1856830105675</v>
       </c>
       <c r="H33" t="n">
         <v>12.07761008385333</v>
@@ -3176,7 +3176,7 @@
         <v>105.6151510508343</v>
       </c>
       <c r="Y33" t="n">
-        <v>105.5248616246612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>67.0889869459847</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.26321387028811</v>
       </c>
       <c r="G34" t="n">
-        <v>19.92915919932738</v>
+        <v>67.83314520581563</v>
       </c>
       <c r="H34" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>55.29264077461515</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>77.13555722452635</v>
       </c>
       <c r="S34" t="n">
         <v>123.8587638843291</v>
@@ -3243,10 +3243,10 @@
         <v>127.7877552756384</v>
       </c>
       <c r="U34" t="n">
-        <v>186.1611952038477</v>
+        <v>153.8020864018525</v>
       </c>
       <c r="V34" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3265,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3280,7 +3280,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,19 +3313,19 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>56.50993782447691</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>115.6608894695726</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>157.9864727911637</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>234.3930783534621</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>129.7635849600847</v>
       </c>
     </row>
     <row r="36">
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.37534949722421</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>79.34931887164296</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>40.90193095406144</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>64.28590033872817</v>
       </c>
       <c r="F36" t="n">
-        <v>27.05391558251511</v>
+        <v>51.7100322767111</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>43.98433704653786</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>125.7835479283317</v>
+        <v>132.582201964302</v>
       </c>
       <c r="V36" t="n">
-        <v>132.6427529967821</v>
+        <v>139.4414070327525</v>
       </c>
       <c r="W36" t="n">
-        <v>151.5371490082765</v>
+        <v>158.3358030442468</v>
       </c>
       <c r="X36" t="n">
-        <v>105.6151510508343</v>
+        <v>112.4138050868047</v>
       </c>
       <c r="Y36" t="n">
-        <v>105.5248616246612</v>
+        <v>112.3235156606316</v>
       </c>
     </row>
     <row r="37">
@@ -3426,25 +3426,25 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>28.84473393311934</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>55.25629290153958</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>74.63179924178598</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>68.8679923907668</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.09129481058551</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>83.93421126049671</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>158.7784632071552</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>87.5490517108416</v>
+        <v>132.3504752723644</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,19 +3502,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>215.3939976830282</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>39.86870351654907</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3523,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>146.3105524305974</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>43.40848072861374</v>
+        <v>86.69602669348863</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>145.8469783385843</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>159.9227583164703</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>188.1725616601755</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3581,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>25.62415258631141</v>
+        <v>103.3600924022063</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>109.5354077406547</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>18.12674144463006</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>94.4719892077399</v>
       </c>
       <c r="F39" t="n">
-        <v>80.90387525357539</v>
+        <v>81.89612114572283</v>
       </c>
       <c r="G39" t="n">
-        <v>73.17818002340215</v>
+        <v>74.17042591554959</v>
       </c>
       <c r="H39" t="n">
-        <v>48.07010709668798</v>
+        <v>49.06235298883541</v>
       </c>
       <c r="I39" t="n">
-        <v>25.23129571160659</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,16 +3629,16 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.99249701283465</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>107.5178339640293</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>135.9993915550131</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>161.7760449411663</v>
+        <v>162.7682908333138</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -3647,10 +3647,10 @@
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>141.607648063669</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>142.5096045296433</v>
       </c>
     </row>
     <row r="40">
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>115.6666430421288</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>18.53085374898605</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>83.26087139890812</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>82.2479567752702</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>104.8178881107977</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>99.05408125977853</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>92.27738367959724</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>215.3939976830282</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0.5440792292568198</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>154.4193162122863</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3754,13 +3754,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>117.6627732385624</v>
       </c>
       <c r="H41" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.64396085535179</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,7 +3787,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>95.694480015886</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -3796,10 +3796,10 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="V41" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,22 +3824,22 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>93.27042763937507</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>103.4704425301373</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>90.8945744681202</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>83.16887923794695</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>58.06080631123278</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.2219949261514</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3869,22 +3869,22 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>48.49941136875724</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>117.6627732385624</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3900,19 +3900,19 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>114.0644290655116</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>95.43308098509611</v>
       </c>
       <c r="E43" t="n">
-        <v>92.25932472130549</v>
+        <v>93.25157061345293</v>
       </c>
       <c r="F43" t="n">
-        <v>57.12696034788895</v>
+        <v>92.238655989815</v>
       </c>
       <c r="G43" t="n">
-        <v>113.8163414331951</v>
+        <v>26.44999251841008</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>31.9874053264307</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3960,7 +3960,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="C44" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3994,10 +3994,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>116.3384408712378</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>108.5887345699901</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4058,25 +4058,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>119.5261069551995</v>
       </c>
       <c r="D45" t="n">
-        <v>93.27042763937507</v>
+        <v>94.26267353152251</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>104.4626884222847</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>91.88682036026763</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>59.05305220338022</v>
       </c>
       <c r="I45" t="n">
-        <v>35.2219949261514</v>
+        <v>9.250031278501142</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4115,13 +4115,13 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>119.928716842539</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4134,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>65.82452324385204</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>92.25932472130549</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>40.62741146419985</v>
+        <v>109.0447804743233</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>39.18454219140909</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>123.1187534519058</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="C14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="D14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="E14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="F14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="G14" t="n">
-        <v>2.049623295570466</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="H14" t="n">
         <v>2.049623295570466</v>
@@ -5287,10 +5287,10 @@
         <v>52.77779986093951</v>
       </c>
       <c r="M14" t="n">
-        <v>77.1170764958388</v>
+        <v>78.14188814362403</v>
       </c>
       <c r="N14" t="n">
-        <v>77.1170764958388</v>
+        <v>102.4811647785233</v>
       </c>
       <c r="O14" t="n">
         <v>102.4811647785233</v>
@@ -5305,25 +5305,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S14" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="T14" t="n">
-        <v>24.84391873418747</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U14" t="n">
-        <v>24.84391873418747</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V14" t="n">
-        <v>24.84391873418747</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="W14" t="n">
-        <v>24.84391873418747</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="X14" t="n">
-        <v>24.84391873418747</v>
+        <v>53.80778732512771</v>
       </c>
       <c r="Y14" t="n">
-        <v>2.049623295570466</v>
+        <v>53.80778732512771</v>
       </c>
     </row>
     <row r="15">
@@ -5333,13 +5333,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="C15" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="D15" t="n">
-        <v>24.84391873418747</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="E15" t="n">
         <v>2.049623295570466</v>
@@ -5363,13 +5363,13 @@
         <v>2.049623295570466</v>
       </c>
       <c r="L15" t="n">
-        <v>27.41371157825499</v>
+        <v>2.049623295570466</v>
       </c>
       <c r="M15" t="n">
-        <v>27.41371157825499</v>
+        <v>26.38889993046976</v>
       </c>
       <c r="N15" t="n">
-        <v>52.77779986093951</v>
+        <v>51.75298821315428</v>
       </c>
       <c r="O15" t="n">
         <v>77.1170764958388</v>
@@ -5381,28 +5381,28 @@
         <v>102.4811647785233</v>
       </c>
       <c r="R15" t="n">
+        <v>102.4811647785233</v>
+      </c>
+      <c r="S15" t="n">
         <v>76.6020827637447</v>
       </c>
-      <c r="S15" t="n">
-        <v>50.72300074896609</v>
-      </c>
       <c r="T15" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="U15" t="n">
-        <v>50.72300074896609</v>
+        <v>76.6020827637447</v>
       </c>
       <c r="V15" t="n">
         <v>50.72300074896609</v>
       </c>
       <c r="W15" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="X15" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
       <c r="Y15" t="n">
-        <v>50.72300074896609</v>
+        <v>27.92870531034908</v>
       </c>
     </row>
     <row r="16">
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="C16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="D16" t="n">
-        <v>2.049623295570466</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="E16" t="n">
-        <v>2.049623295570466</v>
+        <v>24.84391873418747</v>
       </c>
       <c r="F16" t="n">
         <v>2.049623295570466</v>
@@ -5463,25 +5463,25 @@
         <v>76.6020827637447</v>
       </c>
       <c r="S16" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="T16" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="U16" t="n">
-        <v>76.6020827637447</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="V16" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="W16" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="X16" t="n">
-        <v>53.80778732512771</v>
+        <v>50.72300074896609</v>
       </c>
       <c r="Y16" t="n">
-        <v>27.92870531034908</v>
+        <v>50.72300074896609</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="C17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="D17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="E17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="F17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="G17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="H17" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="I17" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="J17" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="K17" t="n">
-        <v>111.7295331381889</v>
+        <v>111.6092486361612</v>
       </c>
       <c r="L17" t="n">
-        <v>219.5718075756119</v>
+        <v>217.9630023609919</v>
       </c>
       <c r="M17" t="n">
-        <v>238.2240316338515</v>
+        <v>324.3167560858226</v>
       </c>
       <c r="N17" t="n">
-        <v>238.2240316338515</v>
+        <v>340.0520809698912</v>
       </c>
       <c r="O17" t="n">
-        <v>346.0663060712745</v>
+        <v>340.0520809698912</v>
       </c>
       <c r="P17" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="Q17" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="R17" t="n">
-        <v>435.7263613633255</v>
+        <v>334.1337398933769</v>
       </c>
       <c r="S17" t="n">
-        <v>435.7263613633255</v>
+        <v>334.1337398933769</v>
       </c>
       <c r="T17" t="n">
-        <v>325.6944519281423</v>
+        <v>334.1337398933769</v>
       </c>
       <c r="U17" t="n">
-        <v>215.662542492959</v>
+        <v>225.6205741706642</v>
       </c>
       <c r="V17" t="n">
-        <v>118.7464366624497</v>
+        <v>117.1074084479515</v>
       </c>
       <c r="W17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="X17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="Y17" t="n">
-        <v>118.7464366624497</v>
+        <v>8.594242725238843</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>435.7263613633255</v>
+        <v>212.6858048165168</v>
       </c>
       <c r="C18" t="n">
-        <v>325.6944519281423</v>
+        <v>212.6858048165168</v>
       </c>
       <c r="D18" t="n">
-        <v>230.7036138210127</v>
+        <v>212.6858048165168</v>
       </c>
       <c r="E18" t="n">
-        <v>125.4097303696788</v>
+        <v>212.6858048165168</v>
       </c>
       <c r="F18" t="n">
-        <v>125.4097303696788</v>
+        <v>119.0925498195967</v>
       </c>
       <c r="G18" t="n">
-        <v>40.62247650641596</v>
+        <v>33.30302737840712</v>
       </c>
       <c r="H18" t="n">
-        <v>8.71452722726651</v>
+        <v>33.30302737840712</v>
       </c>
       <c r="I18" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="J18" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="K18" t="n">
-        <v>42.80497953772708</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="L18" t="n">
-        <v>42.80497953772708</v>
+        <v>110.6508750874501</v>
       </c>
       <c r="M18" t="n">
-        <v>42.80497953772708</v>
+        <v>217.0046288122807</v>
       </c>
       <c r="N18" t="n">
-        <v>150.6472539751501</v>
+        <v>323.3583825371114</v>
       </c>
       <c r="O18" t="n">
-        <v>258.4895284125732</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="P18" t="n">
-        <v>366.3318028499962</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="Q18" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="R18" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="S18" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="T18" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="U18" t="n">
-        <v>435.7263613633255</v>
+        <v>321.1989705392294</v>
       </c>
       <c r="V18" t="n">
-        <v>435.7263613633255</v>
+        <v>321.1989705392294</v>
       </c>
       <c r="W18" t="n">
-        <v>435.7263613633255</v>
+        <v>321.1989705392294</v>
       </c>
       <c r="X18" t="n">
-        <v>435.7263613633255</v>
+        <v>321.1989705392294</v>
       </c>
       <c r="Y18" t="n">
-        <v>435.7263613633255</v>
+        <v>212.6858048165168</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="C19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="D19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="E19" t="n">
-        <v>72.5418376909941</v>
+        <v>300.6492817110355</v>
       </c>
       <c r="F19" t="n">
-        <v>72.5418376909941</v>
+        <v>300.6492817110355</v>
       </c>
       <c r="G19" t="n">
-        <v>8.71452722726651</v>
+        <v>262.5476863783202</v>
       </c>
       <c r="H19" t="n">
-        <v>8.71452722726651</v>
+        <v>154.0345206556076</v>
       </c>
       <c r="I19" t="n">
-        <v>8.71452722726651</v>
+        <v>49.95514188709721</v>
       </c>
       <c r="J19" t="n">
-        <v>8.71452722726651</v>
+        <v>8.594242725238843</v>
       </c>
       <c r="K19" t="n">
-        <v>39.5378247998371</v>
+        <v>38.43521686458342</v>
       </c>
       <c r="L19" t="n">
-        <v>119.7220442877447</v>
+        <v>117.6371129192651</v>
       </c>
       <c r="M19" t="n">
-        <v>211.7801769601615</v>
+        <v>208.7129221584559</v>
       </c>
       <c r="N19" t="n">
-        <v>308.3411220957925</v>
+        <v>304.2915438608609</v>
       </c>
       <c r="O19" t="n">
-        <v>385.5504932108863</v>
+        <v>380.5185915427289</v>
       </c>
       <c r="P19" t="n">
-        <v>435.7263613633255</v>
+        <v>429.7121362619421</v>
       </c>
       <c r="Q19" t="n">
-        <v>402.6375659965437</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="R19" t="n">
-        <v>292.6056565613605</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="S19" t="n">
-        <v>182.5737471261773</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="T19" t="n">
-        <v>182.5737471261773</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="U19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="V19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="W19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="X19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.5418376909941</v>
+        <v>395.6210723172337</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="C20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="D20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="E20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="F20" t="n">
-        <v>105.6306330577758</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="G20" t="n">
-        <v>105.6306330577758</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="H20" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="I20" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="J20" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="K20" t="n">
-        <v>111.7295331381889</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="L20" t="n">
-        <v>130.3817571964285</v>
+        <v>125.9711814811461</v>
       </c>
       <c r="M20" t="n">
-        <v>130.3817571964285</v>
+        <v>242.5239568702439</v>
       </c>
       <c r="N20" t="n">
-        <v>238.2240316338515</v>
+        <v>354.3675292133177</v>
       </c>
       <c r="O20" t="n">
-        <v>346.0663060712746</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="P20" t="n">
-        <v>435.7263613633256</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="Q20" t="n">
-        <v>435.7263613633256</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="R20" t="n">
-        <v>435.7263613633256</v>
+        <v>379.3459874723686</v>
       </c>
       <c r="S20" t="n">
-        <v>325.6944519281423</v>
+        <v>260.4267186333748</v>
       </c>
       <c r="T20" t="n">
-        <v>325.6944519281423</v>
+        <v>141.507449794381</v>
       </c>
       <c r="U20" t="n">
-        <v>215.6625424929591</v>
+        <v>141.507449794381</v>
       </c>
       <c r="V20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="W20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="X20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
       <c r="Y20" t="n">
-        <v>215.6625424929591</v>
+        <v>22.58818095538714</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198.7956645418632</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="C21" t="n">
-        <v>198.7956645418632</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="D21" t="n">
-        <v>198.7956645418632</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="E21" t="n">
-        <v>93.50178109052935</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="F21" t="n">
-        <v>93.50178109052935</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="G21" t="n">
-        <v>8.714527227266512</v>
+        <v>62.97891139921307</v>
       </c>
       <c r="H21" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="I21" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="J21" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="K21" t="n">
-        <v>8.714527227266512</v>
+        <v>125.9711814811461</v>
       </c>
       <c r="L21" t="n">
-        <v>116.5568016646896</v>
+        <v>242.5239568702439</v>
       </c>
       <c r="M21" t="n">
-        <v>224.3990761021126</v>
+        <v>359.0767322593418</v>
       </c>
       <c r="N21" t="n">
-        <v>327.8840869259025</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="O21" t="n">
-        <v>327.8840869259025</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="P21" t="n">
-        <v>435.7263613633256</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="Q21" t="n">
-        <v>435.7263613633256</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="R21" t="n">
-        <v>388.5004034703329</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="S21" t="n">
-        <v>388.5004034703329</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="T21" t="n">
-        <v>388.5004034703329</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="U21" t="n">
-        <v>388.5004034703329</v>
+        <v>352.0010357634217</v>
       </c>
       <c r="V21" t="n">
-        <v>388.5004034703329</v>
+        <v>352.0010357634217</v>
       </c>
       <c r="W21" t="n">
-        <v>388.5004034703329</v>
+        <v>233.0817669244279</v>
       </c>
       <c r="X21" t="n">
-        <v>388.5004034703329</v>
+        <v>181.8981802382069</v>
       </c>
       <c r="Y21" t="n">
-        <v>308.8275739770464</v>
+        <v>62.97891139921307</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.714527227266512</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="C22" t="n">
-        <v>8.714527227266512</v>
+        <v>251.0032570568764</v>
       </c>
       <c r="D22" t="n">
-        <v>8.714527227266512</v>
+        <v>251.0032570568764</v>
       </c>
       <c r="E22" t="n">
-        <v>8.714527227266512</v>
+        <v>251.0032570568764</v>
       </c>
       <c r="F22" t="n">
-        <v>8.714527227266512</v>
+        <v>251.0032570568764</v>
       </c>
       <c r="G22" t="n">
-        <v>8.714527227266512</v>
+        <v>141.1240294042951</v>
       </c>
       <c r="H22" t="n">
-        <v>8.714527227266512</v>
+        <v>141.1240294042951</v>
       </c>
       <c r="I22" t="n">
-        <v>8.714527227266512</v>
+        <v>43.91197794484571</v>
       </c>
       <c r="J22" t="n">
-        <v>8.714527227266512</v>
+        <v>9.418406092048309</v>
       </c>
       <c r="K22" t="n">
-        <v>39.5378247998371</v>
+        <v>45.99004772700361</v>
       </c>
       <c r="L22" t="n">
-        <v>119.7220442877447</v>
+        <v>131.9226112772959</v>
       </c>
       <c r="M22" t="n">
-        <v>211.7801769601616</v>
+        <v>229.7290880120973</v>
       </c>
       <c r="N22" t="n">
-        <v>308.3411220957925</v>
+        <v>332.038377210113</v>
       </c>
       <c r="O22" t="n">
-        <v>385.5504932108864</v>
+        <v>414.9960923875916</v>
       </c>
       <c r="P22" t="n">
-        <v>435.7263613633256</v>
+        <v>470.9203046024155</v>
       </c>
       <c r="Q22" t="n">
-        <v>435.7263613633256</v>
+        <v>443.6965679667679</v>
       </c>
       <c r="R22" t="n">
-        <v>435.7263613633256</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="S22" t="n">
-        <v>338.8102555328163</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="T22" t="n">
-        <v>338.8102555328163</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="U22" t="n">
-        <v>228.778346097633</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="V22" t="n">
-        <v>228.778346097633</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="W22" t="n">
-        <v>118.7464366624498</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="X22" t="n">
-        <v>8.714527227266512</v>
+        <v>360.1308096995273</v>
       </c>
       <c r="Y22" t="n">
-        <v>8.714527227266512</v>
+        <v>360.1308096995273</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>416.0762839499768</v>
+        <v>375.1084375726105</v>
       </c>
       <c r="C23" t="n">
-        <v>416.0762839499768</v>
+        <v>131.6596609285104</v>
       </c>
       <c r="D23" t="n">
-        <v>416.0762839499768</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E23" t="n">
-        <v>416.0762839499768</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6016,25 +6016,25 @@
         <v>902.973837238177</v>
       </c>
       <c r="S23" t="n">
-        <v>902.973837238177</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="T23" t="n">
-        <v>902.973837238177</v>
+        <v>782.1420829605706</v>
       </c>
       <c r="U23" t="n">
-        <v>902.973837238177</v>
+        <v>618.5572142167106</v>
       </c>
       <c r="V23" t="n">
-        <v>902.973837238177</v>
+        <v>618.5572142167106</v>
       </c>
       <c r="W23" t="n">
-        <v>902.973837238177</v>
+        <v>618.5572142167106</v>
       </c>
       <c r="X23" t="n">
-        <v>902.973837238177</v>
+        <v>375.1084375726105</v>
       </c>
       <c r="Y23" t="n">
-        <v>659.5250605940769</v>
+        <v>375.1084375726105</v>
       </c>
     </row>
     <row r="24">
@@ -6044,10 +6044,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>162.069323766904</v>
+        <v>103.4345432484962</v>
       </c>
       <c r="C24" t="n">
-        <v>77.91592362862048</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
         <v>19.28114311021272</v>
@@ -6071,16 +6071,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>613.2059550252818</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>613.2059550252818</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
         <v>712.019119383956</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>880.9394401041486</v>
       </c>
       <c r="T24" t="n">
-        <v>921.7117681239529</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U24" t="n">
-        <v>783.7877790031855</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V24" t="n">
-        <v>638.9352999142864</v>
+        <v>486.2760063960916</v>
       </c>
       <c r="W24" t="n">
-        <v>474.9975723289282</v>
+        <v>322.3382788107335</v>
       </c>
       <c r="X24" t="n">
-        <v>357.4457012662389</v>
+        <v>204.7864077480442</v>
       </c>
       <c r="Y24" t="n">
-        <v>239.9850316441285</v>
+        <v>181.3502511257207</v>
       </c>
     </row>
     <row r="25">
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>352.6642629466811</v>
+        <v>306.3231768789035</v>
       </c>
       <c r="C25" t="n">
-        <v>274.0277091616177</v>
+        <v>227.6866230938401</v>
       </c>
       <c r="D25" t="n">
-        <v>274.0277091616177</v>
+        <v>227.6866230938401</v>
       </c>
       <c r="E25" t="n">
-        <v>216.4142447220681</v>
+        <v>227.6866230938401</v>
       </c>
       <c r="F25" t="n">
-        <v>159.8239263670013</v>
+        <v>171.0963047387733</v>
       </c>
       <c r="G25" t="n">
-        <v>159.5683973848266</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="H25" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I25" t="n">
         <v>19.28114311021272</v>
@@ -6189,10 +6189,10 @@
         <v>574.5060486347639</v>
       </c>
       <c r="X25" t="n">
-        <v>574.5060486347639</v>
+        <v>436.8161268795901</v>
       </c>
       <c r="Y25" t="n">
-        <v>444.0130986340773</v>
+        <v>306.3231768789035</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F26" t="n">
         <v>262.7299197543128</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6262,16 +6262,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W26" t="n">
-        <v>720.6083788665362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="27">
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>266.7354488717165</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="C27" t="n">
-        <v>182.582048733433</v>
+        <v>274.5893810456221</v>
       </c>
       <c r="D27" t="n">
-        <v>123.9472682150252</v>
+        <v>215.9546005272144</v>
       </c>
       <c r="E27" t="n">
-        <v>123.9472682150252</v>
+        <v>147.0167746646024</v>
       </c>
       <c r="F27" t="n">
-        <v>67.7123393847537</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6308,49 +6308,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>304.2053859195205</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>542.809531908403</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
-        <v>781.4136778972854</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>953.1872552063654</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>870.0695397998778</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>758.1825743014874</v>
       </c>
       <c r="U27" t="n">
-        <v>826.1331663898688</v>
+        <v>758.1825743014874</v>
       </c>
       <c r="V27" t="n">
-        <v>681.2806873009697</v>
+        <v>633.9946875708941</v>
       </c>
       <c r="W27" t="n">
-        <v>517.3429597156115</v>
+        <v>470.056959985536</v>
       </c>
       <c r="X27" t="n">
-        <v>399.7910886529222</v>
+        <v>352.5050889228467</v>
       </c>
       <c r="Y27" t="n">
-        <v>282.3304190308118</v>
+        <v>352.5050889228467</v>
       </c>
     </row>
     <row r="28">
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>434.251895763663</v>
+        <v>310.689137632514</v>
       </c>
       <c r="C28" t="n">
-        <v>355.6153419785996</v>
+        <v>232.0525838474506</v>
       </c>
       <c r="D28" t="n">
-        <v>353.1604089744367</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="E28" t="n">
-        <v>295.5469445348871</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="F28" t="n">
-        <v>238.9566261798202</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="G28" t="n">
-        <v>159.5683973848266</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="H28" t="n">
-        <v>86.00219571207455</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I28" t="n">
         <v>19.28114311021272</v>
@@ -6408,28 +6408,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R28" t="n">
-        <v>663.2906532062331</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="S28" t="n">
-        <v>663.2906532062331</v>
+        <v>450.6375786192477</v>
       </c>
       <c r="T28" t="n">
-        <v>663.2906532062331</v>
+        <v>310.689137632514</v>
       </c>
       <c r="U28" t="n">
-        <v>663.2906532062331</v>
+        <v>310.689137632514</v>
       </c>
       <c r="V28" t="n">
-        <v>663.2906532062331</v>
+        <v>310.689137632514</v>
       </c>
       <c r="W28" t="n">
-        <v>663.2906532062331</v>
+        <v>310.689137632514</v>
       </c>
       <c r="X28" t="n">
-        <v>525.6007314510592</v>
+        <v>310.689137632514</v>
       </c>
       <c r="Y28" t="n">
-        <v>525.6007314510592</v>
+        <v>310.689137632514</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>313.574733478576</v>
+        <v>559.709028566049</v>
       </c>
       <c r="C29" t="n">
-        <v>313.574733478576</v>
+        <v>559.709028566049</v>
       </c>
       <c r="D29" t="n">
-        <v>262.7299197543128</v>
+        <v>559.709028566049</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.709028566049</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>559.709028566049</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>316.260251921949</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>72.8114752778489</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6499,16 +6499,16 @@
         <v>800.4722867667762</v>
       </c>
       <c r="V29" t="n">
-        <v>800.4722867667762</v>
+        <v>559.709028566049</v>
       </c>
       <c r="W29" t="n">
-        <v>557.023510122676</v>
+        <v>559.709028566049</v>
       </c>
       <c r="X29" t="n">
-        <v>557.023510122676</v>
+        <v>559.709028566049</v>
       </c>
       <c r="Y29" t="n">
-        <v>313.574733478576</v>
+        <v>559.709028566049</v>
       </c>
     </row>
     <row r="30">
@@ -6518,22 +6518,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>335.6732747343285</v>
+        <v>149.4166263527386</v>
       </c>
       <c r="C30" t="n">
-        <v>251.519874596045</v>
+        <v>149.4166263527386</v>
       </c>
       <c r="D30" t="n">
-        <v>192.8850940776372</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="E30" t="n">
-        <v>123.9472682150252</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="F30" t="n">
-        <v>67.7123393847537</v>
+        <v>90.78184583433085</v>
       </c>
       <c r="G30" t="n">
-        <v>19.28114311021272</v>
+        <v>42.35064955978989</v>
       </c>
       <c r="H30" t="n">
         <v>19.28114311021272</v>
@@ -6545,22 +6545,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K30" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N30" t="n">
-        <v>496.4894350879777</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O30" t="n">
-        <v>735.0935810768601</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
-        <v>917.7370586902109</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q30" t="n">
         <v>964.0571555106362</v>
@@ -6572,22 +6572,22 @@
         <v>880.9394401041486</v>
       </c>
       <c r="T30" t="n">
-        <v>880.9394401041486</v>
+        <v>769.0524746057582</v>
       </c>
       <c r="U30" t="n">
-        <v>880.9394401041486</v>
+        <v>631.1284854849908</v>
       </c>
       <c r="V30" t="n">
-        <v>736.0869610152495</v>
+        <v>626.282602500121</v>
       </c>
       <c r="W30" t="n">
-        <v>572.1492334298913</v>
+        <v>462.3448749147628</v>
       </c>
       <c r="X30" t="n">
-        <v>531.0496522336633</v>
+        <v>344.7930038520735</v>
       </c>
       <c r="Y30" t="n">
-        <v>413.588982611553</v>
+        <v>227.3323342299631</v>
       </c>
     </row>
     <row r="31">
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8258919330252</v>
       </c>
       <c r="C31" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8258919330252</v>
       </c>
       <c r="D31" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8258919330252</v>
       </c>
       <c r="E31" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8258919330252</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>172.2355735779584</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>92.84734478296475</v>
       </c>
       <c r="H31" t="n">
         <v>19.28114311021272</v>
@@ -6645,28 +6645,28 @@
         <v>663.2906532062331</v>
       </c>
       <c r="R31" t="n">
-        <v>663.2906532062331</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="S31" t="n">
-        <v>663.2906532062331</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="T31" t="n">
-        <v>663.2906532062331</v>
+        <v>574.5060486347639</v>
       </c>
       <c r="U31" t="n">
-        <v>464.3791415849444</v>
+        <v>375.5945370134752</v>
       </c>
       <c r="V31" t="n">
-        <v>299.994282521901</v>
+        <v>359.3188419337118</v>
       </c>
       <c r="W31" t="n">
-        <v>100.8767416277838</v>
+        <v>359.3188419337118</v>
       </c>
       <c r="X31" t="n">
-        <v>19.28114311021272</v>
+        <v>359.3188419337118</v>
       </c>
       <c r="Y31" t="n">
-        <v>19.28114311021272</v>
+        <v>228.8258919330252</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>610.6465248932006</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="C32" t="n">
-        <v>610.6465248932006</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="D32" t="n">
-        <v>367.1977482491006</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="E32" t="n">
-        <v>367.1977482491006</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="F32" t="n">
-        <v>367.1977482491006</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="G32" t="n">
-        <v>130.7135223200741</v>
+        <v>261.0154541840753</v>
       </c>
       <c r="H32" t="n">
-        <v>130.7135223200741</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6724,28 +6724,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.8437375424478</v>
       </c>
       <c r="S32" t="n">
-        <v>854.0953015373007</v>
+        <v>803.8818835691122</v>
       </c>
       <c r="T32" t="n">
-        <v>854.0953015373007</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="U32" t="n">
-        <v>854.0953015373007</v>
+        <v>679.7020700221544</v>
       </c>
       <c r="V32" t="n">
-        <v>854.0953015373007</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="W32" t="n">
-        <v>854.0953015373007</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="X32" t="n">
-        <v>610.6465248932006</v>
+        <v>449.8087121256981</v>
       </c>
       <c r="Y32" t="n">
-        <v>610.6465248932006</v>
+        <v>449.8087121256981</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>163.415040255829</v>
+        <v>270.0058095736687</v>
       </c>
       <c r="C33" t="n">
-        <v>90.1315404218163</v>
+        <v>220.2398795242683</v>
       </c>
       <c r="D33" t="n">
-        <v>90.1315404218163</v>
+        <v>172.4749993101313</v>
       </c>
       <c r="E33" t="n">
-        <v>32.06361486347507</v>
+        <v>114.4070737517901</v>
       </c>
       <c r="F33" t="n">
-        <v>32.06361486347507</v>
+        <v>69.04204522578932</v>
       </c>
       <c r="G33" t="n">
         <v>31.48074925551912</v>
@@ -6782,22 +6782,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>257.8852890990952</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N33" t="n">
-        <v>496.4894350879777</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O33" t="n">
-        <v>735.0935810768601</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>917.7370586902109</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6824,7 +6824,7 @@
         <v>270.0058095736687</v>
       </c>
       <c r="Y33" t="n">
-        <v>163.415040255829</v>
+        <v>270.0058095736687</v>
       </c>
     </row>
     <row r="34">
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>148.8514724516772</v>
+        <v>257.1376954301153</v>
       </c>
       <c r="C34" t="n">
-        <v>148.8514724516772</v>
+        <v>189.3710419493227</v>
       </c>
       <c r="D34" t="n">
-        <v>148.8514724516772</v>
+        <v>189.3710419493227</v>
       </c>
       <c r="E34" t="n">
-        <v>102.1079083163984</v>
+        <v>189.3710419493227</v>
       </c>
       <c r="F34" t="n">
-        <v>102.1079083163984</v>
+        <v>143.6506238985266</v>
       </c>
       <c r="G34" t="n">
-        <v>81.97744447869398</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>75.13229540780378</v>
       </c>
       <c r="I34" t="n">
         <v>19.28114311021272</v>
@@ -6882,28 +6882,28 @@
         <v>744.5964457193541</v>
       </c>
       <c r="R34" t="n">
-        <v>744.5964457193541</v>
+        <v>666.6817414521557</v>
       </c>
       <c r="S34" t="n">
-        <v>619.4865832099307</v>
+        <v>541.5718789427324</v>
       </c>
       <c r="T34" t="n">
-        <v>490.4080425274677</v>
+        <v>412.4933382602694</v>
       </c>
       <c r="U34" t="n">
-        <v>302.3664312104498</v>
+        <v>257.1376954301153</v>
       </c>
       <c r="V34" t="n">
-        <v>148.8514724516772</v>
+        <v>257.1376954301153</v>
       </c>
       <c r="W34" t="n">
-        <v>148.8514724516772</v>
+        <v>257.1376954301153</v>
       </c>
       <c r="X34" t="n">
-        <v>148.8514724516772</v>
+        <v>257.1376954301153</v>
       </c>
       <c r="Y34" t="n">
-        <v>148.8514724516772</v>
+        <v>257.1376954301153</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E35" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6961,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>906.9764102333868</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>790.1472289509902</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>790.1472289509902</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>630.5649332023399</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>393.8042479968226</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>393.8042479968226</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>393.8042479968226</v>
       </c>
       <c r="Y35" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>96.36923268287529</v>
+        <v>302.3432840068608</v>
       </c>
       <c r="C36" t="n">
-        <v>96.36923268287529</v>
+        <v>222.192456863787</v>
       </c>
       <c r="D36" t="n">
-        <v>96.36923268287529</v>
+        <v>180.8773750920078</v>
       </c>
       <c r="E36" t="n">
-        <v>96.36923268287529</v>
+        <v>115.9421222246056</v>
       </c>
       <c r="F36" t="n">
-        <v>69.04204522578932</v>
+        <v>63.7097663895439</v>
       </c>
       <c r="G36" t="n">
-        <v>31.48074925551912</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
         <v>19.28114311021272</v>
@@ -7022,16 +7022,16 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L36" t="n">
-        <v>178.8501590306595</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M36" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N36" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O36" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
         <v>894.6625969973069</v>
@@ -7043,25 +7043,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>790.7922752142996</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>663.7381863978029</v>
+        <v>830.1357393850785</v>
       </c>
       <c r="V36" t="n">
-        <v>529.7556076131746</v>
+        <v>689.2858332913892</v>
       </c>
       <c r="W36" t="n">
-        <v>376.6877803320872</v>
+        <v>529.3506787012409</v>
       </c>
       <c r="X36" t="n">
-        <v>270.0058095736687</v>
+        <v>415.8013806337614</v>
       </c>
       <c r="Y36" t="n">
-        <v>163.415040255829</v>
+        <v>302.3432840068608</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>223.3885366299903</v>
+        <v>311.899439350412</v>
       </c>
       <c r="C37" t="n">
-        <v>223.3885366299903</v>
+        <v>282.7633444684732</v>
       </c>
       <c r="D37" t="n">
-        <v>174.4414266647689</v>
+        <v>226.9489071941908</v>
       </c>
       <c r="E37" t="n">
-        <v>127.6978625294901</v>
+        <v>226.9489071941908</v>
       </c>
       <c r="F37" t="n">
-        <v>81.97744447869398</v>
+        <v>226.9489071941908</v>
       </c>
       <c r="G37" t="n">
-        <v>81.97744447869398</v>
+        <v>151.563251394407</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>81.99962271686476</v>
       </c>
       <c r="I37" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>26.01181060582338</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>103.1212695093161</v>
+        <v>89.65993451809474</v>
       </c>
       <c r="L37" t="n">
-        <v>229.5916503281457</v>
+        <v>209.3996478413138</v>
       </c>
       <c r="M37" t="n">
-        <v>367.9359443314846</v>
+        <v>341.013274349042</v>
       </c>
       <c r="N37" t="n">
-        <v>510.7830507980376</v>
+        <v>477.1297133199844</v>
       </c>
       <c r="O37" t="n">
-        <v>634.2785832440536</v>
+        <v>593.8945782703897</v>
       </c>
       <c r="P37" t="n">
-        <v>730.7406127274148</v>
+        <v>683.6259402581403</v>
       </c>
       <c r="Q37" t="n">
-        <v>744.5964457193541</v>
+        <v>690.7511057544689</v>
       </c>
       <c r="R37" t="n">
-        <v>744.5964457193541</v>
+        <v>605.9690741782096</v>
       </c>
       <c r="S37" t="n">
-        <v>619.4865832099307</v>
+        <v>605.9690741782096</v>
       </c>
       <c r="T37" t="n">
-        <v>619.4865832099307</v>
+        <v>605.9690741782096</v>
       </c>
       <c r="U37" t="n">
-        <v>431.4449718929128</v>
+        <v>605.9690741782096</v>
       </c>
       <c r="V37" t="n">
-        <v>431.4449718929128</v>
+        <v>445.586788110376</v>
       </c>
       <c r="W37" t="n">
-        <v>431.4449718929128</v>
+        <v>445.586788110376</v>
       </c>
       <c r="X37" t="n">
-        <v>343.0115863264061</v>
+        <v>311.899439350412</v>
       </c>
       <c r="Y37" t="n">
-        <v>223.3885366299903</v>
+        <v>311.899439350412</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>600.1593458718685</v>
+        <v>275.0726321374476</v>
       </c>
       <c r="C38" t="n">
-        <v>382.589651242547</v>
+        <v>57.50293750812617</v>
       </c>
       <c r="D38" t="n">
-        <v>382.589651242547</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="E38" t="n">
-        <v>382.589651242547</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="F38" t="n">
-        <v>165.0199566132255</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="G38" t="n">
-        <v>165.0199566132255</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="H38" t="n">
-        <v>165.0199566132255</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I38" t="n">
         <v>17.23151981464226</v>
@@ -7180,16 +7180,16 @@
         <v>120.2465257255646</v>
       </c>
       <c r="L38" t="n">
-        <v>300.3223773102232</v>
+        <v>293.2864606760276</v>
       </c>
       <c r="M38" t="n">
-        <v>513.5624350164212</v>
+        <v>506.5265183822256</v>
       </c>
       <c r="N38" t="n">
-        <v>719.4169572236606</v>
+        <v>712.3810405894649</v>
       </c>
       <c r="O38" t="n">
-        <v>771.915935440062</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="P38" t="n">
         <v>861.5759907321129</v>
@@ -7198,28 +7198,28 @@
         <v>861.5759907321129</v>
       </c>
       <c r="R38" t="n">
-        <v>817.72904050119</v>
+        <v>774.0042465972759</v>
       </c>
       <c r="S38" t="n">
-        <v>817.72904050119</v>
+        <v>626.6840664572918</v>
       </c>
       <c r="T38" t="n">
-        <v>817.72904050119</v>
+        <v>465.1459267436854</v>
       </c>
       <c r="U38" t="n">
-        <v>817.72904050119</v>
+        <v>275.0726321374476</v>
       </c>
       <c r="V38" t="n">
-        <v>817.72904050119</v>
+        <v>275.0726321374476</v>
       </c>
       <c r="W38" t="n">
-        <v>817.72904050119</v>
+        <v>275.0726321374476</v>
       </c>
       <c r="X38" t="n">
-        <v>817.72904050119</v>
+        <v>275.0726321374476</v>
       </c>
       <c r="Y38" t="n">
-        <v>817.72904050119</v>
+        <v>275.0726321374476</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>246.9117805068363</v>
+        <v>448.8103465248771</v>
       </c>
       <c r="C39" t="n">
-        <v>246.9117805068363</v>
+        <v>338.1685205242158</v>
       </c>
       <c r="D39" t="n">
-        <v>246.9117805068363</v>
+        <v>319.8586806811551</v>
       </c>
       <c r="E39" t="n">
-        <v>246.9117805068363</v>
+        <v>224.4324289561653</v>
       </c>
       <c r="F39" t="n">
-        <v>165.1906943921137</v>
+        <v>141.709074263516</v>
       </c>
       <c r="G39" t="n">
-        <v>91.27334083312164</v>
+        <v>66.78945212659723</v>
       </c>
       <c r="H39" t="n">
-        <v>42.71767709909336</v>
+        <v>17.23151981464226</v>
       </c>
       <c r="I39" t="n">
         <v>17.23151981464226</v>
@@ -7259,46 +7259,46 @@
         <v>142.5890798724797</v>
       </c>
       <c r="L39" t="n">
-        <v>355.8291375786776</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="M39" t="n">
-        <v>355.8291375786776</v>
+        <v>183.0578391930369</v>
       </c>
       <c r="N39" t="n">
-        <v>465.6924554125641</v>
+        <v>396.2978968992348</v>
       </c>
       <c r="O39" t="n">
-        <v>678.932513118762</v>
+        <v>609.5379546054328</v>
       </c>
       <c r="P39" t="n">
-        <v>861.5759907321129</v>
+        <v>792.1814322187836</v>
       </c>
       <c r="Q39" t="n">
         <v>861.5759907321129</v>
       </c>
       <c r="R39" t="n">
-        <v>825.219933143391</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="S39" t="n">
-        <v>716.6160604524523</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="T39" t="n">
-        <v>579.2429376696108</v>
+        <v>861.5759907321129</v>
       </c>
       <c r="U39" t="n">
-        <v>415.8327912643923</v>
+        <v>697.1635757489677</v>
       </c>
       <c r="V39" t="n">
-        <v>415.8327912643923</v>
+        <v>697.1635757489677</v>
       </c>
       <c r="W39" t="n">
-        <v>415.8327912643923</v>
+        <v>697.1635757489677</v>
       </c>
       <c r="X39" t="n">
-        <v>272.7947629172519</v>
+        <v>697.1635757489677</v>
       </c>
       <c r="Y39" t="n">
-        <v>272.7947629172519</v>
+        <v>553.2144802644794</v>
       </c>
     </row>
     <row r="40">
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>17.23151981464226</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="C40" t="n">
-        <v>17.23151981464226</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="D40" t="n">
-        <v>17.23151981464226</v>
+        <v>483.5529149907552</v>
       </c>
       <c r="E40" t="n">
-        <v>17.23151981464226</v>
+        <v>399.4510246888278</v>
       </c>
       <c r="F40" t="n">
-        <v>17.23151981464226</v>
+        <v>316.3722804713832</v>
       </c>
       <c r="G40" t="n">
-        <v>17.23151981464226</v>
+        <v>210.4956258140117</v>
       </c>
       <c r="H40" t="n">
-        <v>17.23151981464226</v>
+        <v>110.4409982788819</v>
       </c>
       <c r="I40" t="n">
         <v>17.23151981464226</v>
@@ -7335,49 +7335,49 @@
         <v>17.23151981464226</v>
       </c>
       <c r="K40" t="n">
-        <v>58.70840667542863</v>
+        <v>57.72608324220268</v>
       </c>
       <c r="L40" t="n">
-        <v>149.546215451552</v>
+        <v>147.5815685851001</v>
       </c>
       <c r="M40" t="n">
-        <v>252.2579374121846</v>
+        <v>249.3109671125067</v>
       </c>
       <c r="N40" t="n">
-        <v>359.4724718360313</v>
+        <v>355.5431781031274</v>
       </c>
       <c r="O40" t="n">
-        <v>447.335432239341</v>
+        <v>442.4238150732111</v>
       </c>
       <c r="P40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="Q40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="R40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="S40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="T40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="U40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="V40" t="n">
-        <v>508.164889679996</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="W40" t="n">
-        <v>290.5951950506745</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="X40" t="n">
-        <v>290.0456200716272</v>
+        <v>502.2709490806401</v>
       </c>
       <c r="Y40" t="n">
-        <v>134.0665127864895</v>
+        <v>502.2709490806401</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="C41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="D41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="E41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="F41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="G41" t="n">
-        <v>164.8359688043397</v>
+        <v>145.6225113063613</v>
       </c>
       <c r="H41" t="n">
-        <v>31.41910159542277</v>
+        <v>145.6225113063613</v>
       </c>
       <c r="I41" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="J41" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="K41" t="n">
-        <v>113.5816217938686</v>
+        <v>113.7019062958962</v>
       </c>
       <c r="L41" t="n">
-        <v>244.343493345328</v>
+        <v>245.952298559948</v>
       </c>
       <c r="M41" t="n">
-        <v>375.1053648967874</v>
+        <v>245.952298559948</v>
       </c>
       <c r="N41" t="n">
-        <v>438.6707388552599</v>
+        <v>312.4345716925914</v>
       </c>
       <c r="O41" t="n">
-        <v>438.6707388552599</v>
+        <v>444.6849639566432</v>
       </c>
       <c r="P41" t="n">
-        <v>528.3307941473108</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="Q41" t="n">
-        <v>528.3307941473108</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="R41" t="n">
-        <v>431.6697032221734</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="S41" t="n">
-        <v>431.6697032221734</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="T41" t="n">
-        <v>431.6697032221734</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="U41" t="n">
-        <v>298.2528360132566</v>
+        <v>399.4094083273067</v>
       </c>
       <c r="V41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="W41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="X41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
       <c r="Y41" t="n">
-        <v>164.8359688043397</v>
+        <v>264.4737974059193</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>479.3414897344247</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="C42" t="n">
-        <v>479.3414897344247</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="D42" t="n">
-        <v>385.1289365633388</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="E42" t="n">
-        <v>280.6133380480486</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="F42" t="n">
-        <v>188.8006365650989</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="G42" t="n">
-        <v>104.7916676378797</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="H42" t="n">
-        <v>46.14438853562439</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="I42" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="J42" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="K42" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="L42" t="n">
-        <v>66.65062097960327</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="M42" t="n">
-        <v>197.4124925310627</v>
+        <v>142.9372926490257</v>
       </c>
       <c r="N42" t="n">
-        <v>328.1743640825221</v>
+        <v>275.1876849130775</v>
       </c>
       <c r="O42" t="n">
-        <v>458.9362356339815</v>
+        <v>402.0946269846423</v>
       </c>
       <c r="P42" t="n">
-        <v>458.9362356339815</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="Q42" t="n">
-        <v>528.3307941473108</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="R42" t="n">
-        <v>528.3307941473108</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="S42" t="n">
-        <v>479.3414897344247</v>
+        <v>534.3450192486941</v>
       </c>
       <c r="T42" t="n">
-        <v>479.3414897344247</v>
+        <v>399.4094083273067</v>
       </c>
       <c r="U42" t="n">
-        <v>479.3414897344247</v>
+        <v>280.5581222277488</v>
       </c>
       <c r="V42" t="n">
-        <v>479.3414897344247</v>
+        <v>145.6225113063613</v>
       </c>
       <c r="W42" t="n">
-        <v>479.3414897344247</v>
+        <v>145.6225113063613</v>
       </c>
       <c r="X42" t="n">
-        <v>479.3414897344247</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="Y42" t="n">
-        <v>479.3414897344247</v>
+        <v>10.68690038497388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>276.4278547742488</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="C43" t="n">
-        <v>276.4278547742488</v>
+        <v>321.1649813009074</v>
       </c>
       <c r="D43" t="n">
-        <v>276.4278547742488</v>
+        <v>224.7679298008103</v>
       </c>
       <c r="E43" t="n">
-        <v>183.236617682021</v>
+        <v>130.5744241306558</v>
       </c>
       <c r="F43" t="n">
-        <v>125.532617330618</v>
+        <v>37.40406454498407</v>
       </c>
       <c r="G43" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="H43" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="I43" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="J43" t="n">
-        <v>10.56661588294622</v>
+        <v>10.68690038497388</v>
       </c>
       <c r="K43" t="n">
-        <v>42.15271052133323</v>
+        <v>41.29067159013494</v>
       </c>
       <c r="L43" t="n">
-        <v>123.0997270750573</v>
+        <v>121.255364710633</v>
       </c>
       <c r="M43" t="n">
-        <v>215.9206568132905</v>
+        <v>213.0939710156402</v>
       </c>
       <c r="N43" t="n">
-        <v>313.2443990147378</v>
+        <v>309.4353897838616</v>
       </c>
       <c r="O43" t="n">
-        <v>391.2165671956482</v>
+        <v>386.425234531546</v>
       </c>
       <c r="P43" t="n">
-        <v>442.1552324139038</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="Q43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="R43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="S43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="T43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="U43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="V43" t="n">
-        <v>409.8447219831657</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="W43" t="n">
-        <v>276.4278547742488</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="X43" t="n">
-        <v>276.4278547742488</v>
+        <v>436.3815763165756</v>
       </c>
       <c r="Y43" t="n">
-        <v>276.4278547742488</v>
+        <v>436.3815763165756</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>410.8172175096969</v>
+        <v>134.3922448232707</v>
       </c>
       <c r="C44" t="n">
-        <v>277.40035030078</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="D44" t="n">
-        <v>277.40035030078</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="E44" t="n">
-        <v>277.40035030078</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="F44" t="n">
-        <v>277.40035030078</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="G44" t="n">
-        <v>277.40035030078</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="H44" t="n">
-        <v>143.9834830918631</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="I44" t="n">
-        <v>10.56661588294622</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="J44" t="n">
-        <v>10.56661588294622</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="K44" t="n">
-        <v>113.5816217938686</v>
+        <v>112.8777429290868</v>
       </c>
       <c r="L44" t="n">
-        <v>113.5816217938686</v>
+        <v>112.8777429290868</v>
       </c>
       <c r="M44" t="n">
-        <v>244.343493345328</v>
+        <v>234.9291135288714</v>
       </c>
       <c r="N44" t="n">
-        <v>375.1053648967874</v>
+        <v>356.980484128656</v>
       </c>
       <c r="O44" t="n">
-        <v>505.8672364482468</v>
+        <v>479.0318547284406</v>
       </c>
       <c r="P44" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="Q44" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="R44" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="S44" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="T44" t="n">
-        <v>528.3307941473108</v>
+        <v>368.6073431031144</v>
       </c>
       <c r="U44" t="n">
-        <v>528.3307941473108</v>
+        <v>368.6073431031144</v>
       </c>
       <c r="V44" t="n">
-        <v>410.8172175096969</v>
+        <v>368.6073431031144</v>
       </c>
       <c r="W44" t="n">
-        <v>410.8172175096969</v>
+        <v>368.6073431031144</v>
       </c>
       <c r="X44" t="n">
-        <v>410.8172175096969</v>
+        <v>258.9217526283769</v>
       </c>
       <c r="Y44" t="n">
-        <v>410.8172175096969</v>
+        <v>258.9217526283769</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>140.3569417067103</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="C45" t="n">
-        <v>140.3569417067103</v>
+        <v>372.4034095393323</v>
       </c>
       <c r="D45" t="n">
-        <v>46.14438853562439</v>
+        <v>277.1885877903197</v>
       </c>
       <c r="E45" t="n">
-        <v>46.14438853562439</v>
+        <v>171.6707206971028</v>
       </c>
       <c r="F45" t="n">
-        <v>46.14438853562439</v>
+        <v>78.8557506362264</v>
       </c>
       <c r="G45" t="n">
-        <v>46.14438853562439</v>
+        <v>78.8557506362264</v>
       </c>
       <c r="H45" t="n">
-        <v>46.14438853562439</v>
+        <v>19.20620295604436</v>
       </c>
       <c r="I45" t="n">
-        <v>10.56661588294622</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="J45" t="n">
-        <v>10.56661588294622</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="K45" t="n">
-        <v>135.9241759407836</v>
+        <v>131.914107617949</v>
       </c>
       <c r="L45" t="n">
-        <v>266.686047492243</v>
+        <v>131.914107617949</v>
       </c>
       <c r="M45" t="n">
-        <v>397.4479190437024</v>
+        <v>253.9654782177337</v>
       </c>
       <c r="N45" t="n">
-        <v>458.9362356339815</v>
+        <v>376.0168488175183</v>
       </c>
       <c r="O45" t="n">
-        <v>458.9362356339815</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="P45" t="n">
-        <v>458.9362356339815</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="Q45" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="R45" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="S45" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="T45" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="U45" t="n">
-        <v>528.3307941473108</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="V45" t="n">
-        <v>407.1906761245441</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="W45" t="n">
-        <v>273.7738089156272</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="X45" t="n">
-        <v>140.3569417067103</v>
+        <v>493.1368509082207</v>
       </c>
       <c r="Y45" t="n">
-        <v>140.3569417067103</v>
+        <v>493.1368509082207</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>184.3759879808396</v>
+        <v>186.4983973395537</v>
       </c>
       <c r="C46" t="n">
-        <v>184.3759879808396</v>
+        <v>120.0089799215213</v>
       </c>
       <c r="D46" t="n">
-        <v>184.3759879808396</v>
+        <v>120.0089799215213</v>
       </c>
       <c r="E46" t="n">
-        <v>91.18475088861182</v>
+        <v>120.0089799215213</v>
       </c>
       <c r="F46" t="n">
-        <v>91.18475088861182</v>
+        <v>120.0089799215213</v>
       </c>
       <c r="G46" t="n">
-        <v>91.18475088861182</v>
+        <v>120.0089799215213</v>
       </c>
       <c r="H46" t="n">
-        <v>50.14696153083419</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="I46" t="n">
-        <v>50.14696153083419</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="J46" t="n">
-        <v>10.56661588294622</v>
+        <v>9.862737018164415</v>
       </c>
       <c r="K46" t="n">
-        <v>42.15271052133323</v>
+        <v>40.46650822332547</v>
       </c>
       <c r="L46" t="n">
-        <v>123.0997270750573</v>
+        <v>120.4312013438235</v>
       </c>
       <c r="M46" t="n">
-        <v>215.9206568132905</v>
+        <v>212.2698076488308</v>
       </c>
       <c r="N46" t="n">
-        <v>313.2443990147378</v>
+        <v>308.6112264170522</v>
       </c>
       <c r="O46" t="n">
-        <v>391.2165671956482</v>
+        <v>385.6010711647365</v>
       </c>
       <c r="P46" t="n">
-        <v>442.1552324139038</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="Q46" t="n">
-        <v>442.1552324139038</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="R46" t="n">
-        <v>317.7928551897565</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="S46" t="n">
-        <v>184.3759879808396</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="T46" t="n">
-        <v>184.3759879808396</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="U46" t="n">
-        <v>184.3759879808396</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="V46" t="n">
-        <v>184.3759879808396</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="W46" t="n">
-        <v>184.3759879808396</v>
+        <v>435.5574129497662</v>
       </c>
       <c r="X46" t="n">
-        <v>184.3759879808396</v>
+        <v>311.0279051446599</v>
       </c>
       <c r="Y46" t="n">
-        <v>184.3759879808396</v>
+        <v>311.0279051446599</v>
       </c>
     </row>
   </sheetData>
@@ -8935,13 +8935,13 @@
         <v>261.3867061646181</v>
       </c>
       <c r="M14" t="n">
-        <v>254.9313611413124</v>
+        <v>255.9665244219036</v>
       </c>
       <c r="N14" t="n">
-        <v>229.4130635965909</v>
+        <v>253.9981915106306</v>
       </c>
       <c r="O14" t="n">
-        <v>255.7185026163176</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P14" t="n">
         <v>231.2329957552695</v>
@@ -9011,16 +9011,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>164.174670974505</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>166.719161836058</v>
       </c>
       <c r="N15" t="n">
         <v>156.9620032779641</v>
       </c>
       <c r="O15" t="n">
-        <v>167.1813723584841</v>
+        <v>168.2165356390753</v>
       </c>
       <c r="P15" t="n">
         <v>159.5946986089611</v>
@@ -9169,16 +9169,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>344.6980053108186</v>
+        <v>343.1944490354728</v>
       </c>
       <c r="M17" t="n">
-        <v>249.1868635891309</v>
+        <v>337.7742672927583</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>245.3073311562561</v>
       </c>
       <c r="O17" t="n">
-        <v>339.0298017625181</v>
+        <v>230.0982114216867</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,25 +9245,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>172.2762392879555</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>241.6418872164512</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>249.5620679875038</v>
       </c>
       <c r="N18" t="n">
-        <v>240.2733024241647</v>
+        <v>238.7697461488189</v>
       </c>
       <c r="O18" t="n">
-        <v>251.5278347852758</v>
+        <v>250.02427850993</v>
       </c>
       <c r="P18" t="n">
-        <v>242.9059977551616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>254.6070453318454</v>
+        <v>353.4964911205911</v>
       </c>
       <c r="M20" t="n">
-        <v>230.3462332272727</v>
+        <v>348.0763093778766</v>
       </c>
       <c r="N20" t="n">
-        <v>338.3446539374223</v>
+        <v>342.3863689936351</v>
       </c>
       <c r="O20" t="n">
-        <v>339.0298017625181</v>
+        <v>347.8282875722906</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>255.5715151249628</v>
       </c>
       <c r="L21" t="n">
-        <v>247.4859701207056</v>
+        <v>256.284455930478</v>
       </c>
       <c r="M21" t="n">
-        <v>251.0656242628497</v>
+        <v>259.8641100726222</v>
       </c>
       <c r="N21" t="n">
-        <v>235.8720260467574</v>
+        <v>244.3150174803774</v>
       </c>
       <c r="O21" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>242.9059977551616</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -9719,19 +9719,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
-        <v>242.4075215744184</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9956,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
@@ -9971,10 +9971,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>295.1552315763977</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,10 +10193,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>383.1483227996774</v>
@@ -10205,13 +10205,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>186.7697506723097</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10430,25 +10430,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>186.7697506723097</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10591,7 +10591,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M35" t="n">
         <v>449.5135334928325</v>
@@ -10670,10 +10670,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>173.111405903722</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>233.2169876979182</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,7 +10682,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>210.0772877358491</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>410.554228051263</v>
       </c>
       <c r="M38" t="n">
         <v>445.740230910301</v>
@@ -10837,10 +10837,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>283.1274823473447</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10907,13 +10907,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>353.9483774629024</v>
+        <v>179.4319144471037</v>
       </c>
       <c r="M39" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>242.3147604003904</v>
+        <v>346.7357097663615</v>
       </c>
       <c r="O39" t="n">
         <v>357.9902421274727</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11065,16 +11065,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>367.8491135068149</v>
+        <v>369.3526697821608</v>
       </c>
       <c r="M41" t="n">
-        <v>362.4289317641004</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N41" t="n">
-        <v>293.6205120394924</v>
+        <v>296.5668748416851</v>
       </c>
       <c r="O41" t="n">
-        <v>230.0982114216867</v>
+        <v>363.6844662338602</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11144,22 +11144,22 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>195.2048899785177</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>274.216732458846</v>
+        <v>275.7202887341919</v>
       </c>
       <c r="N42" t="n">
-        <v>263.424410620161</v>
+        <v>264.9279668955069</v>
       </c>
       <c r="O42" t="n">
-        <v>274.6789429812721</v>
+        <v>270.7850748197624</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>267.5606622265038</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,16 +11305,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>362.4289317641004</v>
+        <v>353.6304459543279</v>
       </c>
       <c r="N44" t="n">
-        <v>361.4957621334186</v>
+        <v>352.6972763236461</v>
       </c>
       <c r="O44" t="n">
-        <v>362.1809099585145</v>
+        <v>353.3824241487419</v>
       </c>
       <c r="P44" t="n">
-        <v>253.9234580775564</v>
+        <v>245.4804666439364</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>261.1256517014142</v>
       </c>
       <c r="L45" t="n">
-        <v>270.6370783167019</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>274.216732458846</v>
+        <v>265.4182466490735</v>
       </c>
       <c r="N45" t="n">
-        <v>193.4511227805849</v>
+        <v>254.6259248103885</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>260.8992768592954</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23509,10 +23509,10 @@
         <v>396.8853465271666</v>
       </c>
       <c r="G14" t="n">
-        <v>405.3120383005902</v>
+        <v>379.6917471059594</v>
       </c>
       <c r="H14" t="n">
-        <v>329.4841029012223</v>
+        <v>303.8638117065915</v>
       </c>
       <c r="I14" t="n">
         <v>200.4851903558611</v>
@@ -23545,10 +23545,10 @@
         <v>114.2581275319741</v>
       </c>
       <c r="S14" t="n">
-        <v>173.4090791770697</v>
+        <v>199.0293703717005</v>
       </c>
       <c r="T14" t="n">
-        <v>187.4848591549557</v>
+        <v>213.1051503495866</v>
       </c>
       <c r="U14" t="n">
         <v>241.3549536932917</v>
@@ -23557,13 +23557,13 @@
         <v>317.7615592555901</v>
       </c>
       <c r="W14" t="n">
-        <v>339.2502695028682</v>
+        <v>316.6839170186374</v>
       </c>
       <c r="X14" t="n">
         <v>359.7404014639242</v>
       </c>
       <c r="Y14" t="n">
-        <v>353.6808869572779</v>
+        <v>376.2472394415088</v>
       </c>
     </row>
     <row r="15">
@@ -23579,10 +23579,10 @@
         <v>162.7177997737709</v>
       </c>
       <c r="D15" t="n">
-        <v>111.8340751554631</v>
+        <v>137.4543663500939</v>
       </c>
       <c r="E15" t="n">
-        <v>125.0880287566253</v>
+        <v>122.0340900462253</v>
       </c>
       <c r="F15" t="n">
         <v>135.0785131788391</v>
@@ -23621,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>64.54684374346749</v>
+        <v>90.16713493809833</v>
       </c>
       <c r="S15" t="n">
         <v>136.0721806946622</v>
@@ -23633,10 +23633,10 @@
         <v>215.95068286643</v>
       </c>
       <c r="V15" t="n">
-        <v>222.8098879348805</v>
+        <v>197.1895967402496</v>
       </c>
       <c r="W15" t="n">
-        <v>241.7042839463748</v>
+        <v>219.137931462144</v>
       </c>
       <c r="X15" t="n">
         <v>195.7822859889327</v>
@@ -23655,16 +23655,16 @@
         <v>169.8412809673925</v>
       </c>
       <c r="C16" t="n">
-        <v>131.6358306894522</v>
+        <v>157.256121884083</v>
       </c>
       <c r="D16" t="n">
         <v>138.6247738036676</v>
       </c>
       <c r="E16" t="n">
-        <v>136.4432634320244</v>
+        <v>110.8229722373935</v>
       </c>
       <c r="F16" t="n">
-        <v>135.4303488083864</v>
+        <v>112.8639963241556</v>
       </c>
       <c r="G16" t="n">
         <v>158.000280143914</v>
@@ -23703,7 +23703,7 @@
         <v>167.3026921626247</v>
       </c>
       <c r="S16" t="n">
-        <v>214.0258988224275</v>
+        <v>188.4056076277966</v>
       </c>
       <c r="T16" t="n">
         <v>217.9548902137367</v>
@@ -23712,7 +23712,7 @@
         <v>276.3283301419461</v>
       </c>
       <c r="V16" t="n">
-        <v>219.5805916250524</v>
+        <v>242.1469441092832</v>
       </c>
       <c r="W16" t="n">
         <v>276.5322991220462</v>
@@ -23721,7 +23721,7 @@
         <v>215.7189561744923</v>
       </c>
       <c r="Y16" t="n">
-        <v>182.9736629429192</v>
+        <v>208.59395413755</v>
       </c>
     </row>
     <row r="17">
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>329.3297058249001</v>
+        <v>330.3219517170476</v>
       </c>
       <c r="C17" t="n">
-        <v>311.8687559324271</v>
+        <v>312.8610018245745</v>
       </c>
       <c r="D17" t="n">
-        <v>301.2789057821025</v>
+        <v>302.2711516742499</v>
       </c>
       <c r="E17" t="n">
-        <v>328.5262342336814</v>
+        <v>329.5184801258288</v>
       </c>
       <c r="F17" t="n">
-        <v>353.471909903131</v>
+        <v>354.4641557952784</v>
       </c>
       <c r="G17" t="n">
-        <v>361.8986016765546</v>
+        <v>362.890847568702</v>
       </c>
       <c r="H17" t="n">
-        <v>177.1390759363553</v>
+        <v>287.0629121693341</v>
       </c>
       <c r="I17" t="n">
-        <v>157.0717537318255</v>
+        <v>158.0639996239729</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>96.46498210256925</v>
+        <v>2.834615589837071</v>
       </c>
       <c r="S17" t="n">
-        <v>155.6159337476649</v>
+        <v>156.6081796398124</v>
       </c>
       <c r="T17" t="n">
-        <v>60.76012338471955</v>
+        <v>170.6839596176983</v>
       </c>
       <c r="U17" t="n">
-        <v>89.00992672842469</v>
+        <v>91.50572889591795</v>
       </c>
       <c r="V17" t="n">
-        <v>178.4011778593503</v>
+        <v>167.9123344582164</v>
       </c>
       <c r="W17" t="n">
-        <v>295.8368328788326</v>
+        <v>189.4010447054945</v>
       </c>
       <c r="X17" t="n">
-        <v>316.3269648398886</v>
+        <v>317.319210732036</v>
       </c>
       <c r="Y17" t="n">
-        <v>332.8338028174732</v>
+        <v>333.8260487096206</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>113.1290478112869</v>
+        <v>114.1212937034343</v>
       </c>
       <c r="C18" t="n">
-        <v>10.37277280890393</v>
+        <v>120.2966090418827</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>95.03317561820576</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>105.233190508968</v>
       </c>
       <c r="F18" t="n">
-        <v>91.66507655480345</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>27.24243861155807</v>
+        <v>59.82355429006347</v>
       </c>
       <c r="I18" t="n">
-        <v>35.99249701283465</v>
+        <v>12.52304609834549</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>46.7536983140627</v>
+        <v>47.74594420621014</v>
       </c>
       <c r="S18" t="n">
-        <v>118.2790352652574</v>
+        <v>119.2712811574048</v>
       </c>
       <c r="T18" t="n">
-        <v>146.7605928562412</v>
+        <v>147.7528387483886</v>
       </c>
       <c r="U18" t="n">
-        <v>172.5372462423944</v>
+        <v>66.10145806905631</v>
       </c>
       <c r="V18" t="n">
-        <v>179.3964513108448</v>
+        <v>180.3886972029923</v>
       </c>
       <c r="W18" t="n">
-        <v>198.2908473223392</v>
+        <v>199.2830932144866</v>
       </c>
       <c r="X18" t="n">
-        <v>152.368849364897</v>
+        <v>153.3610952570445</v>
       </c>
       <c r="Y18" t="n">
-        <v>152.2785599387239</v>
+        <v>45.84277176538585</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>126.4278443433569</v>
+        <v>127.4200902355043</v>
       </c>
       <c r="C19" t="n">
-        <v>113.8426852600474</v>
+        <v>114.8349311521948</v>
       </c>
       <c r="D19" t="n">
-        <v>95.21133717963193</v>
+        <v>96.20358307177936</v>
       </c>
       <c r="E19" t="n">
-        <v>93.02982680798874</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>92.01691218435082</v>
+        <v>93.00915807649825</v>
       </c>
       <c r="G19" t="n">
-        <v>51.39780616078802</v>
+        <v>77.85851003263767</v>
       </c>
       <c r="H19" t="n">
-        <v>108.8230366688591</v>
+        <v>2.38724849552105</v>
       </c>
       <c r="I19" t="n">
-        <v>102.0463390886779</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>39.95504427809234</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>14.95766519775768</v>
+        <v>124.8815014307365</v>
       </c>
       <c r="S19" t="n">
-        <v>61.68087185756045</v>
+        <v>171.6047080905392</v>
       </c>
       <c r="T19" t="n">
-        <v>174.5414535897011</v>
+        <v>175.5336994818485</v>
       </c>
       <c r="U19" t="n">
-        <v>123.9833031770791</v>
+        <v>233.9071394100579</v>
       </c>
       <c r="V19" t="n">
-        <v>198.7335074852476</v>
+        <v>199.725753377395</v>
       </c>
       <c r="W19" t="n">
-        <v>233.1188624980106</v>
+        <v>234.111108390158</v>
       </c>
       <c r="X19" t="n">
-        <v>172.3055195504567</v>
+        <v>173.2977654426041</v>
       </c>
       <c r="Y19" t="n">
-        <v>165.1805175135144</v>
+        <v>166.1727634056618</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>329.3297058249001</v>
+        <v>323.5232976810772</v>
       </c>
       <c r="C20" t="n">
-        <v>311.8687559324271</v>
+        <v>306.0623477886042</v>
       </c>
       <c r="D20" t="n">
-        <v>301.2789057821025</v>
+        <v>295.4724976382796</v>
       </c>
       <c r="E20" t="n">
-        <v>328.5262342336814</v>
+        <v>322.7198260898584</v>
       </c>
       <c r="F20" t="n">
-        <v>244.5403195622996</v>
+        <v>334.6274246446026</v>
       </c>
       <c r="G20" t="n">
-        <v>361.8986016765546</v>
+        <v>356.0921935327317</v>
       </c>
       <c r="H20" t="n">
-        <v>190.1237215049825</v>
+        <v>280.2642581333638</v>
       </c>
       <c r="I20" t="n">
-        <v>157.0717537318255</v>
+        <v>151.2653455880026</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>96.46498210256925</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>46.68434340683352</v>
+        <v>32.07944945323813</v>
       </c>
       <c r="T20" t="n">
-        <v>169.6917137255509</v>
+        <v>46.15522943112414</v>
       </c>
       <c r="U20" t="n">
-        <v>89.00992672842467</v>
+        <v>192.1351089254331</v>
       </c>
       <c r="V20" t="n">
-        <v>274.3481226315545</v>
+        <v>150.8116383371277</v>
       </c>
       <c r="W20" t="n">
-        <v>295.8368328788326</v>
+        <v>290.0304247350097</v>
       </c>
       <c r="X20" t="n">
-        <v>316.3269648398886</v>
+        <v>310.5205566960657</v>
       </c>
       <c r="Y20" t="n">
-        <v>332.8338028174732</v>
+        <v>327.0273946736502</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.197457470455518</v>
+        <v>107.322639667464</v>
       </c>
       <c r="C21" t="n">
-        <v>119.3043631497353</v>
+        <v>113.4979550059124</v>
       </c>
       <c r="D21" t="n">
-        <v>94.04092972605832</v>
+        <v>88.2345215822354</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>98.43453647299759</v>
       </c>
       <c r="F21" t="n">
-        <v>91.66507655480345</v>
+        <v>85.85866841098053</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>78.13297318080728</v>
       </c>
       <c r="H21" t="n">
-        <v>58.83130839791603</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>35.99249701283465</v>
+        <v>30.18608886901173</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>40.94729017023978</v>
       </c>
       <c r="S21" t="n">
-        <v>118.2790352652574</v>
+        <v>112.4726271214345</v>
       </c>
       <c r="T21" t="n">
-        <v>146.7605928562412</v>
+        <v>140.9541847124183</v>
       </c>
       <c r="U21" t="n">
-        <v>172.5372462423944</v>
+        <v>49.0007619479676</v>
       </c>
       <c r="V21" t="n">
-        <v>179.3964513108448</v>
+        <v>173.5900431670219</v>
       </c>
       <c r="W21" t="n">
-        <v>198.2908473223392</v>
+        <v>74.75436302791239</v>
       </c>
       <c r="X21" t="n">
-        <v>152.368849364897</v>
+        <v>95.89069040171537</v>
       </c>
       <c r="Y21" t="n">
-        <v>73.40245874037032</v>
+        <v>28.74207564429715</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>126.4278443433569</v>
+        <v>120.6214361995339</v>
       </c>
       <c r="C22" t="n">
-        <v>113.8426852600474</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>95.21133717963193</v>
+        <v>89.404929035809</v>
       </c>
       <c r="E22" t="n">
-        <v>93.02982680798874</v>
+        <v>87.22341866416582</v>
       </c>
       <c r="F22" t="n">
-        <v>92.01691218435082</v>
+        <v>86.21050404052789</v>
       </c>
       <c r="G22" t="n">
-        <v>114.5868435198783</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>108.8230366688591</v>
+        <v>103.0166285250362</v>
       </c>
       <c r="I22" t="n">
-        <v>102.0463390886779</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>39.95504427809234</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>32.75790741311395</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>123.8892555385891</v>
+        <v>35.35274671019795</v>
       </c>
       <c r="S22" t="n">
-        <v>74.66551742618762</v>
+        <v>164.8060540545689</v>
       </c>
       <c r="T22" t="n">
-        <v>174.5414535897011</v>
+        <v>168.7350454458781</v>
       </c>
       <c r="U22" t="n">
-        <v>123.9833031770791</v>
+        <v>227.1084853740875</v>
       </c>
       <c r="V22" t="n">
-        <v>198.7335074852476</v>
+        <v>192.9270993414247</v>
       </c>
       <c r="W22" t="n">
-        <v>124.1872721571792</v>
+        <v>227.3124543541877</v>
       </c>
       <c r="X22" t="n">
-        <v>63.37392920962533</v>
+        <v>166.4991114066338</v>
       </c>
       <c r="Y22" t="n">
-        <v>165.1805175135144</v>
+        <v>159.3741093696914</v>
       </c>
     </row>
     <row r="23">
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>52.32291993440646</v>
+        <v>293.3372088120655</v>
       </c>
       <c r="C23" t="n">
-        <v>275.8762589195925</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D23" t="n">
-        <v>265.2864087692679</v>
+        <v>154.0316761291531</v>
       </c>
       <c r="E23" t="n">
         <v>292.5337372208467</v>
       </c>
       <c r="F23" t="n">
-        <v>165.666512336589</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G23" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H23" t="n">
         <v>250.0781692643521</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>238.3556256187198</v>
@@ -24271,10 +24271,10 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X23" t="n">
-        <v>280.334467827054</v>
+        <v>39.32017894939491</v>
       </c>
       <c r="Y23" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="24">
@@ -24290,7 +24290,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
         <v>68.24844760398587</v>
@@ -24335,10 +24335,10 @@
         <v>10.76120130122806</v>
       </c>
       <c r="S24" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>68.84616233059002</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>93.08426786978902</v>
       </c>
     </row>
     <row r="25">
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,19 +24372,19 @@
         <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.34137281469073</v>
+        <v>1.12787615079327</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
         <v>3.962547265257697</v>
@@ -24429,7 +24429,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24445,7 +24445,7 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C26" t="n">
-        <v>275.8762589195925</v>
+        <v>34.86197004193343</v>
       </c>
       <c r="D26" t="n">
         <v>265.2864087692679</v>
@@ -24454,13 +24454,13 @@
         <v>292.5337372208467</v>
       </c>
       <c r="F26" t="n">
-        <v>105.1940272468543</v>
+        <v>317.4794128902964</v>
       </c>
       <c r="G26" t="n">
-        <v>84.89181578606093</v>
+        <v>325.90610466372</v>
       </c>
       <c r="H26" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I26" t="n">
         <v>121.0792567189908</v>
@@ -24502,16 +24502,16 @@
         <v>161.9490200564214</v>
       </c>
       <c r="V26" t="n">
-        <v>238.3556256187198</v>
+        <v>26.07023997527784</v>
       </c>
       <c r="W26" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>280.334467827054</v>
+        <v>39.32017894939491</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>61.69753034094788</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -24539,7 +24539,7 @@
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,19 +24569,19 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>136.5447492295597</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>20.45794643472287</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -24590,7 +24590,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>116.2860629258893</v>
       </c>
     </row>
     <row r="28">
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>56.78845649267594</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
         <v>3.962547265257697</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>11.99017987019616</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>196.9223965050758</v>
@@ -24666,7 +24666,7 @@
         <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y28" t="n">
         <v>129.1880205006797</v>
@@ -24685,22 +24685,22 @@
         <v>275.8762589195925</v>
       </c>
       <c r="D29" t="n">
-        <v>214.9500431822473</v>
+        <v>265.2864087692679</v>
       </c>
       <c r="E29" t="n">
-        <v>51.51944834318766</v>
+        <v>292.5337372208467</v>
       </c>
       <c r="F29" t="n">
         <v>317.4794128902964</v>
       </c>
       <c r="G29" t="n">
-        <v>325.90610466372</v>
+        <v>84.89181578606093</v>
       </c>
       <c r="H29" t="n">
-        <v>250.0781692643521</v>
+        <v>9.063880386693029</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>68.08422787303103</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>18.83004698833889</v>
+        <v>259.8443358659979</v>
       </c>
       <c r="X29" t="n">
         <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="30">
@@ -24761,22 +24761,22 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24812,19 +24812,19 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>136.5447492295597</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>138.6065301429891</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>75.6877669677967</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24849,13 +24849,13 @@
         <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>72.8305396560245</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>66.05384207584321</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>87.89675852575441</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>134.6199651855572</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>146.6280723434472</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X31" t="n">
-        <v>55.53338000522669</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24922,22 +24922,22 @@
         <v>265.1150576183644</v>
       </c>
       <c r="D32" t="n">
-        <v>13.51091859038075</v>
+        <v>254.5252074680398</v>
       </c>
       <c r="E32" t="n">
-        <v>281.7725359196186</v>
+        <v>94.86721055741211</v>
       </c>
       <c r="F32" t="n">
         <v>306.7182115890683</v>
       </c>
       <c r="G32" t="n">
-        <v>81.02551969275569</v>
+        <v>315.1449033624919</v>
       </c>
       <c r="H32" t="n">
-        <v>239.316967963124</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>110.3180554177628</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>122.9380154114882</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>151.1878187551933</v>
       </c>
       <c r="V32" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>249.0831345647699</v>
       </c>
       <c r="X32" t="n">
-        <v>28.55897764816683</v>
+        <v>269.5732665258259</v>
       </c>
       <c r="Y32" t="n">
         <v>286.0801045034104</v>
@@ -24998,19 +24998,19 @@
         <v>66.37534949722421</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>23.28239408676625</v>
       </c>
       <c r="D33" t="n">
-        <v>47.28723141199562</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>36.60864605869111</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>105.5248616246612</v>
       </c>
     </row>
     <row r="34">
@@ -25077,25 +25077,25 @@
         <v>79.67414602929416</v>
       </c>
       <c r="C34" t="n">
-        <v>67.0889869459847</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>48.45763886556922</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>46.27612849392604</v>
       </c>
       <c r="F34" t="n">
-        <v>45.26321387028811</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>47.90398600648825</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>62.06933835479644</v>
       </c>
       <c r="I34" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>32.35910880199523</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>151.9798091711849</v>
       </c>
       <c r="W34" t="n">
         <v>186.3651641839479</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>70.29062186739532</v>
+        <v>289.3746615468078</v>
       </c>
       <c r="C35" t="n">
-        <v>265.1150576183644</v>
+        <v>271.9137116543347</v>
       </c>
       <c r="D35" t="n">
-        <v>254.5252074680398</v>
+        <v>261.3238615040102</v>
       </c>
       <c r="E35" t="n">
-        <v>281.7725359196186</v>
+        <v>288.571189955589</v>
       </c>
       <c r="F35" t="n">
-        <v>65.70392271140923</v>
+        <v>72.50257674737963</v>
       </c>
       <c r="G35" t="n">
-        <v>74.13061448483285</v>
+        <v>321.9435573984623</v>
       </c>
       <c r="H35" t="n">
-        <v>239.316967963124</v>
+        <v>246.1156219990944</v>
       </c>
       <c r="I35" t="n">
-        <v>110.3180554177628</v>
+        <v>117.1167094537331</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>108.8622354336022</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>129.7366694474586</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>249.0831345647699</v>
+        <v>255.8817886007402</v>
       </c>
       <c r="X35" t="n">
-        <v>269.5732665258259</v>
+        <v>276.3719205617963</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.06581562575138</v>
+        <v>163.1151735792961</v>
       </c>
     </row>
     <row r="36">
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>73.17400353319456</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>47.28723141199562</v>
+        <v>13.18395449390454</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>17.85746265822564</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,13 +25280,13 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>78.32399098716505</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>106.8055485781488</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.67414602929416</v>
+        <v>86.47280006526452</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>45.04290704883572</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>53.0747825298964</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>52.06186790625847</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>130.6574179202995</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>134.5864093116087</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>192.9598492398181</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>186.3651641839479</v>
+        <v>193.1638182199182</v>
       </c>
       <c r="X37" t="n">
-        <v>38.00276952555242</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>125.225473235422</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>103.1745068406439</v>
+        <v>319.5607504158195</v>
       </c>
       <c r="C38" t="n">
-        <v>85.7135569481708</v>
+        <v>86.70580284031828</v>
       </c>
       <c r="D38" t="n">
-        <v>290.5177044808745</v>
+        <v>251.6412468564729</v>
       </c>
       <c r="E38" t="n">
-        <v>317.7650329324533</v>
+        <v>318.7572788246007</v>
       </c>
       <c r="F38" t="n">
-        <v>127.3167109188747</v>
+        <v>343.7029544940504</v>
       </c>
       <c r="G38" t="n">
-        <v>351.1374003753266</v>
+        <v>352.129646267474</v>
       </c>
       <c r="H38" t="n">
-        <v>275.3094649759587</v>
+        <v>276.3017108681061</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>147.3027983227449</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>42.29530007272746</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>144.8547324464369</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>158.9305124243229</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>187.180315768028</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>263.5869213303264</v>
+        <v>264.5791672224739</v>
       </c>
       <c r="W38" t="n">
-        <v>285.0756315776046</v>
+        <v>286.067877469752</v>
       </c>
       <c r="X38" t="n">
-        <v>305.5657635386606</v>
+        <v>306.558009430808</v>
       </c>
       <c r="Y38" t="n">
-        <v>322.0726015162451</v>
+        <v>323.0648474083926</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>76.74369392374744</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>108.5431618485073</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>83.27972842483027</v>
+        <v>66.14523287234763</v>
       </c>
       <c r="E39" t="n">
-        <v>93.47974331559246</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25490,7 +25490,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.22354160375403</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>36.98474290498208</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>108.5100798561768</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>136.9916374471605</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>168.6352500096168</v>
+        <v>169.6274959017642</v>
       </c>
       <c r="W39" t="n">
-        <v>187.5296460211111</v>
+        <v>188.5218919132586</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>142.5998939558164</v>
       </c>
       <c r="Y39" t="n">
-        <v>141.5173586374959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>116.6588889342762</v>
       </c>
       <c r="C40" t="n">
-        <v>103.0814839588193</v>
+        <v>104.0737298509668</v>
       </c>
       <c r="D40" t="n">
-        <v>84.45013587840387</v>
+        <v>66.91152802156526</v>
       </c>
       <c r="E40" t="n">
-        <v>82.26862550676069</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>81.25571088312276</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>103.8256422186503</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>98.06183536763109</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>91.2851377874498</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>29.19384297686429</v>
+        <v>30.18608886901173</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>21.9967061118859</v>
+        <v>22.98895200403334</v>
       </c>
       <c r="R40" t="n">
-        <v>113.128054237361</v>
+        <v>114.1203001295084</v>
       </c>
       <c r="S40" t="n">
-        <v>159.8512608971638</v>
+        <v>160.8435067893112</v>
       </c>
       <c r="T40" t="n">
-        <v>163.780252288473</v>
+        <v>164.7724981806205</v>
       </c>
       <c r="U40" t="n">
-        <v>222.1536922166824</v>
+        <v>223.1459381088299</v>
       </c>
       <c r="V40" t="n">
-        <v>187.9723061840195</v>
+        <v>188.964552076167</v>
       </c>
       <c r="W40" t="n">
-        <v>6.963663513754284</v>
+        <v>223.34990708893</v>
       </c>
       <c r="X40" t="n">
-        <v>161.0002390199718</v>
+        <v>162.5365641413761</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>155.4115621044338</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>328.5592037382169</v>
+        <v>329.5514496303643</v>
       </c>
       <c r="C41" t="n">
-        <v>311.0982538457439</v>
+        <v>312.0904997378913</v>
       </c>
       <c r="D41" t="n">
-        <v>300.5084036954192</v>
+        <v>301.5006495875667</v>
       </c>
       <c r="E41" t="n">
-        <v>327.7557321469981</v>
+        <v>328.7479780391456</v>
       </c>
       <c r="F41" t="n">
-        <v>352.7014078164477</v>
+        <v>353.6936537085952</v>
       </c>
       <c r="G41" t="n">
-        <v>361.1280995898713</v>
+        <v>244.4575722434564</v>
       </c>
       <c r="H41" t="n">
-        <v>153.2174656536757</v>
+        <v>286.2924100826509</v>
       </c>
       <c r="I41" t="n">
-        <v>135.6572907897904</v>
+        <v>23.70724272511615</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>96.68672590803344</v>
       </c>
       <c r="S41" t="n">
-        <v>154.8454316609817</v>
+        <v>155.8376775531291</v>
       </c>
       <c r="T41" t="n">
-        <v>168.9212116388677</v>
+        <v>169.9134575310151</v>
       </c>
       <c r="U41" t="n">
-        <v>65.08831644574511</v>
+        <v>64.57700606254673</v>
       </c>
       <c r="V41" t="n">
-        <v>141.4949220080435</v>
+        <v>140.9836116248451</v>
       </c>
       <c r="W41" t="n">
-        <v>295.0663307921493</v>
+        <v>296.0585766842968</v>
       </c>
       <c r="X41" t="n">
-        <v>315.5564627532053</v>
+        <v>316.5487086453528</v>
       </c>
       <c r="Y41" t="n">
-        <v>332.0633007307899</v>
+        <v>333.0555466229374</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>112.3585457246037</v>
+        <v>113.3507916167511</v>
       </c>
       <c r="C42" t="n">
-        <v>118.5338610630521</v>
+        <v>119.5261069551995</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>94.26267353152251</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>104.4626884222847</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>91.88682036026763</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>84.16112513009439</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>59.05305220338022</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>36.21424081829883</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>45.98319622737945</v>
+        <v>46.97544211952689</v>
       </c>
       <c r="S42" t="n">
-        <v>69.0091218098169</v>
+        <v>118.5007790707216</v>
       </c>
       <c r="T42" t="n">
-        <v>145.9900907695579</v>
+        <v>13.39608184953181</v>
       </c>
       <c r="U42" t="n">
-        <v>171.7667441557111</v>
+        <v>55.09621680929618</v>
       </c>
       <c r="V42" t="n">
-        <v>178.6259492241616</v>
+        <v>46.0319403041355</v>
       </c>
       <c r="W42" t="n">
-        <v>197.5203452356559</v>
+        <v>198.5125911278034</v>
       </c>
       <c r="X42" t="n">
-        <v>151.5983472782138</v>
+        <v>19.00433835818768</v>
       </c>
       <c r="Y42" t="n">
-        <v>151.5080578520407</v>
+        <v>152.5003037441881</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>125.6573422566736</v>
+        <v>126.6495881488211</v>
       </c>
       <c r="C43" t="n">
-        <v>113.0721831733642</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>94.44083509294867</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>34.11944974977862</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>88.35859480693243</v>
       </c>
       <c r="H43" t="n">
-        <v>108.0525345821759</v>
+        <v>109.0447804743233</v>
       </c>
       <c r="I43" t="n">
-        <v>101.2758370019946</v>
+        <v>102.268082894142</v>
       </c>
       <c r="J43" t="n">
-        <v>39.18454219140909</v>
+        <v>40.17678808355653</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>32.97965121857814</v>
       </c>
       <c r="R43" t="n">
-        <v>123.1187534519058</v>
+        <v>124.1109993440532</v>
       </c>
       <c r="S43" t="n">
-        <v>169.8419601117086</v>
+        <v>170.834206003856</v>
       </c>
       <c r="T43" t="n">
-        <v>173.7709515030178</v>
+        <v>174.7631973951653</v>
       </c>
       <c r="U43" t="n">
-        <v>232.1443914312272</v>
+        <v>233.1366373233747</v>
       </c>
       <c r="V43" t="n">
-        <v>197.9630053985643</v>
+        <v>198.9552512907118</v>
       </c>
       <c r="W43" t="n">
-        <v>100.2656618744996</v>
+        <v>233.3406063034748</v>
       </c>
       <c r="X43" t="n">
-        <v>171.5350174637735</v>
+        <v>172.5272633559209</v>
       </c>
       <c r="Y43" t="n">
-        <v>164.4100154268311</v>
+        <v>165.4022613189786</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>328.5592037382169</v>
+        <v>206.2672369033092</v>
       </c>
       <c r="C44" t="n">
-        <v>179.0155553089162</v>
+        <v>188.8062870108361</v>
       </c>
       <c r="D44" t="n">
-        <v>300.5084036954192</v>
+        <v>301.5006495875667</v>
       </c>
       <c r="E44" t="n">
-        <v>327.7557321469981</v>
+        <v>328.7479780391456</v>
       </c>
       <c r="F44" t="n">
-        <v>352.7014078164477</v>
+        <v>353.6936537085952</v>
       </c>
       <c r="G44" t="n">
-        <v>361.1280995898713</v>
+        <v>362.1203454820188</v>
       </c>
       <c r="H44" t="n">
-        <v>153.2174656536757</v>
+        <v>286.2924100826509</v>
       </c>
       <c r="I44" t="n">
-        <v>24.21855310831452</v>
+        <v>157.2934975372897</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>95.694480015886</v>
+        <v>96.68672590803344</v>
       </c>
       <c r="S44" t="n">
-        <v>154.8454316609817</v>
+        <v>155.8376775531291</v>
       </c>
       <c r="T44" t="n">
-        <v>168.9212116388677</v>
+        <v>46.62924480395995</v>
       </c>
       <c r="U44" t="n">
-        <v>197.1710149825728</v>
+        <v>198.1632608747203</v>
       </c>
       <c r="V44" t="n">
-        <v>157.2391796736335</v>
+        <v>274.5698664370187</v>
       </c>
       <c r="W44" t="n">
-        <v>295.0663307921493</v>
+        <v>296.0585766842968</v>
       </c>
       <c r="X44" t="n">
-        <v>315.5564627532053</v>
+        <v>207.9599740753627</v>
       </c>
       <c r="Y44" t="n">
-        <v>332.0633007307899</v>
+        <v>333.0555466229374</v>
       </c>
     </row>
     <row r="45">
@@ -25943,28 +25943,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>112.3585457246037</v>
+        <v>113.3507916167511</v>
       </c>
       <c r="C45" t="n">
-        <v>118.5338610630521</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>103.4704425301373</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>90.8945744681202</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>83.16887923794695</v>
+        <v>84.16112513009439</v>
       </c>
       <c r="H45" t="n">
-        <v>58.06080631123278</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.96420953979769</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>45.98319622737945</v>
+        <v>46.97544211952689</v>
       </c>
       <c r="S45" t="n">
-        <v>117.5085331785741</v>
+        <v>118.5007790707216</v>
       </c>
       <c r="T45" t="n">
-        <v>145.9900907695579</v>
+        <v>146.9823366617053</v>
       </c>
       <c r="U45" t="n">
-        <v>171.7667441557111</v>
+        <v>172.7589900478586</v>
       </c>
       <c r="V45" t="n">
-        <v>58.69723238162254</v>
+        <v>179.618195116309</v>
       </c>
       <c r="W45" t="n">
-        <v>65.43764669882822</v>
+        <v>198.5125911278034</v>
       </c>
       <c r="X45" t="n">
-        <v>19.51564874138609</v>
+        <v>152.5905931703612</v>
       </c>
       <c r="Y45" t="n">
-        <v>151.5080578520407</v>
+        <v>152.5003037441881</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>125.6573422566736</v>
+        <v>3.365375421765876</v>
       </c>
       <c r="C46" t="n">
-        <v>113.0721831733642</v>
+        <v>48.23990582165955</v>
       </c>
       <c r="D46" t="n">
-        <v>94.44083509294867</v>
+        <v>95.43308098509611</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>93.25157061345293</v>
       </c>
       <c r="F46" t="n">
-        <v>91.24641009766756</v>
+        <v>92.238655989815</v>
       </c>
       <c r="G46" t="n">
-        <v>113.8163414331951</v>
+        <v>114.8085873253425</v>
       </c>
       <c r="H46" t="n">
-        <v>67.42512311797606</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>101.2758370019946</v>
+        <v>102.268082894142</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>40.17678808355653</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>31.9874053264307</v>
+        <v>32.97965121857814</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>124.1109993440532</v>
       </c>
       <c r="S46" t="n">
-        <v>37.75926157488087</v>
+        <v>170.834206003856</v>
       </c>
       <c r="T46" t="n">
-        <v>173.7709515030178</v>
+        <v>174.7631973951653</v>
       </c>
       <c r="U46" t="n">
-        <v>232.1443914312272</v>
+        <v>233.1366373233747</v>
       </c>
       <c r="V46" t="n">
-        <v>197.9630053985643</v>
+        <v>198.9552512907118</v>
       </c>
       <c r="W46" t="n">
-        <v>232.3483604113273</v>
+        <v>233.3406063034748</v>
       </c>
       <c r="X46" t="n">
-        <v>171.5350174637735</v>
+        <v>49.24305062886575</v>
       </c>
       <c r="Y46" t="n">
-        <v>164.4100154268311</v>
+        <v>165.4022613189786</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>392863.1213586744</v>
+        <v>390213.9977750998</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>392863.1213586745</v>
+        <v>408365.2190457423</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>548696.3804667903</v>
+        <v>536041.81183594</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>467761.6908319651</v>
+        <v>465882.5251553249</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>406177.8156616596</v>
+        <v>405068.6078919541</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>406177.8156616596</v>
+        <v>399793.0230062573</v>
       </c>
     </row>
   </sheetData>
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>819276.3387170383</v>
+        <v>819276.3387170382</v>
       </c>
       <c r="C2" t="n">
         <v>819276.3387170384</v>
@@ -26328,34 +26328,34 @@
         <v>255276.2791422942</v>
       </c>
       <c r="G2" t="n">
-        <v>406428.4223518961</v>
+        <v>403210.9979707857</v>
       </c>
       <c r="H2" t="n">
-        <v>406428.4223518961</v>
+        <v>425256.0932714328</v>
       </c>
       <c r="I2" t="n">
+        <v>559848.3273116797</v>
+      </c>
+      <c r="J2" t="n">
+        <v>559848.3273116796</v>
+      </c>
+      <c r="K2" t="n">
         <v>559848.3273116798</v>
-      </c>
-      <c r="J2" t="n">
-        <v>559848.32731168</v>
-      </c>
-      <c r="K2" t="n">
-        <v>559848.3273116795</v>
       </c>
       <c r="L2" t="n">
         <v>586557.1453806541</v>
       </c>
       <c r="M2" t="n">
-        <v>586557.1453806541</v>
+        <v>569684.3872061865</v>
       </c>
       <c r="N2" t="n">
-        <v>484007.3378134111</v>
+        <v>481501.7835778907</v>
       </c>
       <c r="O2" t="n">
-        <v>419335.111800069</v>
+        <v>417541.4277101391</v>
       </c>
       <c r="P2" t="n">
-        <v>419335.111800069</v>
+        <v>412663.8475894201</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>7340.879554832793</v>
       </c>
       <c r="G3" t="n">
-        <v>57565.12672571487</v>
+        <v>56359.22779026876</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>8218.506901719984</v>
       </c>
       <c r="I3" t="n">
-        <v>63917.56088787946</v>
+        <v>56932.73222780062</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>43339.71034021094</v>
+        <v>42545.913626493</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,16 +26432,16 @@
         <v>91034.4463925962</v>
       </c>
       <c r="G4" t="n">
-        <v>168122.554570925</v>
+        <v>166448.3512154457</v>
       </c>
       <c r="H4" t="n">
-        <v>168122.554570925</v>
+        <v>177919.63014927</v>
       </c>
       <c r="I4" t="n">
         <v>241347.3738097103</v>
       </c>
       <c r="J4" t="n">
-        <v>241347.3738097103</v>
+        <v>241347.3738097102</v>
       </c>
       <c r="K4" t="n">
         <v>241347.3738097103</v>
@@ -26450,16 +26450,16 @@
         <v>256617.2320674328</v>
       </c>
       <c r="M4" t="n">
-        <v>256617.2320674328</v>
+        <v>246970.0327997934</v>
       </c>
       <c r="N4" t="n">
-        <v>200807.2198919611</v>
+        <v>199375.2947955736</v>
       </c>
       <c r="O4" t="n">
-        <v>172964.9734984228</v>
+        <v>171775.3266611272</v>
       </c>
       <c r="P4" t="n">
-        <v>172964.9734984229</v>
+        <v>170115.2884820446</v>
       </c>
     </row>
     <row r="5">
@@ -26484,10 +26484,10 @@
         <v>2397.621796901122</v>
       </c>
       <c r="G5" t="n">
-        <v>11112.67298853617</v>
+        <v>10937.8396470882</v>
       </c>
       <c r="H5" t="n">
-        <v>11112.67298853617</v>
+        <v>12135.75985201338</v>
       </c>
       <c r="I5" t="n">
         <v>22169.15429094728</v>
@@ -26502,16 +26502,16 @@
         <v>23073.83772314023</v>
       </c>
       <c r="M5" t="n">
-        <v>23073.83772314023</v>
+        <v>22502.28167699023</v>
       </c>
       <c r="N5" t="n">
-        <v>18490.27078713468</v>
+        <v>18406.85366722773</v>
       </c>
       <c r="O5" t="n">
-        <v>12585.03570677812</v>
+        <v>12593.0348084122</v>
       </c>
       <c r="P5" t="n">
-        <v>12585.03570677812</v>
+        <v>11966.670649637</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369312.5337028301</v>
+        <v>369352.255903643</v>
       </c>
       <c r="C6" t="n">
-        <v>369312.5337028302</v>
+        <v>369352.2559036432</v>
       </c>
       <c r="D6" t="n">
-        <v>369312.5337028302</v>
+        <v>369352.2559036432</v>
       </c>
       <c r="E6" t="n">
-        <v>131326.4543274714</v>
+        <v>144382.7963063499</v>
       </c>
       <c r="F6" t="n">
-        <v>140359.1941299143</v>
+        <v>153088.9176711591</v>
       </c>
       <c r="G6" t="n">
-        <v>159262.7343789104</v>
+        <v>168421.0023882492</v>
       </c>
       <c r="H6" t="n">
-        <v>216827.8611046253</v>
+        <v>225992.7321769473</v>
       </c>
       <c r="I6" t="n">
-        <v>225884.4022593277</v>
+        <v>238746.08337684</v>
       </c>
       <c r="J6" t="n">
-        <v>281809.4037755714</v>
+        <v>287686.2562330046</v>
       </c>
       <c r="K6" t="n">
-        <v>289801.9631472068</v>
+        <v>295678.8156046408</v>
       </c>
       <c r="L6" t="n">
-        <v>257664.2496377794</v>
+        <v>263733.950402379</v>
       </c>
       <c r="M6" t="n">
-        <v>301003.9599779903</v>
+        <v>299583.6792727577</v>
       </c>
       <c r="N6" t="n">
-        <v>256283.9863330436</v>
+        <v>262870.7851493735</v>
       </c>
       <c r="O6" t="n">
-        <v>223742.4361432627</v>
+        <v>232164.3153852144</v>
       </c>
       <c r="P6" t="n">
-        <v>223742.4361432627</v>
+        <v>229560.9436520513</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26718,16 +26718,16 @@
         <v>100.1578341526431</v>
       </c>
       <c r="M2" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N2" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="O2" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="P2" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="3">
@@ -26804,10 +26804,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>108.9315903408314</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="H4" t="n">
-        <v>108.9315903408314</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="I4" t="n">
         <v>241.0142888776591</v>
@@ -26828,10 +26828,10 @@
         <v>215.3939976830282</v>
       </c>
       <c r="O4" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="P4" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>43.41343662403563</v>
+        <v>42.42119073188819</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="I2" t="n">
-        <v>35.99249701283465</v>
+        <v>30.18608886901173</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="G4" t="n">
-        <v>83.31129914620054</v>
+        <v>81.8077428708547</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>10.30204208511835</v>
       </c>
       <c r="I4" t="n">
-        <v>132.0826985368276</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>43.41343662403563</v>
+        <v>42.42119073188819</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>6.798654035970358</v>
       </c>
       <c r="N2" t="n">
-        <v>35.99249701283465</v>
+        <v>30.18608886901173</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>25.62029119463083</v>
       </c>
       <c r="O4" t="n">
-        <v>83.31129914620054</v>
+        <v>81.8077428708547</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>10.30204208511835</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="C17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="D17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="E17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="F17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="G17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="H17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="I17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="S17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="T17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="U17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="V17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="W17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="X17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="Y17" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="C18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="D18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="E18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="F18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="G18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="H18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="I18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="S18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="T18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="U18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="V18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="W18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="X18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="Y18" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="C19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="D19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="E19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="F19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="G19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="H19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="I19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="J19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="K19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="L19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="M19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="N19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="O19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="P19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="Q19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="R19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="S19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="T19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="U19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="V19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="W19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="X19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
       <c r="Y19" t="n">
-        <v>53.40413583858043</v>
+        <v>52.41188994643299</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="C20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="D20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="E20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="F20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="G20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="H20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="I20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="S20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="T20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="U20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="V20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="W20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="X20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="Y20" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="C21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="D21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="E21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="F21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="G21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="H21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="I21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="S21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="T21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="U21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="V21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="W21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="X21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="Y21" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="C22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="D22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="E22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="F22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="G22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="H22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="I22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="J22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="K22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="L22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="M22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="N22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="O22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="P22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="Q22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="R22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="S22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="T22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="U22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="V22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="W22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="X22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
       <c r="Y22" t="n">
-        <v>53.40413583858043</v>
+        <v>59.21054398240335</v>
       </c>
     </row>
     <row r="23">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y35" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30112,28 +30112,28 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="C37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="D37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="E37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="F37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="G37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="I37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="J37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="L37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="M37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="N37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="O37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="P37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Q37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="R37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="S37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="T37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="U37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="V37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="W37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="X37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.1578341526431</v>
+        <v>93.35918011667277</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="C38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="D38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="E38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="F38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="G38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="H38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="I38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="S38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="T38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="U38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="V38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="W38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="X38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="Y38" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="C39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="D39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="E39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="F39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="G39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="H39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="I39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="S39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="T39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="U39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="V39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="W39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="X39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="Y39" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="C40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="D40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="E40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="F40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="G40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="H40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="I40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="J40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="K40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="L40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="M40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="N40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="O40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="P40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="R40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="S40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="T40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="U40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="V40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="W40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="X40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
       <c r="Y40" t="n">
-        <v>64.16533713980849</v>
+        <v>63.17309124766105</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y41" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y42" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="K43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="L43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="M43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="N43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="O43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="P43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Q43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="R43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y43" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y44" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y45" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="C46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="D46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="E46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="F46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="G46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="H46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="I46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="J46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="K46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="L46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="M46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="N46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="O46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="P46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Q46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="R46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="S46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="T46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="U46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="V46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="W46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="X46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
       <c r="Y46" t="n">
-        <v>54.17463792526368</v>
+        <v>53.18239203311624</v>
       </c>
     </row>
   </sheetData>
@@ -35655,13 +35655,13 @@
         <v>25.62029119463083</v>
       </c>
       <c r="M14" t="n">
+        <v>25.62029119463083</v>
+      </c>
+      <c r="N14" t="n">
         <v>24.58512791403969</v>
       </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
       <c r="O14" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35731,16 +35731,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>25.62029119463083</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>24.58512791403969</v>
       </c>
       <c r="N15" t="n">
         <v>25.62029119463083</v>
       </c>
       <c r="O15" t="n">
-        <v>24.58512791403969</v>
+        <v>25.62029119463083</v>
       </c>
       <c r="P15" t="n">
         <v>25.62029119463083</v>
@@ -35889,16 +35889,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>108.9315903408314</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="M17" t="n">
-        <v>18.84063036185815</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>15.89426755966523</v>
       </c>
       <c r="O17" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>34.43480031359653</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>103.087507436577</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="N18" t="n">
-        <v>108.9315903408314</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="O18" t="n">
-        <v>108.9315903408314</v>
+        <v>107.4280340654855</v>
       </c>
       <c r="P18" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>31.13464401269758</v>
+        <v>30.14239812055014</v>
       </c>
       <c r="L19" t="n">
-        <v>80.99416109889657</v>
+        <v>80.00191520674913</v>
       </c>
       <c r="M19" t="n">
-        <v>92.98801280042102</v>
+        <v>91.99576690827358</v>
       </c>
       <c r="N19" t="n">
-        <v>97.53630821780902</v>
+        <v>96.54406232566159</v>
       </c>
       <c r="O19" t="n">
-        <v>77.9892637526201</v>
+        <v>76.99701786047267</v>
       </c>
       <c r="P19" t="n">
-        <v>50.68269510347392</v>
+        <v>49.69044921132648</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>18.84063036185816</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="N20" t="n">
-        <v>108.9315903408314</v>
+        <v>112.9733053970441</v>
       </c>
       <c r="O20" t="n">
-        <v>108.9315903408314</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="P20" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="L21" t="n">
-        <v>108.9315903408314</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="M21" t="n">
-        <v>108.9315903408314</v>
+        <v>117.7300761506039</v>
       </c>
       <c r="N21" t="n">
-        <v>104.5303139634241</v>
+        <v>112.9733053970441</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>108.9315903408314</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>31.13464401269758</v>
+        <v>36.9410521565205</v>
       </c>
       <c r="L22" t="n">
-        <v>80.99416109889657</v>
+        <v>86.80056924271949</v>
       </c>
       <c r="M22" t="n">
-        <v>92.98801280042102</v>
+        <v>98.79442094424394</v>
       </c>
       <c r="N22" t="n">
-        <v>97.53630821780902</v>
+        <v>103.3427163616319</v>
       </c>
       <c r="O22" t="n">
-        <v>77.9892637526201</v>
+        <v>83.79567189644303</v>
       </c>
       <c r="P22" t="n">
-        <v>50.68269510347392</v>
+        <v>56.48910324729684</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36372,7 +36372,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O23" t="n">
-        <v>150.7019698410586</v>
+        <v>150.7019698410587</v>
       </c>
       <c r="P23" t="n">
         <v>90.5657124162131</v>
@@ -36439,19 +36439,19 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O24" t="n">
-        <v>99.8112771299739</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36676,13 +36676,13 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
@@ -36691,10 +36691,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,10 +36913,10 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
         <v>241.0142888776591</v>
@@ -36925,13 +36925,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>46.78797658628819</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37390,10 +37390,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>34.55702612384782</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,7 +37402,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
         <v>70.09551364982758</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.798654035970358</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>77.88834232676028</v>
+        <v>71.08968829078992</v>
       </c>
       <c r="L37" t="n">
-        <v>127.7478594129593</v>
+        <v>120.9492053769889</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7417111144837</v>
+        <v>132.9430570785134</v>
       </c>
       <c r="N37" t="n">
-        <v>144.2900065318717</v>
+        <v>137.4913524959014</v>
       </c>
       <c r="O37" t="n">
-        <v>124.7429620666828</v>
+        <v>117.9443080307124</v>
       </c>
       <c r="P37" t="n">
-        <v>97.43639341753662</v>
+        <v>90.63773938156626</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.99579090094875</v>
+        <v>7.19713686497839</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37548,7 +37548,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L38" t="n">
-        <v>181.8947995804632</v>
+        <v>174.7878130812758</v>
       </c>
       <c r="M38" t="n">
         <v>215.3939976830282</v>
@@ -37557,10 +37557,10 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O38" t="n">
-        <v>53.02927092565796</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37627,13 +37627,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
+        <v>40.87753466722953</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>215.3939976830282</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>110.973048317057</v>
       </c>
       <c r="O39" t="n">
         <v>215.3939976830282</v>
@@ -37642,7 +37642,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>41.89584531392563</v>
+        <v>40.9035994217782</v>
       </c>
       <c r="L40" t="n">
-        <v>91.75536240012462</v>
+        <v>90.76311650797719</v>
       </c>
       <c r="M40" t="n">
-        <v>103.7492141016491</v>
+        <v>102.7569682095016</v>
       </c>
       <c r="N40" t="n">
-        <v>108.2975095190371</v>
+        <v>107.3052636268896</v>
       </c>
       <c r="O40" t="n">
-        <v>88.75046505384816</v>
+        <v>87.75821916170072</v>
       </c>
       <c r="P40" t="n">
-        <v>61.44389640470197</v>
+        <v>60.45165051255454</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37785,16 +37785,16 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="M41" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>64.20744844290145</v>
+        <v>67.15381124509426</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37864,22 +37864,22 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>56.6505101986435</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="N42" t="n">
-        <v>132.0826985368277</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="O42" t="n">
-        <v>132.0826985368277</v>
+        <v>128.188830375318</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.5862548121735</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>31.90514609938083</v>
+        <v>30.91290020723339</v>
       </c>
       <c r="L43" t="n">
-        <v>81.76466318557982</v>
+        <v>80.77241729343238</v>
       </c>
       <c r="M43" t="n">
-        <v>93.75851488710427</v>
+        <v>92.76626899495683</v>
       </c>
       <c r="N43" t="n">
-        <v>98.30681030449227</v>
+        <v>97.31456441234484</v>
       </c>
       <c r="O43" t="n">
-        <v>78.75976583930336</v>
+        <v>77.76751994715592</v>
       </c>
       <c r="P43" t="n">
-        <v>51.45319719015717</v>
+        <v>50.46095129800973</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="N44" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="O44" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="P44" t="n">
-        <v>22.69046232228685</v>
+        <v>14.2474708886668</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="L45" t="n">
-        <v>132.0826985368277</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>132.0826985368277</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="N45" t="n">
-        <v>62.10941069725163</v>
+        <v>123.2842127270552</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>118.3030324148509</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>31.90514609938083</v>
+        <v>30.91290020723339</v>
       </c>
       <c r="L46" t="n">
-        <v>81.76466318557982</v>
+        <v>80.77241729343238</v>
       </c>
       <c r="M46" t="n">
-        <v>93.75851488710427</v>
+        <v>92.76626899495683</v>
       </c>
       <c r="N46" t="n">
-        <v>98.30681030449227</v>
+        <v>97.31456441234484</v>
       </c>
       <c r="O46" t="n">
-        <v>78.75976583930336</v>
+        <v>77.76751994715592</v>
       </c>
       <c r="P46" t="n">
-        <v>51.45319719015717</v>
+        <v>50.46095129800973</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
